--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/botanical-collections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42BDC5EA-0AA2-DA4A-99AE-BFF5BD3F167B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE75430A-BD12-9F45-9442-F34A03C918C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="474">
   <si>
     <t>collection_no</t>
   </si>
@@ -1433,6 +1433,15 @@
   </si>
   <si>
     <t>RVM_162</t>
+  </si>
+  <si>
+    <t>Specimen details</t>
+  </si>
+  <si>
+    <t>Locality et al.</t>
+  </si>
+  <si>
+    <t>Taxonomic data</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1567,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1738,6 +1747,48 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1899,9 +1950,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2257,252 +2315,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK164"/>
+  <dimension ref="A1:AK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="157" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="144.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="167.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2">
-        <v>23</v>
-      </c>
-      <c r="R2">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
+      <c r="AI2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
         <v>36</v>
-      </c>
-      <c r="V2">
-        <v>48.5</v>
-      </c>
-      <c r="W2">
-        <v>1795</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1">
-        <v>43198</v>
+        <v>43197</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -2523,16 +2553,16 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
         <v>48</v>
@@ -2544,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="R3">
-        <v>28</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="S3" t="s">
         <v>49</v>
@@ -2556,10 +2586,10 @@
         <v>36</v>
       </c>
       <c r="V3">
-        <v>33</v>
+        <v>48.5</v>
       </c>
       <c r="W3">
-        <v>1734</v>
+        <v>1795</v>
       </c>
       <c r="X3" t="s">
         <v>50</v>
@@ -2580,13 +2610,13 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s">
         <v>59</v>
@@ -2599,23 +2629,20 @@
       </c>
       <c r="AJ3">
         <v>3</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
-        <v>43199</v>
+        <v>43198</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -2633,19 +2660,19 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
         <v>48</v>
@@ -2657,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="R4">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
         <v>49</v>
@@ -2669,10 +2696,10 @@
         <v>36</v>
       </c>
       <c r="V4">
-        <v>55.5</v>
+        <v>33</v>
       </c>
       <c r="W4">
-        <v>1827</v>
+        <v>1734</v>
       </c>
       <c r="X4" t="s">
         <v>50</v>
@@ -2696,36 +2723,39 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AH4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="s">
         <v>61</v>
       </c>
       <c r="AJ4">
         <v>3</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1">
-        <v>43221</v>
+        <v>43199</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -2743,19 +2773,19 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
         <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>48</v>
@@ -2764,10 +2794,10 @@
         <v>33</v>
       </c>
       <c r="Q5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="R5">
-        <v>17.41</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
         <v>49</v>
@@ -2776,16 +2806,16 @@
         <v>19</v>
       </c>
       <c r="U5">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="V5">
-        <v>7.75</v>
+        <v>55.5</v>
       </c>
       <c r="W5">
-        <v>1287</v>
+        <v>1827</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="s">
         <v>51</v>
@@ -2800,36 +2830,36 @@
         <v>54</v>
       </c>
       <c r="AC5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="AJ5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2859,13 +2889,13 @@
         <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
         <v>48</v>
@@ -2936,10 +2966,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -2966,16 +2996,16 @@
         <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
@@ -2987,7 +3017,7 @@
         <v>37</v>
       </c>
       <c r="R7">
-        <v>21.69</v>
+        <v>17.41</v>
       </c>
       <c r="S7" t="s">
         <v>49</v>
@@ -2999,13 +3029,13 @@
         <v>9</v>
       </c>
       <c r="V7">
-        <v>5.28</v>
+        <v>7.75</v>
       </c>
       <c r="W7">
-        <v>1258</v>
+        <v>1287</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
         <v>51</v>
@@ -3023,22 +3053,22 @@
         <v>82</v>
       </c>
       <c r="AD7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AE7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AH7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s">
         <v>88</v>
@@ -3046,10 +3076,10 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -3076,13 +3106,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
         <v>40</v>
@@ -3097,7 +3127,7 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>25.85</v>
+        <v>21.69</v>
       </c>
       <c r="S8" t="s">
         <v>49</v>
@@ -3109,10 +3139,10 @@
         <v>9</v>
       </c>
       <c r="V8">
-        <v>4.08</v>
+        <v>5.28</v>
       </c>
       <c r="W8">
-        <v>1215</v>
+        <v>1258</v>
       </c>
       <c r="X8" t="s">
         <v>95</v>
@@ -3133,19 +3163,22 @@
         <v>82</v>
       </c>
       <c r="AD8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>97</v>
       </c>
       <c r="AG8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AH8" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="AJ8" t="s">
         <v>88</v>
@@ -3153,13 +3186,13 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>43221</v>
@@ -3183,13 +3216,13 @@
         <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
         <v>40</v>
@@ -3204,7 +3237,7 @@
         <v>37</v>
       </c>
       <c r="R9">
-        <v>49.54</v>
+        <v>25.85</v>
       </c>
       <c r="S9" t="s">
         <v>49</v>
@@ -3213,16 +3246,16 @@
         <v>19</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9">
-        <v>44.48</v>
+        <v>4.08</v>
       </c>
       <c r="W9">
-        <v>1055</v>
+        <v>1215</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
         <v>51</v>
@@ -3237,33 +3270,36 @@
         <v>54</v>
       </c>
       <c r="AC9" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>103</v>
       </c>
       <c r="AG9" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AI9" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1">
         <v>43221</v>
@@ -3287,16 +3323,16 @@
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
         <v>48</v>
@@ -3308,7 +3344,7 @@
         <v>37</v>
       </c>
       <c r="R10">
-        <v>42.56</v>
+        <v>49.54</v>
       </c>
       <c r="S10" t="s">
         <v>49</v>
@@ -3320,13 +3356,13 @@
         <v>8</v>
       </c>
       <c r="V10">
-        <v>34.33</v>
+        <v>44.48</v>
       </c>
       <c r="W10">
-        <v>1025</v>
+        <v>1055</v>
       </c>
       <c r="X10" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s">
         <v>51</v>
@@ -3344,36 +3380,30 @@
         <v>109</v>
       </c>
       <c r="AD10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1">
         <v>43221</v>
@@ -3397,16 +3427,16 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
         <v>48</v>
@@ -3418,7 +3448,7 @@
         <v>37</v>
       </c>
       <c r="R11">
-        <v>19.489999999999998</v>
+        <v>42.56</v>
       </c>
       <c r="S11" t="s">
         <v>49</v>
@@ -3427,16 +3457,16 @@
         <v>19</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>57.07</v>
+        <v>34.33</v>
       </c>
       <c r="W11">
-        <v>803</v>
+        <v>1025</v>
       </c>
       <c r="X11" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
         <v>51</v>
@@ -3454,33 +3484,33 @@
         <v>109</v>
       </c>
       <c r="AD11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE11" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s">
         <v>59</v>
       </c>
       <c r="AH11" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:37">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>107</v>
@@ -3510,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s">
         <v>94</v>
@@ -3528,7 +3558,7 @@
         <v>37</v>
       </c>
       <c r="R12">
-        <v>8.65</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="S12" t="s">
         <v>49</v>
@@ -3537,13 +3567,13 @@
         <v>19</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>43.08</v>
+        <v>57.07</v>
       </c>
       <c r="W12">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="X12" t="s">
         <v>81</v>
@@ -3564,16 +3594,22 @@
         <v>109</v>
       </c>
       <c r="AD12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>59</v>
       </c>
       <c r="AH12" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="AI12" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s">
         <v>81</v>
@@ -3581,10 +3617,10 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
@@ -3611,13 +3647,13 @@
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>40</v>
@@ -3685,16 +3721,16 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1">
-        <v>43225</v>
+        <v>43221</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -3718,13 +3754,13 @@
         <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
@@ -3733,10 +3769,10 @@
         <v>33</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14">
-        <v>27.5</v>
+        <v>8.65</v>
       </c>
       <c r="S14" t="s">
         <v>49</v>
@@ -3745,16 +3781,16 @@
         <v>19</v>
       </c>
       <c r="U14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V14">
-        <v>17.5</v>
+        <v>43.08</v>
       </c>
       <c r="W14">
-        <v>595</v>
+        <v>769</v>
       </c>
       <c r="X14" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s">
         <v>51</v>
@@ -3763,31 +3799,25 @@
         <v>52</v>
       </c>
       <c r="AA14" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="AB14" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="AD14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AE14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="AH14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="AI14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="s">
         <v>81</v>
@@ -3795,10 +3825,10 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3828,13 +3858,13 @@
         <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
         <v>48</v>
@@ -3905,10 +3935,10 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -4015,10 +4045,10 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -4048,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
@@ -4125,10 +4155,10 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -4152,19 +4182,19 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
@@ -4212,7 +4242,7 @@
         <v>138</v>
       </c>
       <c r="AD18" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AE18" t="s">
         <v>140</v>
@@ -4227,7 +4257,7 @@
         <v>125</v>
       </c>
       <c r="AI18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AJ18" t="s">
         <v>81</v>
@@ -4235,10 +4265,10 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -4262,19 +4292,19 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="O19" t="s">
         <v>48</v>
@@ -4286,7 +4316,7 @@
         <v>19</v>
       </c>
       <c r="R19">
-        <v>32.11</v>
+        <v>27.5</v>
       </c>
       <c r="S19" t="s">
         <v>49</v>
@@ -4298,10 +4328,10 @@
         <v>18</v>
       </c>
       <c r="V19">
-        <v>27.56</v>
+        <v>17.5</v>
       </c>
       <c r="W19">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="X19" t="s">
         <v>135</v>
@@ -4345,10 +4375,10 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -4378,13 +4408,13 @@
         <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
@@ -4396,7 +4426,7 @@
         <v>19</v>
       </c>
       <c r="R20">
-        <v>32.69</v>
+        <v>32.11</v>
       </c>
       <c r="S20" t="s">
         <v>49</v>
@@ -4408,10 +4438,10 @@
         <v>18</v>
       </c>
       <c r="V20">
-        <v>30.68</v>
+        <v>27.56</v>
       </c>
       <c r="W20">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="X20" t="s">
         <v>135</v>
@@ -4455,10 +4485,10 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -4482,19 +4512,19 @@
         <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
         <v>48</v>
@@ -4506,7 +4536,7 @@
         <v>19</v>
       </c>
       <c r="R21">
-        <v>32.11</v>
+        <v>32.69</v>
       </c>
       <c r="S21" t="s">
         <v>49</v>
@@ -4518,10 +4548,10 @@
         <v>18</v>
       </c>
       <c r="V21">
-        <v>27.56</v>
+        <v>30.68</v>
       </c>
       <c r="W21">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="X21" t="s">
         <v>135</v>
@@ -4565,13 +4595,13 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1">
         <v>43225</v>
@@ -4592,46 +4622,46 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="O22" t="s">
         <v>48</v>
       </c>
-      <c r="P22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22" t="s">
-        <v>81</v>
+      <c r="P22">
+        <v>33</v>
+      </c>
+      <c r="Q22">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>32.11</v>
       </c>
       <c r="S22" t="s">
         <v>49</v>
       </c>
-      <c r="T22" t="s">
-        <v>81</v>
-      </c>
-      <c r="U22" t="s">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s">
-        <v>81</v>
-      </c>
-      <c r="W22" t="s">
-        <v>81</v>
+      <c r="T22">
+        <v>19</v>
+      </c>
+      <c r="U22">
+        <v>18</v>
+      </c>
+      <c r="V22">
+        <v>27.56</v>
+      </c>
+      <c r="W22">
+        <v>504</v>
       </c>
       <c r="X22" t="s">
         <v>135</v>
@@ -4675,13 +4705,13 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1">
         <v>43225</v>
@@ -4708,40 +4738,40 @@
         <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
         <v>48</v>
       </c>
-      <c r="P23">
-        <v>33</v>
-      </c>
-      <c r="Q23">
-        <v>19</v>
-      </c>
-      <c r="R23">
-        <v>32.69</v>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" t="s">
+        <v>81</v>
       </c>
       <c r="S23" t="s">
         <v>49</v>
       </c>
-      <c r="T23">
-        <v>19</v>
-      </c>
-      <c r="U23">
-        <v>18</v>
-      </c>
-      <c r="V23">
-        <v>30.68</v>
-      </c>
-      <c r="W23">
-        <v>486</v>
+      <c r="T23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s">
+        <v>81</v>
       </c>
       <c r="X23" t="s">
         <v>135</v>
@@ -4785,16 +4815,16 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1">
-        <v>43229</v>
+        <v>43225</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
@@ -4818,13 +4848,13 @@
         <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
         <v>48</v>
@@ -4833,10 +4863,10 @@
         <v>33</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="R24">
-        <v>9.6</v>
+        <v>32.69</v>
       </c>
       <c r="S24" t="s">
         <v>49</v>
@@ -4845,16 +4875,16 @@
         <v>19</v>
       </c>
       <c r="U24">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="V24">
-        <v>27.2</v>
+        <v>30.68</v>
       </c>
       <c r="W24">
-        <v>1021</v>
+        <v>486</v>
       </c>
       <c r="X24" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="Y24" t="s">
         <v>51</v>
@@ -4863,22 +4893,22 @@
         <v>52</v>
       </c>
       <c r="AA24" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="AC24" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="AD24" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="AE24" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AG24" t="s">
         <v>59</v>
@@ -4887,7 +4917,7 @@
         <v>125</v>
       </c>
       <c r="AI24" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AJ24" t="s">
         <v>81</v>
@@ -4895,13 +4925,13 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1">
         <v>43229</v>
@@ -4928,7 +4958,7 @@
         <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s">
         <v>39</v>
@@ -4946,22 +4976,22 @@
         <v>58</v>
       </c>
       <c r="R25">
-        <v>41.72</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="s">
         <v>49</v>
       </c>
       <c r="T25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V25">
-        <v>40.51</v>
+        <v>27.2</v>
       </c>
       <c r="W25">
-        <v>751</v>
+        <v>1021</v>
       </c>
       <c r="X25" t="s">
         <v>81</v>
@@ -4979,25 +5009,25 @@
         <v>170</v>
       </c>
       <c r="AC25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AD25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AE25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AG25" t="s">
         <v>59</v>
       </c>
       <c r="AH25" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="AI25" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AJ25" t="s">
         <v>81</v>
@@ -5005,10 +5035,10 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -5038,13 +5068,13 @@
         <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="O26" t="s">
         <v>48</v>
@@ -5115,16 +5145,16 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="1">
-        <v>43286</v>
+        <v>43229</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
@@ -5145,43 +5175,43 @@
         <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s">
         <v>48</v>
       </c>
       <c r="P27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="R27">
-        <v>35.4</v>
+        <v>41.72</v>
       </c>
       <c r="S27" t="s">
         <v>49</v>
       </c>
       <c r="T27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U27">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="V27">
-        <v>11.5</v>
+        <v>40.51</v>
       </c>
       <c r="W27">
-        <v>326</v>
+        <v>751</v>
       </c>
       <c r="X27" t="s">
         <v>81</v>
@@ -5193,31 +5223,31 @@
         <v>52</v>
       </c>
       <c r="AA27" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AB27" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AC27" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AD27" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AE27" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AH27" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AI27" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="AJ27" t="s">
         <v>81</v>
@@ -5225,16 +5255,16 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="1">
-        <v>43357</v>
+        <v>43286</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
@@ -5255,13 +5285,13 @@
         <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -5270,28 +5300,28 @@
         <v>48</v>
       </c>
       <c r="P28">
-        <v>34.296597800000001</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>35.4</v>
       </c>
       <c r="S28" t="s">
         <v>49</v>
       </c>
       <c r="T28">
-        <v>18.441924400000001</v>
-      </c>
-      <c r="U28" t="s">
-        <v>40</v>
-      </c>
-      <c r="V28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W28" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>11.5</v>
+      </c>
+      <c r="W28">
+        <v>326</v>
       </c>
       <c r="X28" t="s">
         <v>81</v>
@@ -5303,45 +5333,42 @@
         <v>52</v>
       </c>
       <c r="AA28" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AC28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AD28" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AE28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s">
         <v>81</v>
       </c>
       <c r="AH28" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="AJ28" t="s">
         <v>81</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:37">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -5451,10 +5478,10 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -5484,7 +5511,7 @@
         <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M30" t="s">
         <v>39</v>
@@ -5564,16 +5591,16 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
-        <v>43360</v>
+        <v>43357</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
@@ -5609,10 +5636,10 @@
         <v>48</v>
       </c>
       <c r="P31">
-        <v>33</v>
-      </c>
-      <c r="Q31">
-        <v>56.764339999999997</v>
+        <v>34.296597800000001</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>40</v>
       </c>
       <c r="R31" t="s">
         <v>40</v>
@@ -5621,19 +5648,19 @@
         <v>49</v>
       </c>
       <c r="T31">
-        <v>20</v>
-      </c>
-      <c r="U31">
-        <v>27.255289999999999</v>
+        <v>18.441924400000001</v>
+      </c>
+      <c r="U31" t="s">
+        <v>40</v>
       </c>
       <c r="V31" t="s">
         <v>40</v>
       </c>
-      <c r="W31">
-        <v>772.5</v>
+      <c r="W31" t="s">
+        <v>81</v>
       </c>
       <c r="X31" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s">
         <v>51</v>
@@ -5642,34 +5669,34 @@
         <v>52</v>
       </c>
       <c r="AA31" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AB31" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="AC31" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AD31" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AE31" t="s">
         <v>197</v>
       </c>
       <c r="AF31" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="AI31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ31">
-        <v>3</v>
+        <v>199</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>81</v>
       </c>
       <c r="AK31" t="s">
         <v>200</v>
@@ -5677,10 +5704,10 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
         <v>168</v>
@@ -5710,7 +5737,7 @@
         <v>45</v>
       </c>
       <c r="L32" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
         <v>39</v>
@@ -5764,13 +5791,13 @@
         <v>205</v>
       </c>
       <c r="AD32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AE32" t="s">
         <v>197</v>
       </c>
       <c r="AF32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s">
         <v>59</v>
@@ -5783,17 +5810,20 @@
       </c>
       <c r="AJ32">
         <v>3</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:37">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1">
         <v>43360</v>
@@ -5820,7 +5850,7 @@
         <v>45</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M33" t="s">
         <v>39</v>
@@ -5835,10 +5865,10 @@
         <v>33</v>
       </c>
       <c r="Q33">
-        <v>56</v>
-      </c>
-      <c r="R33">
-        <v>49.2</v>
+        <v>56.764339999999997</v>
+      </c>
+      <c r="R33" t="s">
+        <v>40</v>
       </c>
       <c r="S33" t="s">
         <v>49</v>
@@ -5847,13 +5877,13 @@
         <v>20</v>
       </c>
       <c r="U33">
-        <v>27</v>
-      </c>
-      <c r="V33">
-        <v>14.13</v>
+        <v>27.255289999999999</v>
+      </c>
+      <c r="V33" t="s">
+        <v>40</v>
       </c>
       <c r="W33">
-        <v>807</v>
+        <v>772.5</v>
       </c>
       <c r="X33" t="s">
         <v>50</v>
@@ -5874,22 +5904,22 @@
         <v>205</v>
       </c>
       <c r="AD33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE33" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AF33" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AG33" t="s">
         <v>59</v>
       </c>
       <c r="AH33" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="AI33" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AJ33">
         <v>3</v>
@@ -5897,10 +5927,10 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -5930,7 +5960,7 @@
         <v>45</v>
       </c>
       <c r="L34" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="M34" t="s">
         <v>39</v>
@@ -6007,13 +6037,13 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
         <v>43360</v>
@@ -6037,13 +6067,13 @@
         <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="L35" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="N35" t="s">
         <v>40</v>
@@ -6055,10 +6085,10 @@
         <v>33</v>
       </c>
       <c r="Q35">
-        <v>56.6815</v>
-      </c>
-      <c r="R35" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="R35">
+        <v>49.2</v>
       </c>
       <c r="S35" t="s">
         <v>49</v>
@@ -6067,13 +6097,13 @@
         <v>20</v>
       </c>
       <c r="U35">
-        <v>26.653770000000002</v>
-      </c>
-      <c r="V35" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="V35">
+        <v>14.13</v>
       </c>
       <c r="W35">
-        <v>700</v>
+        <v>807</v>
       </c>
       <c r="X35" t="s">
         <v>50</v>
@@ -6094,36 +6124,33 @@
         <v>205</v>
       </c>
       <c r="AD35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AE35" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="s">
         <v>59</v>
       </c>
       <c r="AH35" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="AJ35">
         <v>3</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:37">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
         <v>168</v>
@@ -6150,13 +6177,13 @@
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
@@ -6168,10 +6195,10 @@
         <v>33</v>
       </c>
       <c r="Q36">
-        <v>56</v>
-      </c>
-      <c r="R36">
-        <v>42.06</v>
+        <v>56.6815</v>
+      </c>
+      <c r="R36" t="s">
+        <v>40</v>
       </c>
       <c r="S36" t="s">
         <v>49</v>
@@ -6180,13 +6207,13 @@
         <v>20</v>
       </c>
       <c r="U36">
-        <v>27</v>
-      </c>
-      <c r="V36">
-        <v>0.4</v>
+        <v>26.653770000000002</v>
+      </c>
+      <c r="V36" t="s">
+        <v>40</v>
       </c>
       <c r="W36">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="X36" t="s">
         <v>50</v>
@@ -6207,33 +6234,36 @@
         <v>205</v>
       </c>
       <c r="AD36" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AE36" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AG36" t="s">
         <v>59</v>
       </c>
       <c r="AH36" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AI36" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AJ36">
         <v>3</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
         <v>168</v>
@@ -6263,7 +6293,7 @@
         <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s">
         <v>39</v>
@@ -6281,7 +6311,7 @@
         <v>56</v>
       </c>
       <c r="R37">
-        <v>41.15</v>
+        <v>42.06</v>
       </c>
       <c r="S37" t="s">
         <v>49</v>
@@ -6290,13 +6320,13 @@
         <v>20</v>
       </c>
       <c r="U37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V37">
-        <v>56.62</v>
+        <v>0.4</v>
       </c>
       <c r="W37">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="X37" t="s">
         <v>50</v>
@@ -6317,7 +6347,7 @@
         <v>205</v>
       </c>
       <c r="AD37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AE37" t="s">
         <v>81</v>
@@ -6340,13 +6370,13 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1">
         <v>43360</v>
@@ -6373,7 +6403,7 @@
         <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M38" t="s">
         <v>39</v>
@@ -6427,10 +6457,10 @@
         <v>205</v>
       </c>
       <c r="AD38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AE38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s">
         <v>81</v>
@@ -6442,7 +6472,7 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AJ38">
         <v>3</v>
@@ -6450,10 +6480,10 @@
     </row>
     <row r="39" spans="1:37">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -6483,7 +6513,7 @@
         <v>45</v>
       </c>
       <c r="L39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s">
         <v>39</v>
@@ -6560,10 +6590,10 @@
     </row>
     <row r="40" spans="1:37">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -6593,7 +6623,7 @@
         <v>45</v>
       </c>
       <c r="L40" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="M40" t="s">
         <v>39</v>
@@ -6611,7 +6641,7 @@
         <v>56</v>
       </c>
       <c r="R40">
-        <v>41.51</v>
+        <v>41.15</v>
       </c>
       <c r="S40" t="s">
         <v>49</v>
@@ -6620,13 +6650,13 @@
         <v>20</v>
       </c>
       <c r="U40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V40">
-        <v>22.3</v>
+        <v>56.62</v>
       </c>
       <c r="W40">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="X40" t="s">
         <v>50</v>
@@ -6647,10 +6677,10 @@
         <v>205</v>
       </c>
       <c r="AD40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AE40" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="AF40" t="s">
         <v>81</v>
@@ -6662,21 +6692,18 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="AJ40">
         <v>3</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:37">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -6706,7 +6733,7 @@
         <v>45</v>
       </c>
       <c r="L41" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="M41" t="s">
         <v>39</v>
@@ -6724,7 +6751,7 @@
         <v>56</v>
       </c>
       <c r="R41">
-        <v>41.15</v>
+        <v>41.51</v>
       </c>
       <c r="S41" t="s">
         <v>49</v>
@@ -6733,13 +6760,13 @@
         <v>20</v>
       </c>
       <c r="U41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V41">
-        <v>56.62</v>
+        <v>22.3</v>
       </c>
       <c r="W41">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="X41" t="s">
         <v>50</v>
@@ -6760,10 +6787,10 @@
         <v>205</v>
       </c>
       <c r="AD41" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AE41" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s">
         <v>81</v>
@@ -6775,24 +6802,27 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="AJ41">
         <v>3</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:37">
       <c r="A42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1">
-        <v>43399</v>
+        <v>43360</v>
       </c>
       <c r="E42" t="s">
         <v>39</v>
@@ -6813,13 +6843,13 @@
         <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L42" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
         <v>40</v>
@@ -6828,31 +6858,31 @@
         <v>48</v>
       </c>
       <c r="P42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q42">
-        <v>5.9029999999999996</v>
-      </c>
-      <c r="R42" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="R42">
+        <v>41.15</v>
       </c>
       <c r="S42" t="s">
         <v>49</v>
       </c>
       <c r="T42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U42">
-        <v>57.924999999999997</v>
-      </c>
-      <c r="V42" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="V42">
+        <v>56.62</v>
       </c>
       <c r="W42">
-        <v>945</v>
+        <v>748</v>
       </c>
       <c r="X42" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Y42" t="s">
         <v>51</v>
@@ -6861,48 +6891,48 @@
         <v>52</v>
       </c>
       <c r="AA42" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="AC42" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AD42" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AE42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AF42" t="s">
         <v>81</v>
       </c>
       <c r="AG42" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AH42" t="s">
         <v>81</v>
       </c>
       <c r="AI42" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:37">
       <c r="A43">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1">
-        <v>43413</v>
+        <v>43399</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
@@ -6926,10 +6956,10 @@
         <v>63</v>
       </c>
       <c r="L43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N43" t="s">
         <v>40</v>
@@ -6938,10 +6968,10 @@
         <v>48</v>
       </c>
       <c r="P43">
-        <v>34.310827000000003</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q43">
+        <v>5.9029999999999996</v>
       </c>
       <c r="R43" t="s">
         <v>40</v>
@@ -6950,16 +6980,16 @@
         <v>49</v>
       </c>
       <c r="T43">
-        <v>18.837015999999998</v>
-      </c>
-      <c r="U43" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="U43">
+        <v>57.924999999999997</v>
       </c>
       <c r="V43" t="s">
         <v>40</v>
       </c>
       <c r="W43">
-        <v>126.90799699999999</v>
+        <v>945</v>
       </c>
       <c r="X43" t="s">
         <v>81</v>
@@ -6971,19 +7001,19 @@
         <v>52</v>
       </c>
       <c r="AA43" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="AB43" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="AC43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE43" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s">
         <v>81</v>
@@ -6992,21 +7022,21 @@
         <v>81</v>
       </c>
       <c r="AH43" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:37">
       <c r="A44">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -7113,10 +7143,10 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -7146,7 +7176,7 @@
         <v>63</v>
       </c>
       <c r="L45" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s">
         <v>39</v>
@@ -7158,7 +7188,7 @@
         <v>48</v>
       </c>
       <c r="P45">
-        <v>34.309016999999997</v>
+        <v>34.310827000000003</v>
       </c>
       <c r="Q45" t="s">
         <v>40</v>
@@ -7170,7 +7200,7 @@
         <v>49</v>
       </c>
       <c r="T45">
-        <v>18.841351</v>
+        <v>18.837015999999998</v>
       </c>
       <c r="U45" t="s">
         <v>40</v>
@@ -7179,10 +7209,10 @@
         <v>40</v>
       </c>
       <c r="W45">
-        <v>173.460938</v>
+        <v>126.90799699999999</v>
       </c>
       <c r="X45" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s">
         <v>51</v>
@@ -7200,10 +7230,10 @@
         <v>248</v>
       </c>
       <c r="AD45" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AE45" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s">
         <v>81</v>
@@ -7212,21 +7242,21 @@
         <v>81</v>
       </c>
       <c r="AH45" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="AI45" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AJ45" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:37">
       <c r="A46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -7333,16 +7363,16 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="1">
-        <v>43414</v>
+        <v>43413</v>
       </c>
       <c r="E47" t="s">
         <v>39</v>
@@ -7366,7 +7396,7 @@
         <v>63</v>
       </c>
       <c r="L47" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s">
         <v>39</v>
@@ -7378,10 +7408,10 @@
         <v>48</v>
       </c>
       <c r="P47">
-        <v>34</v>
-      </c>
-      <c r="Q47">
-        <v>23.298999999999999</v>
+        <v>34.309016999999997</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>40</v>
       </c>
       <c r="R47" t="s">
         <v>40</v>
@@ -7390,19 +7420,19 @@
         <v>49</v>
       </c>
       <c r="T47">
-        <v>19</v>
-      </c>
-      <c r="U47">
-        <v>16.673999999999999</v>
+        <v>18.841351</v>
+      </c>
+      <c r="U47" t="s">
+        <v>40</v>
       </c>
       <c r="V47" t="s">
         <v>40</v>
       </c>
       <c r="W47">
-        <v>318</v>
+        <v>173.460938</v>
       </c>
       <c r="X47" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="Y47" t="s">
         <v>51</v>
@@ -7411,42 +7441,42 @@
         <v>52</v>
       </c>
       <c r="AA47" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AB47" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AC47" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AD47" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE47" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AG47" t="s">
         <v>81</v>
       </c>
       <c r="AH47" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AI47" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:37">
       <c r="A48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -7553,10 +7583,10 @@
     </row>
     <row r="49" spans="1:37">
       <c r="A49">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -7663,10 +7693,10 @@
     </row>
     <row r="50" spans="1:37">
       <c r="A50">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -7693,10 +7723,10 @@
         <v>44</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L50" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s">
         <v>39</v>
@@ -7708,10 +7738,10 @@
         <v>48</v>
       </c>
       <c r="P50">
-        <v>34.383023999999999</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q50">
+        <v>23.298999999999999</v>
       </c>
       <c r="R50" t="s">
         <v>40</v>
@@ -7720,16 +7750,16 @@
         <v>49</v>
       </c>
       <c r="T50">
-        <v>19.294169</v>
-      </c>
-      <c r="U50" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U50">
+        <v>16.673999999999999</v>
       </c>
       <c r="V50" t="s">
         <v>40</v>
       </c>
       <c r="W50">
-        <v>705.61920199999997</v>
+        <v>318</v>
       </c>
       <c r="X50" t="s">
         <v>81</v>
@@ -7747,25 +7777,25 @@
         <v>189</v>
       </c>
       <c r="AC50" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AD50" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AE50" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AF50" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AG50" t="s">
         <v>81</v>
       </c>
       <c r="AH50" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AI50" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AJ50" t="s">
         <v>81</v>
@@ -7773,10 +7803,10 @@
     </row>
     <row r="51" spans="1:37">
       <c r="A51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -7883,10 +7913,10 @@
     </row>
     <row r="52" spans="1:37">
       <c r="A52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -7916,10 +7946,10 @@
         <v>45</v>
       </c>
       <c r="L52" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N52" t="s">
         <v>40</v>
@@ -7970,7 +8000,7 @@
         <v>271</v>
       </c>
       <c r="AD52" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AE52" t="s">
         <v>273</v>
@@ -7989,17 +8019,14 @@
       </c>
       <c r="AJ52" t="s">
         <v>81</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:37">
       <c r="A53">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -8029,10 +8056,10 @@
         <v>45</v>
       </c>
       <c r="L53" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="M53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N53" t="s">
         <v>40</v>
@@ -8109,10 +8136,10 @@
     </row>
     <row r="54" spans="1:37">
       <c r="A54">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
@@ -8222,10 +8249,10 @@
     </row>
     <row r="55" spans="1:37">
       <c r="A55">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
@@ -8335,16 +8362,16 @@
     </row>
     <row r="56" spans="1:37">
       <c r="A56">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="1">
-        <v>43418</v>
+        <v>43414</v>
       </c>
       <c r="E56" t="s">
         <v>39</v>
@@ -8368,10 +8395,10 @@
         <v>45</v>
       </c>
       <c r="L56" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="M56" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N56" t="s">
         <v>40</v>
@@ -8380,7 +8407,7 @@
         <v>48</v>
       </c>
       <c r="P56">
-        <v>33.971150000000002</v>
+        <v>34.383023999999999</v>
       </c>
       <c r="Q56" t="s">
         <v>40</v>
@@ -8392,7 +8419,7 @@
         <v>49</v>
       </c>
       <c r="T56">
-        <v>19.508389999999999</v>
+        <v>19.294169</v>
       </c>
       <c r="U56" t="s">
         <v>40</v>
@@ -8401,10 +8428,10 @@
         <v>40</v>
       </c>
       <c r="W56">
-        <v>1579</v>
+        <v>705.61920199999997</v>
       </c>
       <c r="X56" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s">
         <v>51</v>
@@ -8413,42 +8440,45 @@
         <v>52</v>
       </c>
       <c r="AA56" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="AB56" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="AC56" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AD56" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AE56" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="AF56" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="AG56" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AJ56" t="s">
         <v>81</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:37">
       <c r="A57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -8555,10 +8585,10 @@
     </row>
     <row r="58" spans="1:37">
       <c r="A58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -8665,10 +8695,10 @@
     </row>
     <row r="59" spans="1:37">
       <c r="A59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -8698,7 +8728,7 @@
         <v>45</v>
       </c>
       <c r="L59" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="M59" t="s">
         <v>47</v>
@@ -8775,10 +8805,10 @@
     </row>
     <row r="60" spans="1:37">
       <c r="A60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -8808,10 +8838,10 @@
         <v>45</v>
       </c>
       <c r="L60" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N60" t="s">
         <v>40</v>
@@ -8862,7 +8892,7 @@
         <v>286</v>
       </c>
       <c r="AD60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AE60" t="s">
         <v>197</v>
@@ -8885,10 +8915,10 @@
     </row>
     <row r="61" spans="1:37">
       <c r="A61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -8995,10 +9025,10 @@
     </row>
     <row r="62" spans="1:37">
       <c r="A62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
@@ -9022,13 +9052,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="L62" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="M62" t="s">
         <v>39</v>
@@ -9040,7 +9070,7 @@
         <v>48</v>
       </c>
       <c r="P62">
-        <v>33.970163999999997</v>
+        <v>33.971150000000002</v>
       </c>
       <c r="Q62" t="s">
         <v>40</v>
@@ -9052,7 +9082,7 @@
         <v>49</v>
       </c>
       <c r="T62">
-        <v>19.503194000000001</v>
+        <v>19.508389999999999</v>
       </c>
       <c r="U62" t="s">
         <v>40</v>
@@ -9061,10 +9091,10 @@
         <v>40</v>
       </c>
       <c r="W62">
-        <v>1534.5830080000001</v>
+        <v>1579</v>
       </c>
       <c r="X62" t="s">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="Y62" t="s">
         <v>51</v>
@@ -9082,7 +9112,7 @@
         <v>286</v>
       </c>
       <c r="AD62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AE62" t="s">
         <v>197</v>
@@ -9094,10 +9124,10 @@
         <v>59</v>
       </c>
       <c r="AH62" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="AI62" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AJ62" t="s">
         <v>81</v>
@@ -9105,10 +9135,10 @@
     </row>
     <row r="63" spans="1:37">
       <c r="A63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -9215,10 +9245,10 @@
     </row>
     <row r="64" spans="1:37">
       <c r="A64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -9325,10 +9355,10 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -9352,16 +9382,16 @@
         <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="L65" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="M65" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N65" t="s">
         <v>40</v>
@@ -9435,10 +9465,10 @@
     </row>
     <row r="66" spans="1:36">
       <c r="A66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
@@ -9468,10 +9498,10 @@
         <v>45</v>
       </c>
       <c r="L66" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="M66" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N66" t="s">
         <v>40</v>
@@ -9522,7 +9552,7 @@
         <v>286</v>
       </c>
       <c r="AD66" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE66" t="s">
         <v>197</v>
@@ -9545,10 +9575,10 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -9655,10 +9685,10 @@
     </row>
     <row r="68" spans="1:36">
       <c r="A68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -9685,13 +9715,13 @@
         <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="M68" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N68" t="s">
         <v>40</v>
@@ -9765,10 +9795,10 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -9795,13 +9825,13 @@
         <v>44</v>
       </c>
       <c r="K69" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L69" t="s">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="M69" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N69" t="s">
         <v>40</v>
@@ -9810,7 +9840,7 @@
         <v>48</v>
       </c>
       <c r="P69">
-        <v>33.969813000000002</v>
+        <v>33.970163999999997</v>
       </c>
       <c r="Q69" t="s">
         <v>40</v>
@@ -9822,7 +9852,7 @@
         <v>49</v>
       </c>
       <c r="T69">
-        <v>19.503537000000001</v>
+        <v>19.503194000000001</v>
       </c>
       <c r="U69" t="s">
         <v>40</v>
@@ -9831,7 +9861,7 @@
         <v>40</v>
       </c>
       <c r="W69">
-        <v>1536.9722899999999</v>
+        <v>1534.5830080000001</v>
       </c>
       <c r="X69" t="s">
         <v>50</v>
@@ -9851,6 +9881,9 @@
       <c r="AC69" t="s">
         <v>286</v>
       </c>
+      <c r="AD69" t="s">
+        <v>305</v>
+      </c>
       <c r="AE69" t="s">
         <v>197</v>
       </c>
@@ -9864,7 +9897,7 @@
         <v>298</v>
       </c>
       <c r="AI69" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AJ69" t="s">
         <v>81</v>
@@ -9872,10 +9905,10 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
@@ -9979,10 +10012,10 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C71" t="s">
         <v>39</v>
@@ -10086,10 +10119,10 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -10116,13 +10149,13 @@
         <v>44</v>
       </c>
       <c r="K72" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="M72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N72" t="s">
         <v>40</v>
@@ -10193,10 +10226,10 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -10223,10 +10256,10 @@
         <v>44</v>
       </c>
       <c r="K73" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L73" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
@@ -10238,7 +10271,7 @@
         <v>48</v>
       </c>
       <c r="P73">
-        <v>33.970163999999997</v>
+        <v>33.969813000000002</v>
       </c>
       <c r="Q73" t="s">
         <v>40</v>
@@ -10250,7 +10283,7 @@
         <v>49</v>
       </c>
       <c r="T73">
-        <v>19.503194000000001</v>
+        <v>19.503537000000001</v>
       </c>
       <c r="U73" t="s">
         <v>40</v>
@@ -10259,7 +10292,7 @@
         <v>40</v>
       </c>
       <c r="W73">
-        <v>1534.5830080000001</v>
+        <v>1536.9722899999999</v>
       </c>
       <c r="X73" t="s">
         <v>50</v>
@@ -10279,9 +10312,6 @@
       <c r="AC73" t="s">
         <v>286</v>
       </c>
-      <c r="AD73" t="s">
-        <v>297</v>
-      </c>
       <c r="AE73" t="s">
         <v>197</v>
       </c>
@@ -10295,7 +10325,7 @@
         <v>298</v>
       </c>
       <c r="AI73" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AJ73" t="s">
         <v>81</v>
@@ -10303,16 +10333,16 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="1">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -10333,10 +10363,10 @@
         <v>44</v>
       </c>
       <c r="K74" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L74" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="M74" t="s">
         <v>39</v>
@@ -10348,10 +10378,10 @@
         <v>48</v>
       </c>
       <c r="P74">
-        <v>33</v>
-      </c>
-      <c r="Q74">
-        <v>37.97</v>
+        <v>33.970163999999997</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>40</v>
       </c>
       <c r="R74" t="s">
         <v>40</v>
@@ -10360,19 +10390,19 @@
         <v>49</v>
       </c>
       <c r="T74">
-        <v>19</v>
-      </c>
-      <c r="U74">
-        <v>8.6479999999999997</v>
+        <v>19.503194000000001</v>
+      </c>
+      <c r="U74" t="s">
+        <v>40</v>
       </c>
       <c r="V74" t="s">
         <v>40</v>
       </c>
       <c r="W74">
-        <v>1049</v>
+        <v>1534.5830080000001</v>
       </c>
       <c r="X74" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Y74" t="s">
         <v>51</v>
@@ -10387,25 +10417,25 @@
         <v>54</v>
       </c>
       <c r="AC74" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="AD74" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="AE74" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AF74" t="s">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="AG74" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AH74" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="AI74" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AJ74" t="s">
         <v>81</v>
@@ -10413,10 +10443,10 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -10523,10 +10553,10 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -10633,10 +10663,10 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
@@ -10666,7 +10696,7 @@
         <v>63</v>
       </c>
       <c r="L77" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="M77" t="s">
         <v>39</v>
@@ -10743,10 +10773,10 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
@@ -10853,10 +10883,10 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -10963,10 +10993,10 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
@@ -10993,13 +11023,13 @@
         <v>44</v>
       </c>
       <c r="K80" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L80" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M80" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N80" t="s">
         <v>40</v>
@@ -11073,10 +11103,10 @@
     </row>
     <row r="81" spans="1:37">
       <c r="A81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
@@ -11183,10 +11213,10 @@
     </row>
     <row r="82" spans="1:37">
       <c r="A82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -11293,10 +11323,10 @@
     </row>
     <row r="83" spans="1:37">
       <c r="A83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -11403,10 +11433,10 @@
     </row>
     <row r="84" spans="1:37">
       <c r="A84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -11430,13 +11460,13 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K84" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="L84" t="s">
-        <v>330</v>
+        <v>116</v>
       </c>
       <c r="M84" t="s">
         <v>47</v>
@@ -11490,7 +11520,7 @@
         <v>109</v>
       </c>
       <c r="AD84" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="AE84" t="s">
         <v>81</v>
@@ -11513,13 +11543,13 @@
     </row>
     <row r="85" spans="1:37">
       <c r="A85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C85" t="s">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="D85" s="1">
         <v>43419</v>
@@ -11540,16 +11570,16 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K85" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="L85" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M85" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N85" t="s">
         <v>40</v>
@@ -11561,10 +11591,10 @@
         <v>33</v>
       </c>
       <c r="Q85">
-        <v>37</v>
-      </c>
-      <c r="R85">
-        <v>42.39</v>
+        <v>37.97</v>
+      </c>
+      <c r="R85" t="s">
+        <v>40</v>
       </c>
       <c r="S85" t="s">
         <v>49</v>
@@ -11573,16 +11603,16 @@
         <v>19</v>
       </c>
       <c r="U85">
-        <v>8</v>
-      </c>
-      <c r="V85">
-        <v>55.96</v>
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="V85" t="s">
+        <v>40</v>
       </c>
       <c r="W85">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="X85" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Y85" t="s">
         <v>51</v>
@@ -11597,39 +11627,39 @@
         <v>54</v>
       </c>
       <c r="AC85" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="AD85" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AE85" t="s">
         <v>81</v>
       </c>
       <c r="AF85" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="AG85" t="s">
         <v>81</v>
       </c>
       <c r="AH85" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AI85" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="AJ85" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:37">
       <c r="A86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="D86" s="1">
         <v>43419</v>
@@ -11653,13 +11683,13 @@
         <v>44</v>
       </c>
       <c r="K86" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="L86" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M86" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N86" t="s">
         <v>40</v>
@@ -11674,7 +11704,7 @@
         <v>37</v>
       </c>
       <c r="R86">
-        <v>49.43</v>
+        <v>42.39</v>
       </c>
       <c r="S86" t="s">
         <v>49</v>
@@ -11686,13 +11716,13 @@
         <v>8</v>
       </c>
       <c r="V86">
-        <v>50.25</v>
+        <v>55.96</v>
       </c>
       <c r="W86">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="X86" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="Y86" t="s">
         <v>51</v>
@@ -11707,36 +11737,36 @@
         <v>54</v>
       </c>
       <c r="AC86" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AD86" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AE86" t="s">
         <v>81</v>
       </c>
       <c r="AF86" t="s">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AG86" t="s">
         <v>81</v>
       </c>
       <c r="AH86" t="s">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AJ86" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:37">
       <c r="A87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
@@ -11843,10 +11873,10 @@
     </row>
     <row r="88" spans="1:37">
       <c r="A88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -11876,10 +11906,10 @@
         <v>45</v>
       </c>
       <c r="L88" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M88" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N88" t="s">
         <v>40</v>
@@ -11949,17 +11979,14 @@
       </c>
       <c r="AJ88" t="s">
         <v>81</v>
-      </c>
-      <c r="AK88" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:37">
       <c r="A89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -11986,13 +12013,13 @@
         <v>44</v>
       </c>
       <c r="K89" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L89" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M89" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N89" t="s">
         <v>40</v>
@@ -12001,28 +12028,28 @@
         <v>48</v>
       </c>
       <c r="P89">
-        <v>33.631</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="Q89">
+        <v>37</v>
+      </c>
+      <c r="R89">
+        <v>49.43</v>
       </c>
       <c r="S89" t="s">
         <v>49</v>
       </c>
       <c r="T89">
-        <v>19.143999999999998</v>
-      </c>
-      <c r="U89" t="s">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U89">
+        <v>8</v>
+      </c>
+      <c r="V89">
+        <v>50.25</v>
       </c>
       <c r="W89">
-        <v>1031</v>
+        <v>1068</v>
       </c>
       <c r="X89" t="s">
         <v>81</v>
@@ -12043,33 +12070,36 @@
         <v>109</v>
       </c>
       <c r="AD89" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AE89" t="s">
         <v>81</v>
       </c>
       <c r="AF89" t="s">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AG89" t="s">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AH89" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AI89" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AJ89" t="s">
-        <v>350</v>
+        <v>81</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:37">
       <c r="A90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -12096,10 +12126,10 @@
         <v>44</v>
       </c>
       <c r="K90" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M90" t="s">
         <v>47</v>
@@ -12111,28 +12141,28 @@
         <v>48</v>
       </c>
       <c r="P90">
-        <v>33</v>
-      </c>
-      <c r="Q90">
-        <v>37</v>
-      </c>
-      <c r="R90">
-        <v>44.03</v>
+        <v>33.631</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s">
+        <v>40</v>
       </c>
       <c r="S90" t="s">
         <v>49</v>
       </c>
       <c r="T90">
-        <v>19</v>
-      </c>
-      <c r="U90">
-        <v>8</v>
-      </c>
-      <c r="V90">
-        <v>38.5</v>
+        <v>19.143999999999998</v>
+      </c>
+      <c r="U90" t="s">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s">
+        <v>40</v>
       </c>
       <c r="W90">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="X90" t="s">
         <v>81</v>
@@ -12153,36 +12183,33 @@
         <v>109</v>
       </c>
       <c r="AD90" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AE90" t="s">
         <v>81</v>
       </c>
       <c r="AF90" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AG90" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AH90" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AI90" t="s">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AJ90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:37">
       <c r="A91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
@@ -12209,13 +12236,13 @@
         <v>44</v>
       </c>
       <c r="K91" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L91" t="s">
-        <v>127</v>
+        <v>352</v>
       </c>
       <c r="M91" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N91" t="s">
         <v>40</v>
@@ -12230,7 +12257,7 @@
         <v>37</v>
       </c>
       <c r="R91">
-        <v>8.65</v>
+        <v>44.03</v>
       </c>
       <c r="S91" t="s">
         <v>49</v>
@@ -12239,13 +12266,13 @@
         <v>19</v>
       </c>
       <c r="U91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V91">
-        <v>43.08</v>
+        <v>38.5</v>
       </c>
       <c r="W91">
-        <v>769</v>
+        <v>1039</v>
       </c>
       <c r="X91" t="s">
         <v>81</v>
@@ -12266,10 +12293,10 @@
         <v>109</v>
       </c>
       <c r="AD91" t="s">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="AE91" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="AF91" t="s">
         <v>81</v>
@@ -12278,21 +12305,24 @@
         <v>81</v>
       </c>
       <c r="AH91" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AJ91" t="s">
         <v>81</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:37">
       <c r="A92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
@@ -12399,16 +12429,16 @@
     </row>
     <row r="93" spans="1:37">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="D93" s="1">
-        <v>43428</v>
+        <v>43419</v>
       </c>
       <c r="E93" t="s">
         <v>39</v>
@@ -12432,7 +12462,7 @@
         <v>63</v>
       </c>
       <c r="L93" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="M93" t="s">
         <v>39</v>
@@ -12444,28 +12474,28 @@
         <v>48</v>
       </c>
       <c r="P93">
-        <v>34.28436</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="Q93">
+        <v>37</v>
+      </c>
+      <c r="R93">
+        <v>8.65</v>
       </c>
       <c r="S93" t="s">
         <v>49</v>
       </c>
       <c r="T93">
-        <v>19.047000000000001</v>
-      </c>
-      <c r="U93" t="s">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U93">
+        <v>6</v>
+      </c>
+      <c r="V93">
+        <v>43.08</v>
       </c>
       <c r="W93">
-        <v>462</v>
+        <v>769</v>
       </c>
       <c r="X93" t="s">
         <v>81</v>
@@ -12477,28 +12507,31 @@
         <v>52</v>
       </c>
       <c r="AA93" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="AB93" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="AC93" t="s">
-        <v>358</v>
+        <v>109</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>128</v>
       </c>
       <c r="AE93" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AF93" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AG93" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AH93" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="AI93" t="s">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="AJ93" t="s">
         <v>81</v>
@@ -12506,10 +12539,10 @@
     </row>
     <row r="94" spans="1:37">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C94" t="s">
         <v>357</v>
@@ -12613,10 +12646,10 @@
     </row>
     <row r="95" spans="1:37">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C95" t="s">
         <v>357</v>
@@ -12720,10 +12753,10 @@
     </row>
     <row r="96" spans="1:37">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C96" t="s">
         <v>357</v>
@@ -12827,10 +12860,10 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
         <v>357</v>
@@ -12934,10 +12967,10 @@
     </row>
     <row r="98" spans="1:36">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C98" t="s">
         <v>357</v>
@@ -13041,10 +13074,10 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C99" t="s">
         <v>357</v>
@@ -13074,7 +13107,7 @@
         <v>63</v>
       </c>
       <c r="L99" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M99" t="s">
         <v>39</v>
@@ -13086,7 +13119,7 @@
         <v>48</v>
       </c>
       <c r="P99">
-        <v>34.286879999999996</v>
+        <v>34.28436</v>
       </c>
       <c r="Q99" t="s">
         <v>40</v>
@@ -13098,7 +13131,7 @@
         <v>49</v>
       </c>
       <c r="T99">
-        <v>19.044509999999999</v>
+        <v>19.047000000000001</v>
       </c>
       <c r="U99" t="s">
         <v>40</v>
@@ -13107,7 +13140,7 @@
         <v>40</v>
       </c>
       <c r="W99">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="X99" t="s">
         <v>81</v>
@@ -13140,7 +13173,7 @@
         <v>360</v>
       </c>
       <c r="AI99" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AJ99" t="s">
         <v>81</v>
@@ -13148,10 +13181,10 @@
     </row>
     <row r="100" spans="1:36">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -13255,10 +13288,10 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -13288,7 +13321,7 @@
         <v>63</v>
       </c>
       <c r="L101" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="M101" t="s">
         <v>39</v>
@@ -13300,7 +13333,7 @@
         <v>48</v>
       </c>
       <c r="P101">
-        <v>34.287500000000001</v>
+        <v>34.286879999999996</v>
       </c>
       <c r="Q101" t="s">
         <v>40</v>
@@ -13312,7 +13345,7 @@
         <v>49</v>
       </c>
       <c r="T101">
-        <v>19.043880000000001</v>
+        <v>19.044509999999999</v>
       </c>
       <c r="U101" t="s">
         <v>40</v>
@@ -13321,7 +13354,7 @@
         <v>40</v>
       </c>
       <c r="W101">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="X101" t="s">
         <v>81</v>
@@ -13354,7 +13387,7 @@
         <v>360</v>
       </c>
       <c r="AI101" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AJ101" t="s">
         <v>81</v>
@@ -13362,10 +13395,10 @@
     </row>
     <row r="102" spans="1:36">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
         <v>357</v>
@@ -13469,10 +13502,10 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s">
         <v>357</v>
@@ -13514,7 +13547,7 @@
         <v>48</v>
       </c>
       <c r="P103">
-        <v>34.287469999999999</v>
+        <v>34.287500000000001</v>
       </c>
       <c r="Q103" t="s">
         <v>40</v>
@@ -13526,7 +13559,7 @@
         <v>49</v>
       </c>
       <c r="T103">
-        <v>19.044740000000001</v>
+        <v>19.043880000000001</v>
       </c>
       <c r="U103" t="s">
         <v>40</v>
@@ -13535,7 +13568,7 @@
         <v>40</v>
       </c>
       <c r="W103">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X103" t="s">
         <v>81</v>
@@ -13576,10 +13609,10 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
         <v>357</v>
@@ -13683,10 +13716,10 @@
     </row>
     <row r="105" spans="1:36">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C105" t="s">
         <v>357</v>
@@ -13790,10 +13823,10 @@
     </row>
     <row r="106" spans="1:36">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
         <v>357</v>
@@ -13820,10 +13853,10 @@
         <v>44</v>
       </c>
       <c r="K106" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L106" t="s">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="M106" t="s">
         <v>39</v>
@@ -13835,7 +13868,7 @@
         <v>48</v>
       </c>
       <c r="P106">
-        <v>34.284979999999997</v>
+        <v>34.287469999999999</v>
       </c>
       <c r="Q106" t="s">
         <v>40</v>
@@ -13847,7 +13880,7 @@
         <v>49</v>
       </c>
       <c r="T106">
-        <v>19.045680000000001</v>
+        <v>19.044740000000001</v>
       </c>
       <c r="U106" t="s">
         <v>40</v>
@@ -13856,7 +13889,7 @@
         <v>40</v>
       </c>
       <c r="W106">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="X106" t="s">
         <v>81</v>
@@ -13889,7 +13922,7 @@
         <v>360</v>
       </c>
       <c r="AI106" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AJ106" t="s">
         <v>81</v>
@@ -13897,10 +13930,10 @@
     </row>
     <row r="107" spans="1:36">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s">
         <v>357</v>
@@ -14004,10 +14037,10 @@
     </row>
     <row r="108" spans="1:36">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
         <v>357</v>
@@ -14111,10 +14144,10 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C109" t="s">
         <v>357</v>
@@ -14218,10 +14251,10 @@
     </row>
     <row r="110" spans="1:36">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
         <v>357</v>
@@ -14248,10 +14281,10 @@
         <v>44</v>
       </c>
       <c r="K110" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L110" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="M110" t="s">
         <v>39</v>
@@ -14263,7 +14296,7 @@
         <v>48</v>
       </c>
       <c r="P110">
-        <v>34.284419999999997</v>
+        <v>34.284979999999997</v>
       </c>
       <c r="Q110" t="s">
         <v>40</v>
@@ -14275,7 +14308,7 @@
         <v>49</v>
       </c>
       <c r="T110">
-        <v>19.04777</v>
+        <v>19.045680000000001</v>
       </c>
       <c r="U110" t="s">
         <v>40</v>
@@ -14284,7 +14317,7 @@
         <v>40</v>
       </c>
       <c r="W110">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="X110" t="s">
         <v>81</v>
@@ -14317,7 +14350,7 @@
         <v>360</v>
       </c>
       <c r="AI110" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AJ110" t="s">
         <v>81</v>
@@ -14325,10 +14358,10 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C111" t="s">
         <v>357</v>
@@ -14355,10 +14388,10 @@
         <v>44</v>
       </c>
       <c r="K111" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L111" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="M111" t="s">
         <v>39</v>
@@ -14432,10 +14465,10 @@
     </row>
     <row r="112" spans="1:36">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
         <v>357</v>
@@ -14539,10 +14572,10 @@
     </row>
     <row r="113" spans="1:36">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
         <v>357</v>
@@ -14646,10 +14679,10 @@
     </row>
     <row r="114" spans="1:36">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
         <v>357</v>
@@ -14753,16 +14786,16 @@
     </row>
     <row r="115" spans="1:36">
       <c r="A115">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C115" t="s">
         <v>357</v>
       </c>
       <c r="D115" s="1">
-        <v>43429</v>
+        <v>43428</v>
       </c>
       <c r="E115" t="s">
         <v>39</v>
@@ -14786,7 +14819,7 @@
         <v>45</v>
       </c>
       <c r="L115" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="M115" t="s">
         <v>39</v>
@@ -14798,7 +14831,7 @@
         <v>48</v>
       </c>
       <c r="P115">
-        <v>24.214040000000001</v>
+        <v>34.284419999999997</v>
       </c>
       <c r="Q115" t="s">
         <v>40</v>
@@ -14810,7 +14843,7 @@
         <v>49</v>
       </c>
       <c r="T115">
-        <v>19.14855</v>
+        <v>19.04777</v>
       </c>
       <c r="U115" t="s">
         <v>40</v>
@@ -14819,7 +14852,7 @@
         <v>40</v>
       </c>
       <c r="W115">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="X115" t="s">
         <v>81</v>
@@ -14837,25 +14870,22 @@
         <v>189</v>
       </c>
       <c r="AC115" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="AE115" t="s">
         <v>84</v>
       </c>
       <c r="AF115" t="s">
-        <v>389</v>
+        <v>119</v>
       </c>
       <c r="AG115" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="AH115" t="s">
         <v>360</v>
       </c>
       <c r="AI115" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AJ115" t="s">
         <v>81</v>
@@ -14863,16 +14893,16 @@
     </row>
     <row r="116" spans="1:36">
       <c r="A116">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C116" t="s">
         <v>357</v>
       </c>
       <c r="D116" s="1">
-        <v>43428</v>
+        <v>43429</v>
       </c>
       <c r="E116" t="s">
         <v>39</v>
@@ -14973,10 +15003,10 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C117" t="s">
         <v>357</v>
@@ -15083,10 +15113,10 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
         <v>357</v>
@@ -15193,10 +15223,10 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
         <v>357</v>
@@ -15303,10 +15333,10 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C120" t="s">
         <v>357</v>
@@ -15413,10 +15443,10 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C121" t="s">
         <v>357</v>
@@ -15434,19 +15464,19 @@
         <v>41</v>
       </c>
       <c r="H121" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="I121" t="s">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="J121" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="K121" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="L121" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="M121" t="s">
         <v>39</v>
@@ -15458,7 +15488,7 @@
         <v>48</v>
       </c>
       <c r="P121">
-        <v>25.214040000000001</v>
+        <v>24.214040000000001</v>
       </c>
       <c r="Q121" t="s">
         <v>40</v>
@@ -15470,7 +15500,7 @@
         <v>49</v>
       </c>
       <c r="T121">
-        <v>20.14855</v>
+        <v>19.14855</v>
       </c>
       <c r="U121" t="s">
         <v>40</v>
@@ -15479,7 +15509,7 @@
         <v>40</v>
       </c>
       <c r="W121">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X121" t="s">
         <v>81</v>
@@ -15523,10 +15553,10 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C122" t="s">
         <v>357</v>
@@ -15544,19 +15574,19 @@
         <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>399</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="K122" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="L122" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="M122" t="s">
         <v>39</v>
@@ -15633,10 +15663,10 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C123" t="s">
         <v>357</v>
@@ -15743,10 +15773,10 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C124" t="s">
         <v>357</v>
@@ -15853,10 +15883,10 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
         <v>357</v>
@@ -15963,10 +15993,10 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
         <v>357</v>
@@ -16073,10 +16103,10 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
         <v>357</v>
@@ -16183,10 +16213,10 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
         <v>357</v>
@@ -16216,7 +16246,7 @@
         <v>45</v>
       </c>
       <c r="L128" t="s">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="M128" t="s">
         <v>39</v>
@@ -16291,12 +16321,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:37">
       <c r="A129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C129" t="s">
         <v>357</v>
@@ -16401,12 +16431,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:37">
       <c r="A130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C130" t="s">
         <v>357</v>
@@ -16511,12 +16541,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:37">
       <c r="A131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C131" t="s">
         <v>357</v>
@@ -16621,12 +16651,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:37">
       <c r="A132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C132" t="s">
         <v>357</v>
@@ -16731,12 +16761,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:37">
       <c r="A133">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C133" t="s">
         <v>357</v>
@@ -16841,12 +16871,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:37">
       <c r="A134">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
         <v>357</v>
@@ -16873,10 +16903,10 @@
         <v>44</v>
       </c>
       <c r="K134" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L134" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="M134" t="s">
         <v>39</v>
@@ -16951,12 +16981,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:37">
       <c r="A135">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C135" t="s">
         <v>357</v>
@@ -17061,12 +17091,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:37">
       <c r="A136">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C136" t="s">
         <v>357</v>
@@ -17171,12 +17201,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:37">
       <c r="A137">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C137" t="s">
         <v>357</v>
@@ -17281,12 +17311,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:37">
       <c r="A138">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C138" t="s">
         <v>357</v>
@@ -17391,12 +17421,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:37">
       <c r="A139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C139" t="s">
         <v>357</v>
@@ -17501,12 +17531,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:37">
       <c r="A140">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C140" t="s">
         <v>357</v>
@@ -17611,18 +17641,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:37">
       <c r="A141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C141" t="s">
-        <v>424</v>
-      </c>
-      <c r="D141" t="s">
-        <v>425</v>
+        <v>357</v>
+      </c>
+      <c r="D141" s="1">
+        <v>43428</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -17643,10 +17673,10 @@
         <v>44</v>
       </c>
       <c r="K141" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L141" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="M141" t="s">
         <v>39</v>
@@ -17657,32 +17687,32 @@
       <c r="O141" t="s">
         <v>48</v>
       </c>
-      <c r="P141" t="s">
-        <v>81</v>
+      <c r="P141">
+        <v>25.214040000000001</v>
       </c>
       <c r="Q141" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R141" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S141" t="s">
         <v>49</v>
       </c>
-      <c r="T141" t="s">
-        <v>81</v>
+      <c r="T141">
+        <v>20.14855</v>
       </c>
       <c r="U141" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V141" t="s">
-        <v>81</v>
-      </c>
-      <c r="W141" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="W141">
+        <v>386</v>
       </c>
       <c r="X141" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Y141" t="s">
         <v>51</v>
@@ -17700,33 +17730,33 @@
         <v>190</v>
       </c>
       <c r="AD141" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="AE141" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="AF141" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AG141" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AH141" t="s">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AI141" t="s">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AJ141" t="s">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:37">
       <c r="A142">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
         <v>424</v>
@@ -17827,16 +17857,16 @@
       <c r="AI142" t="s">
         <v>81</v>
       </c>
-      <c r="AJ142" t="s">
-        <v>431</v>
+      <c r="AK142" t="s">
+        <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:37">
       <c r="A143">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C143" t="s">
         <v>424</v>
@@ -17863,10 +17893,10 @@
         <v>44</v>
       </c>
       <c r="K143" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L143" t="s">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="M143" t="s">
         <v>39</v>
@@ -17937,16 +17967,16 @@
       <c r="AI143" t="s">
         <v>81</v>
       </c>
-      <c r="AJ143" t="s">
-        <v>433</v>
+      <c r="AK143" t="s">
+        <v>431</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:37">
       <c r="A144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C144" t="s">
         <v>424</v>
@@ -17976,7 +18006,7 @@
         <v>63</v>
       </c>
       <c r="L144" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M144" t="s">
         <v>39</v>
@@ -18047,16 +18077,16 @@
       <c r="AI144" t="s">
         <v>81</v>
       </c>
-      <c r="AJ144" t="s">
-        <v>435</v>
+      <c r="AK144" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:37">
       <c r="A145">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s">
         <v>424</v>
@@ -18083,10 +18113,10 @@
         <v>44</v>
       </c>
       <c r="K145" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L145" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="M145" t="s">
         <v>39</v>
@@ -18157,16 +18187,16 @@
       <c r="AI145" t="s">
         <v>81</v>
       </c>
-      <c r="AJ145" t="s">
-        <v>437</v>
+      <c r="AK145" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:37">
       <c r="A146">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s">
         <v>424</v>
@@ -18267,16 +18297,16 @@
       <c r="AI146" t="s">
         <v>81</v>
       </c>
-      <c r="AJ146" t="s">
-        <v>439</v>
+      <c r="AK146" t="s">
+        <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:37">
       <c r="A147">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
         <v>424</v>
@@ -18377,16 +18407,16 @@
       <c r="AI147" t="s">
         <v>81</v>
       </c>
-      <c r="AJ147" t="s">
-        <v>441</v>
+      <c r="AK147" t="s">
+        <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:37">
       <c r="A148">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C148" t="s">
         <v>424</v>
@@ -18487,22 +18517,22 @@
       <c r="AI148" t="s">
         <v>81</v>
       </c>
-      <c r="AJ148" t="s">
-        <v>443</v>
+      <c r="AK148" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:37">
       <c r="A149">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C149" t="s">
-        <v>445</v>
-      </c>
-      <c r="D149" s="1">
-        <v>43346</v>
+        <v>424</v>
+      </c>
+      <c r="D149" t="s">
+        <v>425</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -18523,10 +18553,10 @@
         <v>44</v>
       </c>
       <c r="K149" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L149" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="M149" t="s">
         <v>39</v>
@@ -18571,16 +18601,19 @@
         <v>52</v>
       </c>
       <c r="AA149" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB149" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AC149" t="s">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="AD149" t="s">
-        <v>447</v>
+        <v>426</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>427</v>
       </c>
       <c r="AF149" t="s">
         <v>428</v>
@@ -18589,21 +18622,21 @@
         <v>81</v>
       </c>
       <c r="AH149" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AI149" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ149" t="s">
-        <v>449</v>
+        <v>81</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:37">
       <c r="A150">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C150" t="s">
         <v>445</v>
@@ -18630,10 +18663,10 @@
         <v>44</v>
       </c>
       <c r="K150" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L150" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="M150" t="s">
         <v>39</v>
@@ -18701,16 +18734,16 @@
       <c r="AI150" t="s">
         <v>119</v>
       </c>
-      <c r="AJ150" t="s">
-        <v>451</v>
+      <c r="AK150" t="s">
+        <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:37">
       <c r="A151">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C151" t="s">
         <v>445</v>
@@ -18740,7 +18773,7 @@
         <v>45</v>
       </c>
       <c r="L151" t="s">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="M151" t="s">
         <v>39</v>
@@ -18808,16 +18841,16 @@
       <c r="AI151" t="s">
         <v>119</v>
       </c>
-      <c r="AJ151" t="s">
-        <v>453</v>
+      <c r="AK151" t="s">
+        <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:37">
       <c r="A152">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C152" t="s">
         <v>445</v>
@@ -18844,10 +18877,10 @@
         <v>44</v>
       </c>
       <c r="K152" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L152" t="s">
-        <v>455</v>
+        <v>90</v>
       </c>
       <c r="M152" t="s">
         <v>39</v>
@@ -18915,22 +18948,22 @@
       <c r="AI152" t="s">
         <v>119</v>
       </c>
-      <c r="AJ152" t="s">
-        <v>456</v>
+      <c r="AK152" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:37">
       <c r="A153">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="D153" s="1">
-        <v>43372</v>
+        <v>43346</v>
       </c>
       <c r="E153" t="s">
         <v>39</v>
@@ -18951,10 +18984,10 @@
         <v>44</v>
       </c>
       <c r="K153" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L153" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M153" t="s">
         <v>39</v>
@@ -18962,13 +18995,76 @@
       <c r="N153" t="s">
         <v>40</v>
       </c>
+      <c r="O153" t="s">
+        <v>48</v>
+      </c>
+      <c r="P153" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>81</v>
+      </c>
+      <c r="R153" t="s">
+        <v>81</v>
+      </c>
+      <c r="S153" t="s">
+        <v>49</v>
+      </c>
+      <c r="T153" t="s">
+        <v>81</v>
+      </c>
+      <c r="U153" t="s">
+        <v>81</v>
+      </c>
+      <c r="V153" t="s">
+        <v>81</v>
+      </c>
+      <c r="W153" t="s">
+        <v>81</v>
+      </c>
+      <c r="X153" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>456</v>
+      </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:37">
       <c r="A154">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C154" t="s">
         <v>357</v>
@@ -18998,7 +19094,7 @@
         <v>45</v>
       </c>
       <c r="L154" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M154" t="s">
         <v>39</v>
@@ -19007,12 +19103,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:37">
       <c r="A155">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C155" t="s">
         <v>357</v>
@@ -19042,7 +19138,7 @@
         <v>45</v>
       </c>
       <c r="L155" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="M155" t="s">
         <v>39</v>
@@ -19051,12 +19147,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:37">
       <c r="A156">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C156" t="s">
         <v>357</v>
@@ -19083,10 +19179,10 @@
         <v>44</v>
       </c>
       <c r="K156" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L156" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M156" t="s">
         <v>39</v>
@@ -19095,12 +19191,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:37">
       <c r="A157">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C157" t="s">
         <v>357</v>
@@ -19130,7 +19226,7 @@
         <v>63</v>
       </c>
       <c r="L157" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M157" t="s">
         <v>39</v>
@@ -19139,12 +19235,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:37">
       <c r="A158">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C158" t="s">
         <v>357</v>
@@ -19174,7 +19270,7 @@
         <v>63</v>
       </c>
       <c r="L158" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M158" t="s">
         <v>39</v>
@@ -19183,12 +19279,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:37">
       <c r="A159">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C159" t="s">
         <v>357</v>
@@ -19212,13 +19308,13 @@
         <v>43</v>
       </c>
       <c r="J159" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K159" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="L159" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="M159" t="s">
         <v>39</v>
@@ -19227,12 +19323,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:37">
       <c r="A160">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
         <v>357</v>
@@ -19256,13 +19352,13 @@
         <v>43</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K160" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="L160" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M160" t="s">
         <v>39</v>
@@ -19273,10 +19369,10 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C161" t="s">
         <v>357</v>
@@ -19303,10 +19399,10 @@
         <v>44</v>
       </c>
       <c r="K161" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L161" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="M161" t="s">
         <v>39</v>
@@ -19317,10 +19413,10 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C162" t="s">
         <v>357</v>
@@ -19347,10 +19443,10 @@
         <v>44</v>
       </c>
       <c r="K162" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L162" t="s">
-        <v>387</v>
+        <v>247</v>
       </c>
       <c r="M162" t="s">
         <v>39</v>
@@ -19361,10 +19457,10 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C163" t="s">
         <v>357</v>
@@ -19394,7 +19490,7 @@
         <v>45</v>
       </c>
       <c r="L163" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="M163" t="s">
         <v>39</v>
@@ -19405,10 +19501,10 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C164" t="s">
         <v>357</v>
@@ -19438,12 +19534,56 @@
         <v>45</v>
       </c>
       <c r="L164" t="s">
+        <v>460</v>
+      </c>
+      <c r="M164" t="s">
+        <v>39</v>
+      </c>
+      <c r="N164" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>470</v>
+      </c>
+      <c r="C165" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="1">
+        <v>43372</v>
+      </c>
+      <c r="E165" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" t="s">
+        <v>40</v>
+      </c>
+      <c r="G165" t="s">
+        <v>41</v>
+      </c>
+      <c r="H165" t="s">
+        <v>42</v>
+      </c>
+      <c r="I165" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165" t="s">
+        <v>44</v>
+      </c>
+      <c r="K165" t="s">
+        <v>45</v>
+      </c>
+      <c r="L165" t="s">
         <v>410</v>
       </c>
-      <c r="M164" t="s">
-        <v>39</v>
-      </c>
-      <c r="N164" t="s">
+      <c r="M165" t="s">
+        <v>39</v>
+      </c>
+      <c r="N165" t="s">
         <v>40</v>
       </c>
     </row>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/botanical-collections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE75430A-BD12-9F45-9442-F34A03C918C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{880CD6DC-82EF-C84F-8037-84213AD20E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
@@ -2317,11 +2317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/botanical-collections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{880CD6DC-82EF-C84F-8037-84213AD20E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2DEAA7-8B58-4ECF-9A65-0DEACD97E065}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="botanical-collections_rvm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="510">
   <si>
     <t>collection_no</t>
   </si>
@@ -1442,13 +1442,121 @@
   </si>
   <si>
     <t>Taxonomic data</t>
+  </si>
+  <si>
+    <t>RVM_163</t>
+  </si>
+  <si>
+    <t>RVM_164</t>
+  </si>
+  <si>
+    <t>RVM_165</t>
+  </si>
+  <si>
+    <t>RVM_166</t>
+  </si>
+  <si>
+    <t>RVM_167</t>
+  </si>
+  <si>
+    <t>RVM_168</t>
+  </si>
+  <si>
+    <t>RVM_169</t>
+  </si>
+  <si>
+    <t>RVM_170</t>
+  </si>
+  <si>
+    <t>RVM_171</t>
+  </si>
+  <si>
+    <t>RVM_172</t>
+  </si>
+  <si>
+    <t>RVM_173</t>
+  </si>
+  <si>
+    <t>RVM_174</t>
+  </si>
+  <si>
+    <t>RVM_175</t>
+  </si>
+  <si>
+    <t>RVM_176</t>
+  </si>
+  <si>
+    <t>RVM_177</t>
+  </si>
+  <si>
+    <t>RVM_178</t>
+  </si>
+  <si>
+    <t>RVM_179</t>
+  </si>
+  <si>
+    <t>RVM_180</t>
+  </si>
+  <si>
+    <t>RVM_181</t>
+  </si>
+  <si>
+    <t>RVM_182</t>
+  </si>
+  <si>
+    <t>RVM_183</t>
+  </si>
+  <si>
+    <t>RVM_184</t>
+  </si>
+  <si>
+    <t>RVM_185</t>
+  </si>
+  <si>
+    <t>RVM_186</t>
+  </si>
+  <si>
+    <t>RVM_187</t>
+  </si>
+  <si>
+    <t>RVM_188</t>
+  </si>
+  <si>
+    <t>RVM_189</t>
+  </si>
+  <si>
+    <t>RVM_190</t>
+  </si>
+  <si>
+    <t>RVM_191</t>
+  </si>
+  <si>
+    <t>RVM_192</t>
+  </si>
+  <si>
+    <t>RVM_193</t>
+  </si>
+  <si>
+    <t>RVM_194</t>
+  </si>
+  <si>
+    <t>RVM_195</t>
+  </si>
+  <si>
+    <t>RVM_196</t>
+  </si>
+  <si>
+    <t>RVM_197</t>
+  </si>
+  <si>
+    <t>RVM_198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2314,58 +2422,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="157" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="144.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="167.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="144.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="167.88671875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="49" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>471</v>
       </c>
@@ -2408,7 +2516,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2631,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2744,7 +2852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2854,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2964,7 +3072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3074,7 +3182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3184,7 +3292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3291,7 +3399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3395,7 +3503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3505,7 +3613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3615,7 +3723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3719,7 +3827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3823,7 +3931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3933,7 +4041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4043,7 +4151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4153,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4263,7 +4371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4373,7 +4481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4483,7 +4591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4593,7 +4701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4703,7 +4811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4813,7 +4921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4923,7 +5031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5033,7 +5141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5143,7 +5251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5253,7 +5361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5363,7 +5471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5476,7 +5584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5589,7 +5697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5702,7 +5810,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5815,7 +5923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5925,7 +6033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6035,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6145,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6258,7 +6366,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6368,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6478,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6588,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6698,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6811,7 +6919,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6921,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>52</v>
       </c>
@@ -7031,7 +7139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>53</v>
       </c>
@@ -7141,7 +7249,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>91</v>
       </c>
@@ -7251,7 +7359,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -7361,7 +7469,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -7471,7 +7579,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -7581,7 +7689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7691,7 +7799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7801,7 +7909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -7911,7 +8019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -8021,7 +8129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -8134,7 +8242,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -8247,7 +8355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -8360,7 +8468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -8473,7 +8581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -8583,7 +8691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -8693,7 +8801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -8803,7 +8911,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -8913,7 +9021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -9023,7 +9131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -9133,7 +9241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -9243,7 +9351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -9353,7 +9461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -9463,7 +9571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -9573,7 +9681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -9683,7 +9791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -9793,7 +9901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -9903,7 +10011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -10010,7 +10118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -10117,7 +10225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -10224,7 +10332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -10331,7 +10439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -10441,7 +10549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -10551,7 +10659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -10661,7 +10769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -10771,7 +10879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -10881,7 +10989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -10991,7 +11099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -11101,7 +11209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -11211,7 +11319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -11321,7 +11429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -11431,7 +11539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -11541,7 +11649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -11651,7 +11759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -11761,7 +11869,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -11871,7 +11979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -11981,7 +12089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -12094,7 +12202,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -12204,7 +12312,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -12317,7 +12425,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -12427,7 +12535,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -12537,7 +12645,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12644,7 +12752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12751,7 +12859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12858,7 +12966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -12965,7 +13073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -13072,7 +13180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -13179,7 +13287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -13286,7 +13394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -13393,7 +13501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -13500,7 +13608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -13607,7 +13715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -13714,7 +13822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -13821,7 +13929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -13928,7 +14036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -14035,7 +14143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -14142,7 +14250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -14249,7 +14357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -14356,7 +14464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -14463,7 +14571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -14570,7 +14678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -14677,7 +14785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -14784,7 +14892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -14891,7 +14999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>100</v>
       </c>
@@ -15001,7 +15109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -15111,7 +15219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -15221,7 +15329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -15331,7 +15439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -15441,7 +15549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -15551,7 +15659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -15661,7 +15769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -15771,7 +15879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -15881,7 +15989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -15991,7 +16099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -16101,7 +16209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -16211,7 +16319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -16321,7 +16429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -16431,7 +16539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -16541,7 +16649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -16651,7 +16759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -16761,7 +16869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -16871,7 +16979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -16981,7 +17089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -17091,7 +17199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -17201,7 +17309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -17311,7 +17419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -17421,7 +17529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -17531,7 +17639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -17641,7 +17749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -17751,7 +17859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:37">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -17861,7 +17969,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>140</v>
       </c>
@@ -17971,7 +18079,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>141</v>
       </c>
@@ -18081,7 +18189,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
@@ -18191,7 +18299,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -18301,7 +18409,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:37">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>144</v>
       </c>
@@ -18411,7 +18519,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:37">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>145</v>
       </c>
@@ -18521,7 +18629,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="149" spans="1:37">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>146</v>
       </c>
@@ -18631,7 +18739,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:37">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>147</v>
       </c>
@@ -18738,7 +18846,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:37">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -18845,7 +18953,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>149</v>
       </c>
@@ -18952,7 +19060,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
@@ -19059,7 +19167,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>151</v>
       </c>
@@ -19103,7 +19211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>152</v>
       </c>
@@ -19147,7 +19255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>153</v>
       </c>
@@ -19191,7 +19299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>154</v>
       </c>
@@ -19235,7 +19343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:37">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>155</v>
       </c>
@@ -19279,7 +19387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>156</v>
       </c>
@@ -19323,7 +19431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>157</v>
       </c>
@@ -19367,7 +19475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>158</v>
       </c>
@@ -19411,7 +19519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -19455,7 +19563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>160</v>
       </c>
@@ -19499,7 +19607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>161</v>
       </c>
@@ -19543,7 +19651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>162</v>
       </c>
@@ -19585,6 +19693,294 @@
       </c>
       <c r="N165" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2DEAA7-8B58-4ECF-9A65-0DEACD97E065}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CB9DC-EECE-47C1-9018-F90D015A680E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="514">
   <si>
     <t>collection_no</t>
   </si>
@@ -742,9 +742,6 @@
     <t>RVM_40</t>
   </si>
   <si>
-    <t>RVM_52</t>
-  </si>
-  <si>
     <t>Schoenus compactus aff.</t>
   </si>
   <si>
@@ -1550,6 +1547,21 @@
   </si>
   <si>
     <t>RVM_198</t>
+  </si>
+  <si>
+    <t>52A</t>
+  </si>
+  <si>
+    <t>RVM_52A</t>
+  </si>
+  <si>
+    <t>RVM_52B</t>
+  </si>
+  <si>
+    <t>52B</t>
+  </si>
+  <si>
+    <t>Schoenus compactus aff. or submarginalis</t>
   </si>
 </sst>
 </file>
@@ -2423,13 +2435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK201"/>
+  <dimension ref="A1:AK202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="5"/>
@@ -2483,7 +2495,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2492,7 +2504,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -7030,11 +7042,11 @@
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>52</v>
+      <c r="A43" t="s">
+        <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -7064,7 +7076,7 @@
         <v>63</v>
       </c>
       <c r="L43" t="s">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="M43" t="s">
         <v>38</v>
@@ -7109,16 +7121,16 @@
         <v>52</v>
       </c>
       <c r="AA43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB43" t="s">
         <v>242</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>243</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>244</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>245</v>
       </c>
       <c r="AE43" t="s">
         <v>81</v>
@@ -7140,17 +7152,17 @@
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>53</v>
+      <c r="A44" t="s">
+        <v>512</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>511</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>43413</v>
+        <v>43399</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
@@ -7174,7 +7186,7 @@
         <v>63</v>
       </c>
       <c r="L44" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="M44" t="s">
         <v>39</v>
@@ -7186,10 +7198,10 @@
         <v>48</v>
       </c>
       <c r="P44">
-        <v>34.310827000000003</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q44">
+        <v>5.9029999999999996</v>
       </c>
       <c r="R44" t="s">
         <v>40</v>
@@ -7198,16 +7210,16 @@
         <v>49</v>
       </c>
       <c r="T44">
-        <v>18.837015999999998</v>
-      </c>
-      <c r="U44" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="U44">
+        <v>57.924999999999997</v>
       </c>
       <c r="V44" t="s">
         <v>40</v>
       </c>
       <c r="W44">
-        <v>126.90799699999999</v>
+        <v>945</v>
       </c>
       <c r="X44" t="s">
         <v>81</v>
@@ -7219,19 +7231,19 @@
         <v>52</v>
       </c>
       <c r="AA44" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="AB44" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="AC44" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AD44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AE44" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s">
         <v>81</v>
@@ -7240,21 +7252,21 @@
         <v>81</v>
       </c>
       <c r="AH44" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -7284,7 +7296,7 @@
         <v>63</v>
       </c>
       <c r="L45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M45" t="s">
         <v>39</v>
@@ -7335,13 +7347,13 @@
         <v>170</v>
       </c>
       <c r="AC45" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD45" t="s">
         <v>248</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>249</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>250</v>
       </c>
       <c r="AF45" t="s">
         <v>81</v>
@@ -7353,18 +7365,18 @@
         <v>181</v>
       </c>
       <c r="AI45" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>251</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -7394,7 +7406,7 @@
         <v>63</v>
       </c>
       <c r="L46" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M46" t="s">
         <v>39</v>
@@ -7406,7 +7418,7 @@
         <v>48</v>
       </c>
       <c r="P46">
-        <v>34.309016999999997</v>
+        <v>34.310827000000003</v>
       </c>
       <c r="Q46" t="s">
         <v>40</v>
@@ -7418,7 +7430,7 @@
         <v>49</v>
       </c>
       <c r="T46">
-        <v>18.841351</v>
+        <v>18.837015999999998</v>
       </c>
       <c r="U46" t="s">
         <v>40</v>
@@ -7427,10 +7439,10 @@
         <v>40</v>
       </c>
       <c r="W46">
-        <v>173.460938</v>
+        <v>126.90799699999999</v>
       </c>
       <c r="X46" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s">
         <v>51</v>
@@ -7445,13 +7457,13 @@
         <v>170</v>
       </c>
       <c r="AC46" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD46" t="s">
         <v>248</v>
       </c>
-      <c r="AD46" t="s">
-        <v>256</v>
-      </c>
       <c r="AE46" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AF46" t="s">
         <v>81</v>
@@ -7460,21 +7472,21 @@
         <v>81</v>
       </c>
       <c r="AH46" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="AI46" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AJ46" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -7504,7 +7516,7 @@
         <v>63</v>
       </c>
       <c r="L47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s">
         <v>39</v>
@@ -7555,42 +7567,42 @@
         <v>170</v>
       </c>
       <c r="AC47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s">
         <v>256</v>
       </c>
-      <c r="AE47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>257</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="1">
-        <v>43414</v>
+        <v>43413</v>
       </c>
       <c r="E48" t="s">
         <v>39</v>
@@ -7614,7 +7626,7 @@
         <v>63</v>
       </c>
       <c r="L48" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M48" t="s">
         <v>39</v>
@@ -7626,10 +7638,10 @@
         <v>48</v>
       </c>
       <c r="P48">
-        <v>34</v>
-      </c>
-      <c r="Q48">
-        <v>23.298999999999999</v>
+        <v>34.309016999999997</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
       </c>
       <c r="R48" t="s">
         <v>40</v>
@@ -7638,19 +7650,19 @@
         <v>49</v>
       </c>
       <c r="T48">
-        <v>19</v>
-      </c>
-      <c r="U48">
-        <v>16.673999999999999</v>
+        <v>18.841351</v>
+      </c>
+      <c r="U48" t="s">
+        <v>40</v>
       </c>
       <c r="V48" t="s">
         <v>40</v>
       </c>
       <c r="W48">
-        <v>318</v>
+        <v>173.460938</v>
       </c>
       <c r="X48" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="Y48" t="s">
         <v>51</v>
@@ -7659,42 +7671,42 @@
         <v>52</v>
       </c>
       <c r="AA48" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AB48" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AC48" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AD48" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AE48" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AG48" t="s">
         <v>81</v>
       </c>
       <c r="AH48" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AI48" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -7724,7 +7736,7 @@
         <v>63</v>
       </c>
       <c r="L49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s">
         <v>39</v>
@@ -7775,25 +7787,25 @@
         <v>189</v>
       </c>
       <c r="AC49" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD49" t="s">
         <v>262</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>263</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>264</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s">
         <v>265</v>
       </c>
-      <c r="AG49" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s">
+      <c r="AI49" t="s">
         <v>266</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>267</v>
       </c>
       <c r="AJ49" t="s">
         <v>81</v>
@@ -7801,10 +7813,10 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -7834,7 +7846,7 @@
         <v>63</v>
       </c>
       <c r="L50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s">
         <v>39</v>
@@ -7885,25 +7897,25 @@
         <v>189</v>
       </c>
       <c r="AC50" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD50" t="s">
         <v>262</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>263</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>264</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s">
         <v>265</v>
       </c>
-      <c r="AG50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH50" t="s">
+      <c r="AI50" t="s">
         <v>266</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>267</v>
       </c>
       <c r="AJ50" t="s">
         <v>81</v>
@@ -7911,10 +7923,10 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -7941,10 +7953,10 @@
         <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s">
         <v>39</v>
@@ -7956,10 +7968,10 @@
         <v>48</v>
       </c>
       <c r="P51">
-        <v>34.383023999999999</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q51">
+        <v>23.298999999999999</v>
       </c>
       <c r="R51" t="s">
         <v>40</v>
@@ -7968,16 +7980,16 @@
         <v>49</v>
       </c>
       <c r="T51">
-        <v>19.294169</v>
-      </c>
-      <c r="U51" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U51">
+        <v>16.673999999999999</v>
       </c>
       <c r="V51" t="s">
         <v>40</v>
       </c>
       <c r="W51">
-        <v>705.61920199999997</v>
+        <v>318</v>
       </c>
       <c r="X51" t="s">
         <v>81</v>
@@ -7995,25 +8007,25 @@
         <v>189</v>
       </c>
       <c r="AC51" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AD51" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AE51" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AF51" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AG51" t="s">
         <v>81</v>
       </c>
       <c r="AH51" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AI51" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AJ51" t="s">
         <v>81</v>
@@ -8021,10 +8033,10 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -8105,25 +8117,25 @@
         <v>189</v>
       </c>
       <c r="AC52" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD52" t="s">
         <v>271</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AE52" t="s">
         <v>272</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AF52" t="s">
         <v>273</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AG52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s">
         <v>274</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>275</v>
       </c>
       <c r="AJ52" t="s">
         <v>81</v>
@@ -8131,10 +8143,10 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -8164,10 +8176,10 @@
         <v>45</v>
       </c>
       <c r="L53" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="M53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N53" t="s">
         <v>40</v>
@@ -8215,39 +8227,36 @@
         <v>189</v>
       </c>
       <c r="AC53" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD53" t="s">
         <v>271</v>
       </c>
-      <c r="AD53" t="s">
-        <v>279</v>
-      </c>
       <c r="AE53" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF53" t="s">
         <v>273</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s">
         <v>274</v>
       </c>
-      <c r="AG53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>275</v>
-      </c>
       <c r="AJ53" t="s">
         <v>81</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
@@ -8277,10 +8286,10 @@
         <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N54" t="s">
         <v>40</v>
@@ -8328,25 +8337,25 @@
         <v>189</v>
       </c>
       <c r="AC54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE54" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF54" t="s">
         <v>273</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s">
         <v>274</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>275</v>
       </c>
       <c r="AJ54" t="s">
         <v>81</v>
@@ -8357,10 +8366,10 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
@@ -8441,25 +8450,25 @@
         <v>189</v>
       </c>
       <c r="AC55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE55" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF55" t="s">
         <v>273</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AG55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s">
         <v>274</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>275</v>
       </c>
       <c r="AJ55" t="s">
         <v>81</v>
@@ -8470,10 +8479,10 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
@@ -8554,25 +8563,25 @@
         <v>189</v>
       </c>
       <c r="AC56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE56" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF56" t="s">
         <v>273</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AG56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s">
         <v>274</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>275</v>
       </c>
       <c r="AJ56" t="s">
         <v>81</v>
@@ -8583,16 +8592,16 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="1">
-        <v>43418</v>
+        <v>43414</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
@@ -8616,10 +8625,10 @@
         <v>45</v>
       </c>
       <c r="L57" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="M57" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N57" t="s">
         <v>40</v>
@@ -8628,7 +8637,7 @@
         <v>48</v>
       </c>
       <c r="P57">
-        <v>33.971150000000002</v>
+        <v>34.383023999999999</v>
       </c>
       <c r="Q57" t="s">
         <v>40</v>
@@ -8640,7 +8649,7 @@
         <v>49</v>
       </c>
       <c r="T57">
-        <v>19.508389999999999</v>
+        <v>19.294169</v>
       </c>
       <c r="U57" t="s">
         <v>40</v>
@@ -8649,10 +8658,10 @@
         <v>40</v>
       </c>
       <c r="W57">
-        <v>1579</v>
+        <v>705.61920199999997</v>
       </c>
       <c r="X57" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s">
         <v>51</v>
@@ -8661,42 +8670,45 @@
         <v>52</v>
       </c>
       <c r="AA57" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="AB57" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="AC57" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AD57" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AE57" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="AF57" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="AG57" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="AJ57" t="s">
         <v>81</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
         <v>39</v>
@@ -8726,7 +8738,7 @@
         <v>45</v>
       </c>
       <c r="L58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M58" t="s">
         <v>47</v>
@@ -8762,7 +8774,7 @@
         <v>1579</v>
       </c>
       <c r="X58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y58" t="s">
         <v>51</v>
@@ -8777,10 +8789,10 @@
         <v>54</v>
       </c>
       <c r="AC58" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD58" t="s">
         <v>286</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>287</v>
       </c>
       <c r="AE58" t="s">
         <v>197</v>
@@ -8795,7 +8807,7 @@
         <v>125</v>
       </c>
       <c r="AI58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ58" t="s">
         <v>81</v>
@@ -8803,10 +8815,10 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
         <v>39</v>
@@ -8836,7 +8848,7 @@
         <v>45</v>
       </c>
       <c r="L59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M59" t="s">
         <v>47</v>
@@ -8872,7 +8884,7 @@
         <v>1579</v>
       </c>
       <c r="X59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y59" t="s">
         <v>51</v>
@@ -8887,10 +8899,10 @@
         <v>54</v>
       </c>
       <c r="AC59" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD59" t="s">
         <v>286</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>287</v>
       </c>
       <c r="AE59" t="s">
         <v>197</v>
@@ -8905,7 +8917,7 @@
         <v>125</v>
       </c>
       <c r="AI59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ59" t="s">
         <v>81</v>
@@ -8913,10 +8925,10 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
         <v>39</v>
@@ -8946,7 +8958,7 @@
         <v>45</v>
       </c>
       <c r="L60" t="s">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="M60" t="s">
         <v>47</v>
@@ -8982,7 +8994,7 @@
         <v>1579</v>
       </c>
       <c r="X60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y60" t="s">
         <v>51</v>
@@ -8997,10 +9009,10 @@
         <v>54</v>
       </c>
       <c r="AC60" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD60" t="s">
         <v>286</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>287</v>
       </c>
       <c r="AE60" t="s">
         <v>197</v>
@@ -9015,7 +9027,7 @@
         <v>125</v>
       </c>
       <c r="AI60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ60" t="s">
         <v>81</v>
@@ -9023,10 +9035,10 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -9056,10 +9068,10 @@
         <v>45</v>
       </c>
       <c r="L61" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N61" t="s">
         <v>40</v>
@@ -9092,7 +9104,7 @@
         <v>1579</v>
       </c>
       <c r="X61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y61" t="s">
         <v>51</v>
@@ -9107,10 +9119,10 @@
         <v>54</v>
       </c>
       <c r="AC61" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD61" t="s">
         <v>286</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>294</v>
       </c>
       <c r="AE61" t="s">
         <v>197</v>
@@ -9125,7 +9137,7 @@
         <v>125</v>
       </c>
       <c r="AI61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ61" t="s">
         <v>81</v>
@@ -9133,10 +9145,10 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
@@ -9163,10 +9175,10 @@
         <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M62" t="s">
         <v>39</v>
@@ -9202,7 +9214,7 @@
         <v>1579</v>
       </c>
       <c r="X62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y62" t="s">
         <v>51</v>
@@ -9217,10 +9229,10 @@
         <v>54</v>
       </c>
       <c r="AC62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE62" t="s">
         <v>197</v>
@@ -9235,7 +9247,7 @@
         <v>125</v>
       </c>
       <c r="AI62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ62" t="s">
         <v>81</v>
@@ -9243,10 +9255,10 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -9270,13 +9282,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="M63" t="s">
         <v>39</v>
@@ -9288,7 +9300,7 @@
         <v>48</v>
       </c>
       <c r="P63">
-        <v>33.970163999999997</v>
+        <v>33.971150000000002</v>
       </c>
       <c r="Q63" t="s">
         <v>40</v>
@@ -9300,7 +9312,7 @@
         <v>49</v>
       </c>
       <c r="T63">
-        <v>19.503194000000001</v>
+        <v>19.508389999999999</v>
       </c>
       <c r="U63" t="s">
         <v>40</v>
@@ -9309,10 +9321,10 @@
         <v>40</v>
       </c>
       <c r="W63">
-        <v>1534.5830080000001</v>
+        <v>1579</v>
       </c>
       <c r="X63" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="Y63" t="s">
         <v>51</v>
@@ -9327,10 +9339,10 @@
         <v>54</v>
       </c>
       <c r="AC63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD63" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AE63" t="s">
         <v>197</v>
@@ -9342,10 +9354,10 @@
         <v>59</v>
       </c>
       <c r="AH63" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="AI63" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AJ63" t="s">
         <v>81</v>
@@ -9353,10 +9365,10 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -9437,10 +9449,10 @@
         <v>54</v>
       </c>
       <c r="AC64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE64" t="s">
         <v>197</v>
@@ -9452,10 +9464,10 @@
         <v>59</v>
       </c>
       <c r="AH64" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI64" t="s">
         <v>298</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>299</v>
       </c>
       <c r="AJ64" t="s">
         <v>81</v>
@@ -9463,10 +9475,10 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -9547,10 +9559,10 @@
         <v>54</v>
       </c>
       <c r="AC65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE65" t="s">
         <v>197</v>
@@ -9562,10 +9574,10 @@
         <v>59</v>
       </c>
       <c r="AH65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI65" t="s">
         <v>298</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>299</v>
       </c>
       <c r="AJ65" t="s">
         <v>81</v>
@@ -9573,10 +9585,10 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
@@ -9600,16 +9612,16 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K66" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="L66" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="M66" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N66" t="s">
         <v>40</v>
@@ -9657,10 +9669,10 @@
         <v>54</v>
       </c>
       <c r="AC66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE66" t="s">
         <v>197</v>
@@ -9672,10 +9684,10 @@
         <v>59</v>
       </c>
       <c r="AH66" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI66" t="s">
         <v>298</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>299</v>
       </c>
       <c r="AJ66" t="s">
         <v>81</v>
@@ -9683,10 +9695,10 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -9716,10 +9728,10 @@
         <v>45</v>
       </c>
       <c r="L67" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="M67" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N67" t="s">
         <v>40</v>
@@ -9767,10 +9779,10 @@
         <v>54</v>
       </c>
       <c r="AC67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD67" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AE67" t="s">
         <v>197</v>
@@ -9782,10 +9794,10 @@
         <v>59</v>
       </c>
       <c r="AH67" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI67" t="s">
         <v>298</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>299</v>
       </c>
       <c r="AJ67" t="s">
         <v>81</v>
@@ -9793,10 +9805,10 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -9877,10 +9889,10 @@
         <v>54</v>
       </c>
       <c r="AC68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE68" t="s">
         <v>197</v>
@@ -9892,10 +9904,10 @@
         <v>59</v>
       </c>
       <c r="AH68" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI68" t="s">
         <v>298</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>299</v>
       </c>
       <c r="AJ68" t="s">
         <v>81</v>
@@ -9903,10 +9915,10 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -9933,13 +9945,13 @@
         <v>44</v>
       </c>
       <c r="K69" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L69" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="M69" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N69" t="s">
         <v>40</v>
@@ -9987,10 +9999,10 @@
         <v>54</v>
       </c>
       <c r="AC69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE69" t="s">
         <v>197</v>
@@ -10002,10 +10014,10 @@
         <v>59</v>
       </c>
       <c r="AH69" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI69" t="s">
         <v>298</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>299</v>
       </c>
       <c r="AJ69" t="s">
         <v>81</v>
@@ -10013,10 +10025,10 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
@@ -10043,13 +10055,13 @@
         <v>44</v>
       </c>
       <c r="K70" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L70" t="s">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="M70" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N70" t="s">
         <v>40</v>
@@ -10058,7 +10070,7 @@
         <v>48</v>
       </c>
       <c r="P70">
-        <v>33.969813000000002</v>
+        <v>33.970163999999997</v>
       </c>
       <c r="Q70" t="s">
         <v>40</v>
@@ -10070,7 +10082,7 @@
         <v>49</v>
       </c>
       <c r="T70">
-        <v>19.503537000000001</v>
+        <v>19.503194000000001</v>
       </c>
       <c r="U70" t="s">
         <v>40</v>
@@ -10079,7 +10091,7 @@
         <v>40</v>
       </c>
       <c r="W70">
-        <v>1536.9722899999999</v>
+        <v>1534.5830080000001</v>
       </c>
       <c r="X70" t="s">
         <v>50</v>
@@ -10097,7 +10109,10 @@
         <v>54</v>
       </c>
       <c r="AC70" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>304</v>
       </c>
       <c r="AE70" t="s">
         <v>197</v>
@@ -10109,10 +10124,10 @@
         <v>59</v>
       </c>
       <c r="AH70" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI70" t="s">
         <v>298</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>310</v>
       </c>
       <c r="AJ70" t="s">
         <v>81</v>
@@ -10120,10 +10135,10 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C71" t="s">
         <v>39</v>
@@ -10153,7 +10168,7 @@
         <v>45</v>
       </c>
       <c r="L71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M71" t="s">
         <v>38</v>
@@ -10204,7 +10219,7 @@
         <v>54</v>
       </c>
       <c r="AC71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE71" t="s">
         <v>197</v>
@@ -10216,10 +10231,10 @@
         <v>59</v>
       </c>
       <c r="AH71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ71" t="s">
         <v>81</v>
@@ -10227,10 +10242,10 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -10260,7 +10275,7 @@
         <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M72" t="s">
         <v>38</v>
@@ -10311,7 +10326,7 @@
         <v>54</v>
       </c>
       <c r="AC72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE72" t="s">
         <v>197</v>
@@ -10323,10 +10338,10 @@
         <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ72" t="s">
         <v>81</v>
@@ -10334,10 +10349,10 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -10364,13 +10379,13 @@
         <v>44</v>
       </c>
       <c r="K73" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L73" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="M73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N73" t="s">
         <v>40</v>
@@ -10418,7 +10433,7 @@
         <v>54</v>
       </c>
       <c r="AC73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE73" t="s">
         <v>197</v>
@@ -10430,10 +10445,10 @@
         <v>59</v>
       </c>
       <c r="AH73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ73" t="s">
         <v>81</v>
@@ -10441,10 +10456,10 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -10471,10 +10486,10 @@
         <v>44</v>
       </c>
       <c r="K74" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L74" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="M74" t="s">
         <v>39</v>
@@ -10486,7 +10501,7 @@
         <v>48</v>
       </c>
       <c r="P74">
-        <v>33.970163999999997</v>
+        <v>33.969813000000002</v>
       </c>
       <c r="Q74" t="s">
         <v>40</v>
@@ -10498,7 +10513,7 @@
         <v>49</v>
       </c>
       <c r="T74">
-        <v>19.503194000000001</v>
+        <v>19.503537000000001</v>
       </c>
       <c r="U74" t="s">
         <v>40</v>
@@ -10507,7 +10522,7 @@
         <v>40</v>
       </c>
       <c r="W74">
-        <v>1534.5830080000001</v>
+        <v>1536.9722899999999</v>
       </c>
       <c r="X74" t="s">
         <v>50</v>
@@ -10525,10 +10540,7 @@
         <v>54</v>
       </c>
       <c r="AC74" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AE74" t="s">
         <v>197</v>
@@ -10540,10 +10552,10 @@
         <v>59</v>
       </c>
       <c r="AH74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI74" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AJ74" t="s">
         <v>81</v>
@@ -10551,16 +10563,16 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="1">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="E75" t="s">
         <v>39</v>
@@ -10581,10 +10593,10 @@
         <v>44</v>
       </c>
       <c r="K75" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L75" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="M75" t="s">
         <v>39</v>
@@ -10596,10 +10608,10 @@
         <v>48</v>
       </c>
       <c r="P75">
-        <v>33</v>
-      </c>
-      <c r="Q75">
-        <v>37.97</v>
+        <v>33.970163999999997</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>40</v>
       </c>
       <c r="R75" t="s">
         <v>40</v>
@@ -10608,19 +10620,19 @@
         <v>49</v>
       </c>
       <c r="T75">
-        <v>19</v>
-      </c>
-      <c r="U75">
-        <v>8.6479999999999997</v>
+        <v>19.503194000000001</v>
+      </c>
+      <c r="U75" t="s">
+        <v>40</v>
       </c>
       <c r="V75" t="s">
         <v>40</v>
       </c>
       <c r="W75">
-        <v>1049</v>
+        <v>1534.5830080000001</v>
       </c>
       <c r="X75" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Y75" t="s">
         <v>51</v>
@@ -10635,25 +10647,25 @@
         <v>54</v>
       </c>
       <c r="AC75" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="AD75" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="AE75" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AF75" t="s">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="AG75" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AH75" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AI75" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AJ75" t="s">
         <v>81</v>
@@ -10661,10 +10673,10 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -10694,7 +10706,7 @@
         <v>63</v>
       </c>
       <c r="L76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M76" t="s">
         <v>39</v>
@@ -10754,16 +10766,16 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s">
         <v>317</v>
       </c>
-      <c r="AG76" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s">
+      <c r="AI76" t="s">
         <v>318</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>319</v>
       </c>
       <c r="AJ76" t="s">
         <v>81</v>
@@ -10771,10 +10783,10 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
@@ -10804,7 +10816,7 @@
         <v>63</v>
       </c>
       <c r="L77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M77" t="s">
         <v>39</v>
@@ -10864,16 +10876,16 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s">
         <v>317</v>
       </c>
-      <c r="AG77" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s">
+      <c r="AI77" t="s">
         <v>318</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>319</v>
       </c>
       <c r="AJ77" t="s">
         <v>81</v>
@@ -10881,10 +10893,10 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
@@ -10914,7 +10926,7 @@
         <v>63</v>
       </c>
       <c r="L78" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="M78" t="s">
         <v>39</v>
@@ -10974,16 +10986,16 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s">
         <v>317</v>
       </c>
-      <c r="AG78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s">
+      <c r="AI78" t="s">
         <v>318</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>319</v>
       </c>
       <c r="AJ78" t="s">
         <v>81</v>
@@ -10991,10 +11003,10 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -11084,16 +11096,16 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s">
         <v>317</v>
       </c>
-      <c r="AG79" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s">
+      <c r="AI79" t="s">
         <v>318</v>
-      </c>
-      <c r="AI79" t="s">
-        <v>319</v>
       </c>
       <c r="AJ79" t="s">
         <v>81</v>
@@ -11101,10 +11113,10 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
@@ -11194,16 +11206,16 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s">
         <v>317</v>
       </c>
-      <c r="AG80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AI80" t="s">
         <v>318</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>319</v>
       </c>
       <c r="AJ80" t="s">
         <v>81</v>
@@ -11211,10 +11223,10 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
@@ -11241,13 +11253,13 @@
         <v>44</v>
       </c>
       <c r="K81" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L81" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M81" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N81" t="s">
         <v>40</v>
@@ -11304,16 +11316,16 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s">
         <v>317</v>
       </c>
-      <c r="AG81" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s">
+      <c r="AI81" t="s">
         <v>318</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>319</v>
       </c>
       <c r="AJ81" t="s">
         <v>81</v>
@@ -11321,10 +11333,10 @@
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -11414,16 +11426,16 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s">
         <v>317</v>
       </c>
-      <c r="AG82" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s">
+      <c r="AI82" t="s">
         <v>318</v>
-      </c>
-      <c r="AI82" t="s">
-        <v>319</v>
       </c>
       <c r="AJ82" t="s">
         <v>81</v>
@@ -11431,10 +11443,10 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -11524,16 +11536,16 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s">
         <v>317</v>
       </c>
-      <c r="AG83" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s">
+      <c r="AI83" t="s">
         <v>318</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>319</v>
       </c>
       <c r="AJ83" t="s">
         <v>81</v>
@@ -11541,10 +11553,10 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -11634,16 +11646,16 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s">
         <v>317</v>
       </c>
-      <c r="AG84" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s">
+      <c r="AI84" t="s">
         <v>318</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>319</v>
       </c>
       <c r="AJ84" t="s">
         <v>81</v>
@@ -11651,10 +11663,10 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -11678,13 +11690,13 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="L85" t="s">
-        <v>330</v>
+        <v>116</v>
       </c>
       <c r="M85" t="s">
         <v>47</v>
@@ -11738,22 +11750,22 @@
         <v>109</v>
       </c>
       <c r="AD85" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="AE85" t="s">
         <v>81</v>
       </c>
       <c r="AF85" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s">
         <v>317</v>
       </c>
-      <c r="AG85" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s">
+      <c r="AI85" t="s">
         <v>318</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>319</v>
       </c>
       <c r="AJ85" t="s">
         <v>81</v>
@@ -11761,13 +11773,13 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="D86" s="1">
         <v>43419</v>
@@ -11788,16 +11800,16 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K86" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="L86" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M86" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N86" t="s">
         <v>40</v>
@@ -11809,10 +11821,10 @@
         <v>33</v>
       </c>
       <c r="Q86">
-        <v>37</v>
-      </c>
-      <c r="R86">
-        <v>42.39</v>
+        <v>37.97</v>
+      </c>
+      <c r="R86" t="s">
+        <v>40</v>
       </c>
       <c r="S86" t="s">
         <v>49</v>
@@ -11821,16 +11833,16 @@
         <v>19</v>
       </c>
       <c r="U86">
-        <v>8</v>
-      </c>
-      <c r="V86">
-        <v>55.96</v>
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="V86" t="s">
+        <v>40</v>
       </c>
       <c r="W86">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="X86" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s">
         <v>51</v>
@@ -11845,39 +11857,39 @@
         <v>54</v>
       </c>
       <c r="AC86" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="AD86" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AE86" t="s">
         <v>81</v>
       </c>
       <c r="AF86" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AG86" t="s">
         <v>81</v>
       </c>
       <c r="AH86" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AI86" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="AJ86" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="D87" s="1">
         <v>43419</v>
@@ -11901,13 +11913,13 @@
         <v>44</v>
       </c>
       <c r="K87" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N87" t="s">
         <v>40</v>
@@ -11922,7 +11934,7 @@
         <v>37</v>
       </c>
       <c r="R87">
-        <v>49.43</v>
+        <v>42.39</v>
       </c>
       <c r="S87" t="s">
         <v>49</v>
@@ -11934,13 +11946,13 @@
         <v>8</v>
       </c>
       <c r="V87">
-        <v>50.25</v>
+        <v>55.96</v>
       </c>
       <c r="W87">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="X87" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="Y87" t="s">
         <v>51</v>
@@ -11955,36 +11967,36 @@
         <v>54</v>
       </c>
       <c r="AC87" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AD87" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AE87" t="s">
         <v>81</v>
       </c>
       <c r="AF87" t="s">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AG87" t="s">
         <v>81</v>
       </c>
       <c r="AH87" t="s">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AJ87" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -12014,7 +12026,7 @@
         <v>45</v>
       </c>
       <c r="L88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M88" t="s">
         <v>47</v>
@@ -12068,22 +12080,22 @@
         <v>109</v>
       </c>
       <c r="AD88" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI88" t="s">
         <v>341</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI88" t="s">
-        <v>342</v>
       </c>
       <c r="AJ88" t="s">
         <v>81</v>
@@ -12091,10 +12103,10 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -12124,10 +12136,10 @@
         <v>45</v>
       </c>
       <c r="L89" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M89" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N89" t="s">
         <v>40</v>
@@ -12178,36 +12190,33 @@
         <v>109</v>
       </c>
       <c r="AD89" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI89" t="s">
         <v>341</v>
       </c>
-      <c r="AE89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>342</v>
-      </c>
       <c r="AJ89" t="s">
         <v>81</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -12234,13 +12243,13 @@
         <v>44</v>
       </c>
       <c r="K90" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L90" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M90" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N90" t="s">
         <v>40</v>
@@ -12249,28 +12258,28 @@
         <v>48</v>
       </c>
       <c r="P90">
-        <v>33.631</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="Q90">
+        <v>37</v>
+      </c>
+      <c r="R90">
+        <v>49.43</v>
       </c>
       <c r="S90" t="s">
         <v>49</v>
       </c>
       <c r="T90">
-        <v>19.143999999999998</v>
-      </c>
-      <c r="U90" t="s">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U90">
+        <v>8</v>
+      </c>
+      <c r="V90">
+        <v>50.25</v>
       </c>
       <c r="W90">
-        <v>1031</v>
+        <v>1068</v>
       </c>
       <c r="X90" t="s">
         <v>81</v>
@@ -12291,33 +12300,36 @@
         <v>109</v>
       </c>
       <c r="AD90" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AE90" t="s">
         <v>81</v>
       </c>
       <c r="AF90" t="s">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AG90" t="s">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AI90" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AJ90" t="s">
-        <v>350</v>
+        <v>81</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
@@ -12344,10 +12356,10 @@
         <v>44</v>
       </c>
       <c r="K91" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M91" t="s">
         <v>47</v>
@@ -12359,28 +12371,28 @@
         <v>48</v>
       </c>
       <c r="P91">
-        <v>33</v>
-      </c>
-      <c r="Q91">
-        <v>37</v>
-      </c>
-      <c r="R91">
-        <v>44.03</v>
+        <v>33.631</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s">
+        <v>40</v>
       </c>
       <c r="S91" t="s">
         <v>49</v>
       </c>
       <c r="T91">
-        <v>19</v>
-      </c>
-      <c r="U91">
-        <v>8</v>
-      </c>
-      <c r="V91">
-        <v>38.5</v>
+        <v>19.143999999999998</v>
+      </c>
+      <c r="U91" t="s">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s">
+        <v>40</v>
       </c>
       <c r="W91">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="X91" t="s">
         <v>81</v>
@@ -12401,36 +12413,33 @@
         <v>109</v>
       </c>
       <c r="AD91" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AE91" t="s">
         <v>81</v>
       </c>
       <c r="AF91" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AG91" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AH91" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AI91" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AJ91" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK91" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
@@ -12457,13 +12466,13 @@
         <v>44</v>
       </c>
       <c r="K92" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L92" t="s">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="M92" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N92" t="s">
         <v>40</v>
@@ -12478,7 +12487,7 @@
         <v>37</v>
       </c>
       <c r="R92">
-        <v>8.65</v>
+        <v>44.03</v>
       </c>
       <c r="S92" t="s">
         <v>49</v>
@@ -12487,13 +12496,13 @@
         <v>19</v>
       </c>
       <c r="U92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V92">
-        <v>43.08</v>
+        <v>38.5</v>
       </c>
       <c r="W92">
-        <v>769</v>
+        <v>1039</v>
       </c>
       <c r="X92" t="s">
         <v>81</v>
@@ -12514,10 +12523,10 @@
         <v>109</v>
       </c>
       <c r="AD92" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="AE92" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="AF92" t="s">
         <v>81</v>
@@ -12526,21 +12535,24 @@
         <v>81</v>
       </c>
       <c r="AH92" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AJ92" t="s">
         <v>81</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
@@ -12647,16 +12659,16 @@
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="D94" s="1">
-        <v>43428</v>
+        <v>43419</v>
       </c>
       <c r="E94" t="s">
         <v>39</v>
@@ -12680,7 +12692,7 @@
         <v>63</v>
       </c>
       <c r="L94" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="M94" t="s">
         <v>39</v>
@@ -12692,28 +12704,28 @@
         <v>48</v>
       </c>
       <c r="P94">
-        <v>34.28436</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="Q94">
+        <v>37</v>
+      </c>
+      <c r="R94">
+        <v>8.65</v>
       </c>
       <c r="S94" t="s">
         <v>49</v>
       </c>
       <c r="T94">
-        <v>19.047000000000001</v>
-      </c>
-      <c r="U94" t="s">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="U94">
+        <v>6</v>
+      </c>
+      <c r="V94">
+        <v>43.08</v>
       </c>
       <c r="W94">
-        <v>462</v>
+        <v>769</v>
       </c>
       <c r="X94" t="s">
         <v>81</v>
@@ -12725,28 +12737,31 @@
         <v>52</v>
       </c>
       <c r="AA94" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="AB94" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="AC94" t="s">
-        <v>358</v>
+        <v>109</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>128</v>
       </c>
       <c r="AE94" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AF94" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AG94" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AH94" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="AI94" t="s">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="AJ94" t="s">
         <v>81</v>
@@ -12754,13 +12769,13 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D95" s="1">
         <v>43428</v>
@@ -12787,7 +12802,7 @@
         <v>63</v>
       </c>
       <c r="L95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M95" t="s">
         <v>39</v>
@@ -12838,7 +12853,7 @@
         <v>189</v>
       </c>
       <c r="AC95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE95" t="s">
         <v>84</v>
@@ -12847,13 +12862,13 @@
         <v>119</v>
       </c>
       <c r="AG95" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH95" t="s">
         <v>359</v>
       </c>
-      <c r="AH95" t="s">
+      <c r="AI95" t="s">
         <v>360</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>361</v>
       </c>
       <c r="AJ95" t="s">
         <v>81</v>
@@ -12861,13 +12876,13 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D96" s="1">
         <v>43428</v>
@@ -12894,7 +12909,7 @@
         <v>63</v>
       </c>
       <c r="L96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M96" t="s">
         <v>39</v>
@@ -12945,7 +12960,7 @@
         <v>189</v>
       </c>
       <c r="AC96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE96" t="s">
         <v>84</v>
@@ -12954,13 +12969,13 @@
         <v>119</v>
       </c>
       <c r="AG96" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH96" t="s">
         <v>359</v>
       </c>
-      <c r="AH96" t="s">
+      <c r="AI96" t="s">
         <v>360</v>
-      </c>
-      <c r="AI96" t="s">
-        <v>361</v>
       </c>
       <c r="AJ96" t="s">
         <v>81</v>
@@ -12968,13 +12983,13 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D97" s="1">
         <v>43428</v>
@@ -13001,7 +13016,7 @@
         <v>63</v>
       </c>
       <c r="L97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M97" t="s">
         <v>39</v>
@@ -13052,7 +13067,7 @@
         <v>189</v>
       </c>
       <c r="AC97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE97" t="s">
         <v>84</v>
@@ -13061,13 +13076,13 @@
         <v>119</v>
       </c>
       <c r="AG97" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH97" t="s">
         <v>359</v>
       </c>
-      <c r="AH97" t="s">
+      <c r="AI97" t="s">
         <v>360</v>
-      </c>
-      <c r="AI97" t="s">
-        <v>361</v>
       </c>
       <c r="AJ97" t="s">
         <v>81</v>
@@ -13075,13 +13090,13 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D98" s="1">
         <v>43428</v>
@@ -13108,7 +13123,7 @@
         <v>63</v>
       </c>
       <c r="L98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M98" t="s">
         <v>39</v>
@@ -13159,7 +13174,7 @@
         <v>189</v>
       </c>
       <c r="AC98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE98" t="s">
         <v>84</v>
@@ -13168,13 +13183,13 @@
         <v>119</v>
       </c>
       <c r="AG98" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH98" t="s">
         <v>359</v>
       </c>
-      <c r="AH98" t="s">
+      <c r="AI98" t="s">
         <v>360</v>
-      </c>
-      <c r="AI98" t="s">
-        <v>361</v>
       </c>
       <c r="AJ98" t="s">
         <v>81</v>
@@ -13182,13 +13197,13 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D99" s="1">
         <v>43428</v>
@@ -13215,7 +13230,7 @@
         <v>63</v>
       </c>
       <c r="L99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M99" t="s">
         <v>39</v>
@@ -13266,7 +13281,7 @@
         <v>189</v>
       </c>
       <c r="AC99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE99" t="s">
         <v>84</v>
@@ -13275,13 +13290,13 @@
         <v>119</v>
       </c>
       <c r="AG99" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH99" t="s">
         <v>359</v>
       </c>
-      <c r="AH99" t="s">
+      <c r="AI99" t="s">
         <v>360</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>361</v>
       </c>
       <c r="AJ99" t="s">
         <v>81</v>
@@ -13289,13 +13304,13 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D100" s="1">
         <v>43428</v>
@@ -13322,7 +13337,7 @@
         <v>63</v>
       </c>
       <c r="L100" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M100" t="s">
         <v>39</v>
@@ -13334,7 +13349,7 @@
         <v>48</v>
       </c>
       <c r="P100">
-        <v>34.286879999999996</v>
+        <v>34.28436</v>
       </c>
       <c r="Q100" t="s">
         <v>40</v>
@@ -13346,7 +13361,7 @@
         <v>49</v>
       </c>
       <c r="T100">
-        <v>19.044509999999999</v>
+        <v>19.047000000000001</v>
       </c>
       <c r="U100" t="s">
         <v>40</v>
@@ -13355,7 +13370,7 @@
         <v>40</v>
       </c>
       <c r="W100">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="X100" t="s">
         <v>81</v>
@@ -13373,7 +13388,7 @@
         <v>189</v>
       </c>
       <c r="AC100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE100" t="s">
         <v>84</v>
@@ -13382,13 +13397,13 @@
         <v>119</v>
       </c>
       <c r="AG100" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH100" t="s">
         <v>359</v>
       </c>
-      <c r="AH100" t="s">
+      <c r="AI100" t="s">
         <v>360</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>368</v>
       </c>
       <c r="AJ100" t="s">
         <v>81</v>
@@ -13396,13 +13411,13 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D101" s="1">
         <v>43428</v>
@@ -13429,7 +13444,7 @@
         <v>63</v>
       </c>
       <c r="L101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M101" t="s">
         <v>39</v>
@@ -13480,7 +13495,7 @@
         <v>189</v>
       </c>
       <c r="AC101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE101" t="s">
         <v>84</v>
@@ -13489,13 +13504,13 @@
         <v>119</v>
       </c>
       <c r="AG101" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH101" t="s">
         <v>359</v>
       </c>
-      <c r="AH101" t="s">
-        <v>360</v>
-      </c>
       <c r="AI101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ101" t="s">
         <v>81</v>
@@ -13503,13 +13518,13 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" s="1">
         <v>43428</v>
@@ -13536,7 +13551,7 @@
         <v>63</v>
       </c>
       <c r="L102" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="M102" t="s">
         <v>39</v>
@@ -13548,7 +13563,7 @@
         <v>48</v>
       </c>
       <c r="P102">
-        <v>34.287500000000001</v>
+        <v>34.286879999999996</v>
       </c>
       <c r="Q102" t="s">
         <v>40</v>
@@ -13560,7 +13575,7 @@
         <v>49</v>
       </c>
       <c r="T102">
-        <v>19.043880000000001</v>
+        <v>19.044509999999999</v>
       </c>
       <c r="U102" t="s">
         <v>40</v>
@@ -13569,7 +13584,7 @@
         <v>40</v>
       </c>
       <c r="W102">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="X102" t="s">
         <v>81</v>
@@ -13587,7 +13602,7 @@
         <v>189</v>
       </c>
       <c r="AC102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE102" t="s">
         <v>84</v>
@@ -13596,13 +13611,13 @@
         <v>119</v>
       </c>
       <c r="AG102" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH102" t="s">
         <v>359</v>
       </c>
-      <c r="AH102" t="s">
-        <v>360</v>
-      </c>
       <c r="AI102" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AJ102" t="s">
         <v>81</v>
@@ -13610,13 +13625,13 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D103" s="1">
         <v>43428</v>
@@ -13643,7 +13658,7 @@
         <v>63</v>
       </c>
       <c r="L103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M103" t="s">
         <v>39</v>
@@ -13694,7 +13709,7 @@
         <v>189</v>
       </c>
       <c r="AC103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE103" t="s">
         <v>84</v>
@@ -13703,13 +13718,13 @@
         <v>119</v>
       </c>
       <c r="AG103" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH103" t="s">
         <v>359</v>
       </c>
-      <c r="AH103" t="s">
-        <v>360</v>
-      </c>
       <c r="AI103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ103" t="s">
         <v>81</v>
@@ -13717,13 +13732,13 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D104" s="1">
         <v>43428</v>
@@ -13750,7 +13765,7 @@
         <v>63</v>
       </c>
       <c r="L104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M104" t="s">
         <v>39</v>
@@ -13762,7 +13777,7 @@
         <v>48</v>
       </c>
       <c r="P104">
-        <v>34.287469999999999</v>
+        <v>34.287500000000001</v>
       </c>
       <c r="Q104" t="s">
         <v>40</v>
@@ -13774,7 +13789,7 @@
         <v>49</v>
       </c>
       <c r="T104">
-        <v>19.044740000000001</v>
+        <v>19.043880000000001</v>
       </c>
       <c r="U104" t="s">
         <v>40</v>
@@ -13783,7 +13798,7 @@
         <v>40</v>
       </c>
       <c r="W104">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X104" t="s">
         <v>81</v>
@@ -13801,7 +13816,7 @@
         <v>189</v>
       </c>
       <c r="AC104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE104" t="s">
         <v>84</v>
@@ -13810,13 +13825,13 @@
         <v>119</v>
       </c>
       <c r="AG104" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH104" t="s">
         <v>359</v>
       </c>
-      <c r="AH104" t="s">
-        <v>360</v>
-      </c>
       <c r="AI104" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ104" t="s">
         <v>81</v>
@@ -13824,13 +13839,13 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" s="1">
         <v>43428</v>
@@ -13857,7 +13872,7 @@
         <v>63</v>
       </c>
       <c r="L105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M105" t="s">
         <v>39</v>
@@ -13908,7 +13923,7 @@
         <v>189</v>
       </c>
       <c r="AC105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE105" t="s">
         <v>84</v>
@@ -13917,13 +13932,13 @@
         <v>119</v>
       </c>
       <c r="AG105" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH105" t="s">
         <v>359</v>
       </c>
-      <c r="AH105" t="s">
-        <v>360</v>
-      </c>
       <c r="AI105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ105" t="s">
         <v>81</v>
@@ -13931,13 +13946,13 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D106" s="1">
         <v>43428</v>
@@ -13964,7 +13979,7 @@
         <v>63</v>
       </c>
       <c r="L106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M106" t="s">
         <v>39</v>
@@ -14015,7 +14030,7 @@
         <v>189</v>
       </c>
       <c r="AC106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE106" t="s">
         <v>84</v>
@@ -14024,13 +14039,13 @@
         <v>119</v>
       </c>
       <c r="AG106" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH106" t="s">
         <v>359</v>
       </c>
-      <c r="AH106" t="s">
-        <v>360</v>
-      </c>
       <c r="AI106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ106" t="s">
         <v>81</v>
@@ -14038,13 +14053,13 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D107" s="1">
         <v>43428</v>
@@ -14068,10 +14083,10 @@
         <v>44</v>
       </c>
       <c r="K107" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L107" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="M107" t="s">
         <v>39</v>
@@ -14083,7 +14098,7 @@
         <v>48</v>
       </c>
       <c r="P107">
-        <v>34.284979999999997</v>
+        <v>34.287469999999999</v>
       </c>
       <c r="Q107" t="s">
         <v>40</v>
@@ -14095,7 +14110,7 @@
         <v>49</v>
       </c>
       <c r="T107">
-        <v>19.045680000000001</v>
+        <v>19.044740000000001</v>
       </c>
       <c r="U107" t="s">
         <v>40</v>
@@ -14104,7 +14119,7 @@
         <v>40</v>
       </c>
       <c r="W107">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="X107" t="s">
         <v>81</v>
@@ -14122,7 +14137,7 @@
         <v>189</v>
       </c>
       <c r="AC107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE107" t="s">
         <v>84</v>
@@ -14131,13 +14146,13 @@
         <v>119</v>
       </c>
       <c r="AG107" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH107" t="s">
         <v>359</v>
       </c>
-      <c r="AH107" t="s">
-        <v>360</v>
-      </c>
       <c r="AI107" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AJ107" t="s">
         <v>81</v>
@@ -14145,13 +14160,13 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D108" s="1">
         <v>43428</v>
@@ -14229,7 +14244,7 @@
         <v>189</v>
       </c>
       <c r="AC108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE108" t="s">
         <v>84</v>
@@ -14238,13 +14253,13 @@
         <v>119</v>
       </c>
       <c r="AG108" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH108" t="s">
         <v>359</v>
       </c>
-      <c r="AH108" t="s">
+      <c r="AI108" t="s">
         <v>360</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>361</v>
       </c>
       <c r="AJ108" t="s">
         <v>81</v>
@@ -14252,13 +14267,13 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" s="1">
         <v>43428</v>
@@ -14336,7 +14351,7 @@
         <v>189</v>
       </c>
       <c r="AC109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE109" t="s">
         <v>84</v>
@@ -14345,13 +14360,13 @@
         <v>119</v>
       </c>
       <c r="AG109" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH109" t="s">
         <v>359</v>
       </c>
-      <c r="AH109" t="s">
+      <c r="AI109" t="s">
         <v>360</v>
-      </c>
-      <c r="AI109" t="s">
-        <v>361</v>
       </c>
       <c r="AJ109" t="s">
         <v>81</v>
@@ -14359,13 +14374,13 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D110" s="1">
         <v>43428</v>
@@ -14443,7 +14458,7 @@
         <v>189</v>
       </c>
       <c r="AC110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE110" t="s">
         <v>84</v>
@@ -14452,13 +14467,13 @@
         <v>119</v>
       </c>
       <c r="AG110" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH110" t="s">
         <v>359</v>
       </c>
-      <c r="AH110" t="s">
+      <c r="AI110" t="s">
         <v>360</v>
-      </c>
-      <c r="AI110" t="s">
-        <v>361</v>
       </c>
       <c r="AJ110" t="s">
         <v>81</v>
@@ -14466,13 +14481,13 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D111" s="1">
         <v>43428</v>
@@ -14496,10 +14511,10 @@
         <v>44</v>
       </c>
       <c r="K111" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L111" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="M111" t="s">
         <v>39</v>
@@ -14511,7 +14526,7 @@
         <v>48</v>
       </c>
       <c r="P111">
-        <v>34.284419999999997</v>
+        <v>34.284979999999997</v>
       </c>
       <c r="Q111" t="s">
         <v>40</v>
@@ -14523,7 +14538,7 @@
         <v>49</v>
       </c>
       <c r="T111">
-        <v>19.04777</v>
+        <v>19.045680000000001</v>
       </c>
       <c r="U111" t="s">
         <v>40</v>
@@ -14532,7 +14547,7 @@
         <v>40</v>
       </c>
       <c r="W111">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="X111" t="s">
         <v>81</v>
@@ -14550,7 +14565,7 @@
         <v>189</v>
       </c>
       <c r="AC111" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE111" t="s">
         <v>84</v>
@@ -14559,13 +14574,13 @@
         <v>119</v>
       </c>
       <c r="AG111" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH111" t="s">
         <v>359</v>
       </c>
-      <c r="AH111" t="s">
+      <c r="AI111" t="s">
         <v>360</v>
-      </c>
-      <c r="AI111" t="s">
-        <v>382</v>
       </c>
       <c r="AJ111" t="s">
         <v>81</v>
@@ -14573,13 +14588,13 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D112" s="1">
         <v>43428</v>
@@ -14603,10 +14618,10 @@
         <v>44</v>
       </c>
       <c r="K112" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L112" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="M112" t="s">
         <v>39</v>
@@ -14657,7 +14672,7 @@
         <v>189</v>
       </c>
       <c r="AC112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE112" t="s">
         <v>84</v>
@@ -14666,13 +14681,13 @@
         <v>119</v>
       </c>
       <c r="AG112" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH112" t="s">
         <v>359</v>
       </c>
-      <c r="AH112" t="s">
-        <v>360</v>
-      </c>
       <c r="AI112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ112" t="s">
         <v>81</v>
@@ -14680,13 +14695,13 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D113" s="1">
         <v>43428</v>
@@ -14764,7 +14779,7 @@
         <v>189</v>
       </c>
       <c r="AC113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE113" t="s">
         <v>84</v>
@@ -14773,13 +14788,13 @@
         <v>119</v>
       </c>
       <c r="AG113" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH113" t="s">
         <v>359</v>
       </c>
-      <c r="AH113" t="s">
-        <v>360</v>
-      </c>
       <c r="AI113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ113" t="s">
         <v>81</v>
@@ -14787,13 +14802,13 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D114" s="1">
         <v>43428</v>
@@ -14871,7 +14886,7 @@
         <v>189</v>
       </c>
       <c r="AC114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE114" t="s">
         <v>84</v>
@@ -14880,13 +14895,13 @@
         <v>119</v>
       </c>
       <c r="AG114" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH114" t="s">
         <v>359</v>
       </c>
-      <c r="AH114" t="s">
-        <v>360</v>
-      </c>
       <c r="AI114" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ114" t="s">
         <v>81</v>
@@ -14894,13 +14909,13 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D115" s="1">
         <v>43428</v>
@@ -14978,7 +14993,7 @@
         <v>189</v>
       </c>
       <c r="AC115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE115" t="s">
         <v>84</v>
@@ -14987,13 +15002,13 @@
         <v>119</v>
       </c>
       <c r="AG115" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH115" t="s">
         <v>359</v>
       </c>
-      <c r="AH115" t="s">
-        <v>360</v>
-      </c>
       <c r="AI115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ115" t="s">
         <v>81</v>
@@ -15001,16 +15016,16 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D116" s="1">
-        <v>43429</v>
+        <v>43428</v>
       </c>
       <c r="E116" t="s">
         <v>39</v>
@@ -15034,7 +15049,7 @@
         <v>45</v>
       </c>
       <c r="L116" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="M116" t="s">
         <v>39</v>
@@ -15046,7 +15061,7 @@
         <v>48</v>
       </c>
       <c r="P116">
-        <v>24.214040000000001</v>
+        <v>34.284419999999997</v>
       </c>
       <c r="Q116" t="s">
         <v>40</v>
@@ -15058,7 +15073,7 @@
         <v>49</v>
       </c>
       <c r="T116">
-        <v>19.14855</v>
+        <v>19.04777</v>
       </c>
       <c r="U116" t="s">
         <v>40</v>
@@ -15067,7 +15082,7 @@
         <v>40</v>
       </c>
       <c r="W116">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="X116" t="s">
         <v>81</v>
@@ -15085,25 +15100,22 @@
         <v>189</v>
       </c>
       <c r="AC116" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD116" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="AE116" t="s">
         <v>84</v>
       </c>
       <c r="AF116" t="s">
-        <v>389</v>
+        <v>119</v>
       </c>
       <c r="AG116" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="AH116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI116" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AJ116" t="s">
         <v>81</v>
@@ -15111,16 +15123,16 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D117" s="1">
-        <v>43428</v>
+        <v>43429</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
@@ -15144,7 +15156,7 @@
         <v>45</v>
       </c>
       <c r="L117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M117" t="s">
         <v>39</v>
@@ -15198,22 +15210,22 @@
         <v>190</v>
       </c>
       <c r="AD117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE117" t="s">
         <v>84</v>
       </c>
       <c r="AF117" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG117" t="s">
         <v>389</v>
       </c>
-      <c r="AG117" t="s">
+      <c r="AH117" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI117" t="s">
         <v>390</v>
-      </c>
-      <c r="AH117" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI117" t="s">
-        <v>391</v>
       </c>
       <c r="AJ117" t="s">
         <v>81</v>
@@ -15221,13 +15233,13 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" s="1">
         <v>43428</v>
@@ -15254,7 +15266,7 @@
         <v>45</v>
       </c>
       <c r="L118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M118" t="s">
         <v>39</v>
@@ -15308,22 +15320,22 @@
         <v>190</v>
       </c>
       <c r="AD118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE118" t="s">
         <v>84</v>
       </c>
       <c r="AF118" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG118" t="s">
         <v>389</v>
       </c>
-      <c r="AG118" t="s">
+      <c r="AH118" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI118" t="s">
         <v>390</v>
-      </c>
-      <c r="AH118" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI118" t="s">
-        <v>391</v>
       </c>
       <c r="AJ118" t="s">
         <v>81</v>
@@ -15331,13 +15343,13 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D119" s="1">
         <v>43428</v>
@@ -15364,7 +15376,7 @@
         <v>45</v>
       </c>
       <c r="L119" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M119" t="s">
         <v>39</v>
@@ -15418,22 +15430,22 @@
         <v>190</v>
       </c>
       <c r="AD119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE119" t="s">
         <v>84</v>
       </c>
       <c r="AF119" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG119" t="s">
         <v>389</v>
       </c>
-      <c r="AG119" t="s">
+      <c r="AH119" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI119" t="s">
         <v>390</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI119" t="s">
-        <v>391</v>
       </c>
       <c r="AJ119" t="s">
         <v>81</v>
@@ -15441,13 +15453,13 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D120" s="1">
         <v>43428</v>
@@ -15474,7 +15486,7 @@
         <v>45</v>
       </c>
       <c r="L120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M120" t="s">
         <v>39</v>
@@ -15528,22 +15540,22 @@
         <v>190</v>
       </c>
       <c r="AD120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE120" t="s">
         <v>84</v>
       </c>
       <c r="AF120" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG120" t="s">
         <v>389</v>
       </c>
-      <c r="AG120" t="s">
+      <c r="AH120" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI120" t="s">
         <v>390</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI120" t="s">
-        <v>391</v>
       </c>
       <c r="AJ120" t="s">
         <v>81</v>
@@ -15551,13 +15563,13 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D121" s="1">
         <v>43428</v>
@@ -15584,7 +15596,7 @@
         <v>45</v>
       </c>
       <c r="L121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M121" t="s">
         <v>39</v>
@@ -15638,22 +15650,22 @@
         <v>190</v>
       </c>
       <c r="AD121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE121" t="s">
         <v>84</v>
       </c>
       <c r="AF121" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG121" t="s">
         <v>389</v>
       </c>
-      <c r="AG121" t="s">
+      <c r="AH121" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI121" t="s">
         <v>390</v>
-      </c>
-      <c r="AH121" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI121" t="s">
-        <v>391</v>
       </c>
       <c r="AJ121" t="s">
         <v>81</v>
@@ -15661,13 +15673,13 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D122" s="1">
         <v>43428</v>
@@ -15682,19 +15694,19 @@
         <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="I122" t="s">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="K122" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="L122" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="M122" t="s">
         <v>39</v>
@@ -15706,7 +15718,7 @@
         <v>48</v>
       </c>
       <c r="P122">
-        <v>25.214040000000001</v>
+        <v>24.214040000000001</v>
       </c>
       <c r="Q122" t="s">
         <v>40</v>
@@ -15718,7 +15730,7 @@
         <v>49</v>
       </c>
       <c r="T122">
-        <v>20.14855</v>
+        <v>19.14855</v>
       </c>
       <c r="U122" t="s">
         <v>40</v>
@@ -15727,7 +15739,7 @@
         <v>40</v>
       </c>
       <c r="W122">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X122" t="s">
         <v>81</v>
@@ -15748,22 +15760,22 @@
         <v>190</v>
       </c>
       <c r="AD122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE122" t="s">
         <v>84</v>
       </c>
       <c r="AF122" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG122" t="s">
         <v>389</v>
       </c>
-      <c r="AG122" t="s">
+      <c r="AH122" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI122" t="s">
         <v>390</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI122" t="s">
-        <v>391</v>
       </c>
       <c r="AJ122" t="s">
         <v>81</v>
@@ -15771,13 +15783,13 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D123" s="1">
         <v>43428</v>
@@ -15792,19 +15804,19 @@
         <v>41</v>
       </c>
       <c r="H123" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="K123" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="L123" t="s">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="M123" t="s">
         <v>39</v>
@@ -15858,22 +15870,22 @@
         <v>190</v>
       </c>
       <c r="AD123" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE123" t="s">
         <v>84</v>
       </c>
       <c r="AF123" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG123" t="s">
         <v>389</v>
       </c>
-      <c r="AG123" t="s">
+      <c r="AH123" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI123" t="s">
         <v>390</v>
-      </c>
-      <c r="AH123" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI123" t="s">
-        <v>391</v>
       </c>
       <c r="AJ123" t="s">
         <v>81</v>
@@ -15881,13 +15893,13 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D124" s="1">
         <v>43428</v>
@@ -15968,22 +15980,22 @@
         <v>190</v>
       </c>
       <c r="AD124" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE124" t="s">
         <v>84</v>
       </c>
       <c r="AF124" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG124" t="s">
         <v>389</v>
       </c>
-      <c r="AG124" t="s">
+      <c r="AH124" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI124" t="s">
         <v>390</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI124" t="s">
-        <v>391</v>
       </c>
       <c r="AJ124" t="s">
         <v>81</v>
@@ -15991,13 +16003,13 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D125" s="1">
         <v>43428</v>
@@ -16078,22 +16090,22 @@
         <v>190</v>
       </c>
       <c r="AD125" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE125" t="s">
         <v>84</v>
       </c>
       <c r="AF125" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG125" t="s">
         <v>389</v>
       </c>
-      <c r="AG125" t="s">
+      <c r="AH125" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI125" t="s">
         <v>390</v>
-      </c>
-      <c r="AH125" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI125" t="s">
-        <v>391</v>
       </c>
       <c r="AJ125" t="s">
         <v>81</v>
@@ -16101,13 +16113,13 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D126" s="1">
         <v>43428</v>
@@ -16188,22 +16200,22 @@
         <v>190</v>
       </c>
       <c r="AD126" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE126" t="s">
         <v>84</v>
       </c>
       <c r="AF126" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG126" t="s">
         <v>389</v>
       </c>
-      <c r="AG126" t="s">
+      <c r="AH126" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI126" t="s">
         <v>390</v>
-      </c>
-      <c r="AH126" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI126" t="s">
-        <v>391</v>
       </c>
       <c r="AJ126" t="s">
         <v>81</v>
@@ -16211,13 +16223,13 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D127" s="1">
         <v>43428</v>
@@ -16298,22 +16310,22 @@
         <v>190</v>
       </c>
       <c r="AD127" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE127" t="s">
         <v>84</v>
       </c>
       <c r="AF127" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG127" t="s">
         <v>389</v>
       </c>
-      <c r="AG127" t="s">
+      <c r="AH127" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI127" t="s">
         <v>390</v>
-      </c>
-      <c r="AH127" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>391</v>
       </c>
       <c r="AJ127" t="s">
         <v>81</v>
@@ -16321,13 +16333,13 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C128" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D128" s="1">
         <v>43428</v>
@@ -16408,22 +16420,22 @@
         <v>190</v>
       </c>
       <c r="AD128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE128" t="s">
         <v>84</v>
       </c>
       <c r="AF128" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG128" t="s">
         <v>389</v>
       </c>
-      <c r="AG128" t="s">
+      <c r="AH128" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI128" t="s">
         <v>390</v>
-      </c>
-      <c r="AH128" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI128" t="s">
-        <v>391</v>
       </c>
       <c r="AJ128" t="s">
         <v>81</v>
@@ -16431,13 +16443,13 @@
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="1">
         <v>43428</v>
@@ -16464,7 +16476,7 @@
         <v>45</v>
       </c>
       <c r="L129" t="s">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="M129" t="s">
         <v>39</v>
@@ -16518,22 +16530,22 @@
         <v>190</v>
       </c>
       <c r="AD129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE129" t="s">
         <v>84</v>
       </c>
       <c r="AF129" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG129" t="s">
         <v>389</v>
       </c>
-      <c r="AG129" t="s">
+      <c r="AH129" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI129" t="s">
         <v>390</v>
-      </c>
-      <c r="AH129" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI129" t="s">
-        <v>391</v>
       </c>
       <c r="AJ129" t="s">
         <v>81</v>
@@ -16541,13 +16553,13 @@
     </row>
     <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D130" s="1">
         <v>43428</v>
@@ -16574,7 +16586,7 @@
         <v>45</v>
       </c>
       <c r="L130" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M130" t="s">
         <v>39</v>
@@ -16628,22 +16640,22 @@
         <v>190</v>
       </c>
       <c r="AD130" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE130" t="s">
         <v>84</v>
       </c>
       <c r="AF130" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG130" t="s">
         <v>389</v>
       </c>
-      <c r="AG130" t="s">
+      <c r="AH130" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI130" t="s">
         <v>390</v>
-      </c>
-      <c r="AH130" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI130" t="s">
-        <v>391</v>
       </c>
       <c r="AJ130" t="s">
         <v>81</v>
@@ -16651,13 +16663,13 @@
     </row>
     <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C131" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="1">
         <v>43428</v>
@@ -16684,7 +16696,7 @@
         <v>45</v>
       </c>
       <c r="L131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M131" t="s">
         <v>39</v>
@@ -16738,22 +16750,22 @@
         <v>190</v>
       </c>
       <c r="AD131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE131" t="s">
         <v>84</v>
       </c>
       <c r="AF131" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG131" t="s">
         <v>389</v>
       </c>
-      <c r="AG131" t="s">
+      <c r="AH131" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI131" t="s">
         <v>390</v>
-      </c>
-      <c r="AH131" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI131" t="s">
-        <v>391</v>
       </c>
       <c r="AJ131" t="s">
         <v>81</v>
@@ -16761,13 +16773,13 @@
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D132" s="1">
         <v>43428</v>
@@ -16794,7 +16806,7 @@
         <v>45</v>
       </c>
       <c r="L132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M132" t="s">
         <v>39</v>
@@ -16848,22 +16860,22 @@
         <v>190</v>
       </c>
       <c r="AD132" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE132" t="s">
         <v>84</v>
       </c>
       <c r="AF132" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG132" t="s">
         <v>389</v>
       </c>
-      <c r="AG132" t="s">
+      <c r="AH132" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI132" t="s">
         <v>390</v>
-      </c>
-      <c r="AH132" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI132" t="s">
-        <v>391</v>
       </c>
       <c r="AJ132" t="s">
         <v>81</v>
@@ -16871,13 +16883,13 @@
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="1">
         <v>43428</v>
@@ -16904,7 +16916,7 @@
         <v>45</v>
       </c>
       <c r="L133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M133" t="s">
         <v>39</v>
@@ -16958,22 +16970,22 @@
         <v>190</v>
       </c>
       <c r="AD133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE133" t="s">
         <v>84</v>
       </c>
       <c r="AF133" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG133" t="s">
         <v>389</v>
       </c>
-      <c r="AG133" t="s">
+      <c r="AH133" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI133" t="s">
         <v>390</v>
-      </c>
-      <c r="AH133" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI133" t="s">
-        <v>391</v>
       </c>
       <c r="AJ133" t="s">
         <v>81</v>
@@ -16981,13 +16993,13 @@
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="1">
         <v>43428</v>
@@ -17014,7 +17026,7 @@
         <v>45</v>
       </c>
       <c r="L134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M134" t="s">
         <v>39</v>
@@ -17068,22 +17080,22 @@
         <v>190</v>
       </c>
       <c r="AD134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE134" t="s">
         <v>84</v>
       </c>
       <c r="AF134" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG134" t="s">
         <v>389</v>
       </c>
-      <c r="AG134" t="s">
+      <c r="AH134" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI134" t="s">
         <v>390</v>
-      </c>
-      <c r="AH134" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI134" t="s">
-        <v>391</v>
       </c>
       <c r="AJ134" t="s">
         <v>81</v>
@@ -17091,13 +17103,13 @@
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D135" s="1">
         <v>43428</v>
@@ -17121,10 +17133,10 @@
         <v>44</v>
       </c>
       <c r="K135" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L135" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="M135" t="s">
         <v>39</v>
@@ -17178,22 +17190,22 @@
         <v>190</v>
       </c>
       <c r="AD135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE135" t="s">
         <v>84</v>
       </c>
       <c r="AF135" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG135" t="s">
         <v>389</v>
       </c>
-      <c r="AG135" t="s">
+      <c r="AH135" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI135" t="s">
         <v>390</v>
-      </c>
-      <c r="AH135" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>391</v>
       </c>
       <c r="AJ135" t="s">
         <v>81</v>
@@ -17201,13 +17213,13 @@
     </row>
     <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D136" s="1">
         <v>43428</v>
@@ -17234,7 +17246,7 @@
         <v>63</v>
       </c>
       <c r="L136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M136" t="s">
         <v>39</v>
@@ -17288,22 +17300,22 @@
         <v>190</v>
       </c>
       <c r="AD136" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE136" t="s">
         <v>84</v>
       </c>
       <c r="AF136" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG136" t="s">
         <v>389</v>
       </c>
-      <c r="AG136" t="s">
+      <c r="AH136" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI136" t="s">
         <v>390</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI136" t="s">
-        <v>391</v>
       </c>
       <c r="AJ136" t="s">
         <v>81</v>
@@ -17311,13 +17323,13 @@
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D137" s="1">
         <v>43428</v>
@@ -17344,7 +17356,7 @@
         <v>63</v>
       </c>
       <c r="L137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M137" t="s">
         <v>39</v>
@@ -17398,22 +17410,22 @@
         <v>190</v>
       </c>
       <c r="AD137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE137" t="s">
         <v>84</v>
       </c>
       <c r="AF137" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG137" t="s">
         <v>389</v>
       </c>
-      <c r="AG137" t="s">
+      <c r="AH137" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI137" t="s">
         <v>390</v>
-      </c>
-      <c r="AH137" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI137" t="s">
-        <v>391</v>
       </c>
       <c r="AJ137" t="s">
         <v>81</v>
@@ -17421,13 +17433,13 @@
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D138" s="1">
         <v>43428</v>
@@ -17454,7 +17466,7 @@
         <v>63</v>
       </c>
       <c r="L138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M138" t="s">
         <v>39</v>
@@ -17508,22 +17520,22 @@
         <v>190</v>
       </c>
       <c r="AD138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE138" t="s">
         <v>84</v>
       </c>
       <c r="AF138" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG138" t="s">
         <v>389</v>
       </c>
-      <c r="AG138" t="s">
+      <c r="AH138" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI138" t="s">
         <v>390</v>
-      </c>
-      <c r="AH138" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI138" t="s">
-        <v>391</v>
       </c>
       <c r="AJ138" t="s">
         <v>81</v>
@@ -17531,13 +17543,13 @@
     </row>
     <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D139" s="1">
         <v>43428</v>
@@ -17564,7 +17576,7 @@
         <v>63</v>
       </c>
       <c r="L139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M139" t="s">
         <v>39</v>
@@ -17618,22 +17630,22 @@
         <v>190</v>
       </c>
       <c r="AD139" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE139" t="s">
         <v>84</v>
       </c>
       <c r="AF139" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG139" t="s">
         <v>389</v>
       </c>
-      <c r="AG139" t="s">
+      <c r="AH139" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI139" t="s">
         <v>390</v>
-      </c>
-      <c r="AH139" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI139" t="s">
-        <v>391</v>
       </c>
       <c r="AJ139" t="s">
         <v>81</v>
@@ -17641,13 +17653,13 @@
     </row>
     <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D140" s="1">
         <v>43428</v>
@@ -17674,7 +17686,7 @@
         <v>63</v>
       </c>
       <c r="L140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M140" t="s">
         <v>39</v>
@@ -17728,22 +17740,22 @@
         <v>190</v>
       </c>
       <c r="AD140" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE140" t="s">
         <v>84</v>
       </c>
       <c r="AF140" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG140" t="s">
         <v>389</v>
       </c>
-      <c r="AG140" t="s">
+      <c r="AH140" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI140" t="s">
         <v>390</v>
-      </c>
-      <c r="AH140" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI140" t="s">
-        <v>391</v>
       </c>
       <c r="AJ140" t="s">
         <v>81</v>
@@ -17751,13 +17763,13 @@
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D141" s="1">
         <v>43428</v>
@@ -17784,7 +17796,7 @@
         <v>63</v>
       </c>
       <c r="L141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M141" t="s">
         <v>39</v>
@@ -17838,22 +17850,22 @@
         <v>190</v>
       </c>
       <c r="AD141" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AE141" t="s">
         <v>84</v>
       </c>
       <c r="AF141" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG141" t="s">
         <v>389</v>
       </c>
-      <c r="AG141" t="s">
+      <c r="AH141" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI141" t="s">
         <v>390</v>
-      </c>
-      <c r="AH141" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI141" t="s">
-        <v>391</v>
       </c>
       <c r="AJ141" t="s">
         <v>81</v>
@@ -17861,16 +17873,16 @@
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>424</v>
-      </c>
-      <c r="D142" t="s">
-        <v>425</v>
+        <v>356</v>
+      </c>
+      <c r="D142" s="1">
+        <v>43428</v>
       </c>
       <c r="E142" t="s">
         <v>39</v>
@@ -17891,10 +17903,10 @@
         <v>44</v>
       </c>
       <c r="K142" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L142" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="M142" t="s">
         <v>39</v>
@@ -17905,32 +17917,32 @@
       <c r="O142" t="s">
         <v>48</v>
       </c>
-      <c r="P142" t="s">
-        <v>81</v>
+      <c r="P142">
+        <v>25.214040000000001</v>
       </c>
       <c r="Q142" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R142" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S142" t="s">
         <v>49</v>
       </c>
-      <c r="T142" t="s">
-        <v>81</v>
+      <c r="T142">
+        <v>20.14855</v>
       </c>
       <c r="U142" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V142" t="s">
-        <v>81</v>
-      </c>
-      <c r="W142" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="W142">
+        <v>386</v>
       </c>
       <c r="X142" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Y142" t="s">
         <v>51</v>
@@ -17948,39 +17960,39 @@
         <v>190</v>
       </c>
       <c r="AD142" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="AE142" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="AF142" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="AG142" t="s">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AH142" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AI142" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK142" t="s">
-        <v>429</v>
+        <v>390</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
+        <v>423</v>
+      </c>
+      <c r="D143" t="s">
         <v>424</v>
-      </c>
-      <c r="D143" t="s">
-        <v>425</v>
       </c>
       <c r="E143" t="s">
         <v>39</v>
@@ -18004,7 +18016,7 @@
         <v>45</v>
       </c>
       <c r="L143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M143" t="s">
         <v>39</v>
@@ -18058,39 +18070,39 @@
         <v>190</v>
       </c>
       <c r="AD143" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE143" t="s">
         <v>426</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="AF143" t="s">
         <v>427</v>
       </c>
-      <c r="AF143" t="s">
+      <c r="AG143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK143" t="s">
         <v>428</v>
-      </c>
-      <c r="AG143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK143" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
+        <v>423</v>
+      </c>
+      <c r="D144" t="s">
         <v>424</v>
-      </c>
-      <c r="D144" t="s">
-        <v>425</v>
       </c>
       <c r="E144" t="s">
         <v>39</v>
@@ -18111,10 +18123,10 @@
         <v>44</v>
       </c>
       <c r="K144" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L144" t="s">
-        <v>247</v>
+        <v>409</v>
       </c>
       <c r="M144" t="s">
         <v>39</v>
@@ -18168,14 +18180,14 @@
         <v>190</v>
       </c>
       <c r="AD144" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE144" t="s">
         <v>426</v>
       </c>
-      <c r="AE144" t="s">
+      <c r="AF144" t="s">
         <v>427</v>
       </c>
-      <c r="AF144" t="s">
-        <v>428</v>
-      </c>
       <c r="AG144" t="s">
         <v>81</v>
       </c>
@@ -18186,21 +18198,21 @@
         <v>81</v>
       </c>
       <c r="AK144" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C145" t="s">
+        <v>423</v>
+      </c>
+      <c r="D145" t="s">
         <v>424</v>
-      </c>
-      <c r="D145" t="s">
-        <v>425</v>
       </c>
       <c r="E145" t="s">
         <v>39</v>
@@ -18224,7 +18236,7 @@
         <v>63</v>
       </c>
       <c r="L145" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M145" t="s">
         <v>39</v>
@@ -18278,14 +18290,14 @@
         <v>190</v>
       </c>
       <c r="AD145" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE145" t="s">
         <v>426</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AF145" t="s">
         <v>427</v>
       </c>
-      <c r="AF145" t="s">
-        <v>428</v>
-      </c>
       <c r="AG145" t="s">
         <v>81</v>
       </c>
@@ -18296,21 +18308,21 @@
         <v>81</v>
       </c>
       <c r="AK145" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C146" t="s">
+        <v>423</v>
+      </c>
+      <c r="D146" t="s">
         <v>424</v>
-      </c>
-      <c r="D146" t="s">
-        <v>425</v>
       </c>
       <c r="E146" t="s">
         <v>39</v>
@@ -18331,10 +18343,10 @@
         <v>44</v>
       </c>
       <c r="K146" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L146" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="M146" t="s">
         <v>39</v>
@@ -18388,14 +18400,14 @@
         <v>190</v>
       </c>
       <c r="AD146" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE146" t="s">
         <v>426</v>
       </c>
-      <c r="AE146" t="s">
+      <c r="AF146" t="s">
         <v>427</v>
       </c>
-      <c r="AF146" t="s">
-        <v>428</v>
-      </c>
       <c r="AG146" t="s">
         <v>81</v>
       </c>
@@ -18406,21 +18418,21 @@
         <v>81</v>
       </c>
       <c r="AK146" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C147" t="s">
+        <v>423</v>
+      </c>
+      <c r="D147" t="s">
         <v>424</v>
-      </c>
-      <c r="D147" t="s">
-        <v>425</v>
       </c>
       <c r="E147" t="s">
         <v>39</v>
@@ -18498,14 +18510,14 @@
         <v>190</v>
       </c>
       <c r="AD147" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE147" t="s">
         <v>426</v>
       </c>
-      <c r="AE147" t="s">
+      <c r="AF147" t="s">
         <v>427</v>
       </c>
-      <c r="AF147" t="s">
-        <v>428</v>
-      </c>
       <c r="AG147" t="s">
         <v>81</v>
       </c>
@@ -18516,21 +18528,21 @@
         <v>81</v>
       </c>
       <c r="AK147" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C148" t="s">
+        <v>423</v>
+      </c>
+      <c r="D148" t="s">
         <v>424</v>
-      </c>
-      <c r="D148" t="s">
-        <v>425</v>
       </c>
       <c r="E148" t="s">
         <v>39</v>
@@ -18608,14 +18620,14 @@
         <v>190</v>
       </c>
       <c r="AD148" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE148" t="s">
         <v>426</v>
       </c>
-      <c r="AE148" t="s">
+      <c r="AF148" t="s">
         <v>427</v>
       </c>
-      <c r="AF148" t="s">
-        <v>428</v>
-      </c>
       <c r="AG148" t="s">
         <v>81</v>
       </c>
@@ -18626,21 +18638,21 @@
         <v>81</v>
       </c>
       <c r="AK148" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C149" t="s">
+        <v>423</v>
+      </c>
+      <c r="D149" t="s">
         <v>424</v>
-      </c>
-      <c r="D149" t="s">
-        <v>425</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -18718,14 +18730,14 @@
         <v>190</v>
       </c>
       <c r="AD149" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE149" t="s">
         <v>426</v>
       </c>
-      <c r="AE149" t="s">
+      <c r="AF149" t="s">
         <v>427</v>
       </c>
-      <c r="AF149" t="s">
-        <v>428</v>
-      </c>
       <c r="AG149" t="s">
         <v>81</v>
       </c>
@@ -18736,21 +18748,21 @@
         <v>81</v>
       </c>
       <c r="AK149" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C150" t="s">
-        <v>445</v>
-      </c>
-      <c r="D150" s="1">
-        <v>43346</v>
+        <v>423</v>
+      </c>
+      <c r="D150" t="s">
+        <v>424</v>
       </c>
       <c r="E150" t="s">
         <v>39</v>
@@ -18771,10 +18783,10 @@
         <v>44</v>
       </c>
       <c r="K150" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L150" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="M150" t="s">
         <v>39</v>
@@ -18819,42 +18831,45 @@
         <v>52</v>
       </c>
       <c r="AA150" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AB150" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AC150" t="s">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="AD150" t="s">
-        <v>447</v>
+        <v>425</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>426</v>
       </c>
       <c r="AF150" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG150" t="s">
         <v>81</v>
       </c>
       <c r="AH150" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AI150" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AK150" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D151" s="1">
         <v>43346</v>
@@ -18878,10 +18893,10 @@
         <v>44</v>
       </c>
       <c r="K151" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L151" t="s">
-        <v>410</v>
+        <v>246</v>
       </c>
       <c r="M151" t="s">
         <v>39</v>
@@ -18932,36 +18947,36 @@
         <v>170</v>
       </c>
       <c r="AC151" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD151" t="s">
         <v>446</v>
       </c>
-      <c r="AD151" t="s">
+      <c r="AF151" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH151" t="s">
         <v>447</v>
-      </c>
-      <c r="AF151" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG151" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH151" t="s">
-        <v>448</v>
       </c>
       <c r="AI151" t="s">
         <v>119</v>
       </c>
       <c r="AK151" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D152" s="1">
         <v>43346</v>
@@ -18988,7 +19003,7 @@
         <v>45</v>
       </c>
       <c r="L152" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="M152" t="s">
         <v>39</v>
@@ -19039,36 +19054,36 @@
         <v>170</v>
       </c>
       <c r="AC152" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD152" t="s">
         <v>446</v>
       </c>
-      <c r="AD152" t="s">
+      <c r="AF152" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH152" t="s">
         <v>447</v>
-      </c>
-      <c r="AF152" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH152" t="s">
-        <v>448</v>
       </c>
       <c r="AI152" t="s">
         <v>119</v>
       </c>
       <c r="AK152" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C153" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D153" s="1">
         <v>43346</v>
@@ -19092,10 +19107,10 @@
         <v>44</v>
       </c>
       <c r="K153" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L153" t="s">
-        <v>455</v>
+        <v>90</v>
       </c>
       <c r="M153" t="s">
         <v>39</v>
@@ -19146,39 +19161,39 @@
         <v>170</v>
       </c>
       <c r="AC153" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD153" t="s">
         <v>446</v>
       </c>
-      <c r="AD153" t="s">
+      <c r="AF153" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH153" t="s">
         <v>447</v>
-      </c>
-      <c r="AF153" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG153" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH153" t="s">
-        <v>448</v>
       </c>
       <c r="AI153" t="s">
         <v>119</v>
       </c>
       <c r="AK153" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C154" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="D154" s="1">
-        <v>43372</v>
+        <v>43346</v>
       </c>
       <c r="E154" t="s">
         <v>39</v>
@@ -19199,27 +19214,90 @@
         <v>44</v>
       </c>
       <c r="K154" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L154" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M154" t="s">
         <v>39</v>
       </c>
       <c r="N154" t="s">
         <v>40</v>
+      </c>
+      <c r="O154" t="s">
+        <v>48</v>
+      </c>
+      <c r="P154" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>81</v>
+      </c>
+      <c r="R154" t="s">
+        <v>81</v>
+      </c>
+      <c r="S154" t="s">
+        <v>49</v>
+      </c>
+      <c r="T154" t="s">
+        <v>81</v>
+      </c>
+      <c r="U154" t="s">
+        <v>81</v>
+      </c>
+      <c r="V154" t="s">
+        <v>81</v>
+      </c>
+      <c r="W154" t="s">
+        <v>81</v>
+      </c>
+      <c r="X154" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D155" s="1">
         <v>43372</v>
@@ -19246,7 +19324,7 @@
         <v>45</v>
       </c>
       <c r="L155" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M155" t="s">
         <v>39</v>
@@ -19257,13 +19335,13 @@
     </row>
     <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C156" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D156" s="1">
         <v>43372</v>
@@ -19290,7 +19368,7 @@
         <v>45</v>
       </c>
       <c r="L156" t="s">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="M156" t="s">
         <v>39</v>
@@ -19301,13 +19379,13 @@
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D157" s="1">
         <v>43372</v>
@@ -19331,10 +19409,10 @@
         <v>44</v>
       </c>
       <c r="K157" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L157" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M157" t="s">
         <v>39</v>
@@ -19345,13 +19423,13 @@
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D158" s="1">
         <v>43372</v>
@@ -19378,7 +19456,7 @@
         <v>63</v>
       </c>
       <c r="L158" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="M158" t="s">
         <v>39</v>
@@ -19389,13 +19467,13 @@
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D159" s="1">
         <v>43372</v>
@@ -19422,7 +19500,7 @@
         <v>63</v>
       </c>
       <c r="L159" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M159" t="s">
         <v>39</v>
@@ -19433,13 +19511,13 @@
     </row>
     <row r="160" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D160" s="1">
         <v>43372</v>
@@ -19460,13 +19538,13 @@
         <v>43</v>
       </c>
       <c r="J160" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="K160" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="L160" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="M160" t="s">
         <v>39</v>
@@ -19477,13 +19555,13 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D161" s="1">
         <v>43372</v>
@@ -19504,13 +19582,13 @@
         <v>43</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K161" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="L161" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M161" t="s">
         <v>39</v>
@@ -19521,13 +19599,13 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D162" s="1">
         <v>43372</v>
@@ -19551,10 +19629,10 @@
         <v>44</v>
       </c>
       <c r="K162" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L162" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="M162" t="s">
         <v>39</v>
@@ -19565,13 +19643,13 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D163" s="1">
         <v>43372</v>
@@ -19595,10 +19673,10 @@
         <v>44</v>
       </c>
       <c r="K163" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L163" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="M163" t="s">
         <v>39</v>
@@ -19609,13 +19687,13 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C164" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D164" s="1">
         <v>43372</v>
@@ -19642,7 +19720,7 @@
         <v>45</v>
       </c>
       <c r="L164" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="M164" t="s">
         <v>39</v>
@@ -19653,13 +19731,13 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D165" s="1">
         <v>43372</v>
@@ -19686,7 +19764,7 @@
         <v>45</v>
       </c>
       <c r="L165" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M165" t="s">
         <v>39</v>
@@ -19697,290 +19775,334 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>474</v>
+        <v>469</v>
+      </c>
+      <c r="C166" t="s">
+        <v>356</v>
+      </c>
+      <c r="D166" s="1">
+        <v>43372</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" t="s">
+        <v>41</v>
+      </c>
+      <c r="H166" t="s">
+        <v>42</v>
+      </c>
+      <c r="I166" t="s">
+        <v>43</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
+      </c>
+      <c r="K166" t="s">
+        <v>45</v>
+      </c>
+      <c r="L166" t="s">
+        <v>409</v>
+      </c>
+      <c r="M166" t="s">
+        <v>39</v>
+      </c>
+      <c r="N166" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
         <v>198</v>
       </c>
-      <c r="B201" t="s">
-        <v>509</v>
+      <c r="B202" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CB9DC-EECE-47C1-9018-F90D015A680E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD98B420-29B8-490E-B2FD-9F3B017FC460}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,9 +898,6 @@
     <t>RVM_58</t>
   </si>
   <si>
-    <t>Schoenus sp. Nov. T.L.Elliott</t>
-  </si>
-  <si>
     <t>Moderate slope downwards, to N of large red &amp; white mast on hill, near path</t>
   </si>
   <si>
@@ -1562,6 +1559,9 @@
   </si>
   <si>
     <t>Schoenus compactus aff. or submarginalis</t>
+  </si>
+  <si>
+    <t>Schoenus sp. nov. T.L.Elliott</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2441,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="5"/>
@@ -2495,7 +2495,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2504,7 +2504,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -7043,10 +7043,10 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" t="s">
         <v>509</v>
-      </c>
-      <c r="B43" t="s">
-        <v>510</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -7076,7 +7076,7 @@
         <v>63</v>
       </c>
       <c r="L43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M43" t="s">
         <v>38</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
@@ -9178,7 +9178,7 @@
         <v>63</v>
       </c>
       <c r="L62" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s">
         <v>39</v>
@@ -9232,7 +9232,7 @@
         <v>285</v>
       </c>
       <c r="AD62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE62" t="s">
         <v>197</v>
@@ -9258,7 +9258,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -9288,7 +9288,7 @@
         <v>63</v>
       </c>
       <c r="L63" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s">
         <v>39</v>
@@ -9342,7 +9342,7 @@
         <v>285</v>
       </c>
       <c r="AD63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE63" t="s">
         <v>197</v>
@@ -9368,7 +9368,7 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -9452,7 +9452,7 @@
         <v>285</v>
       </c>
       <c r="AD64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE64" t="s">
         <v>197</v>
@@ -9464,10 +9464,10 @@
         <v>59</v>
       </c>
       <c r="AH64" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI64" t="s">
         <v>297</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>298</v>
       </c>
       <c r="AJ64" t="s">
         <v>81</v>
@@ -9478,7 +9478,7 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -9562,7 +9562,7 @@
         <v>285</v>
       </c>
       <c r="AD65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE65" t="s">
         <v>197</v>
@@ -9574,10 +9574,10 @@
         <v>59</v>
       </c>
       <c r="AH65" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI65" t="s">
         <v>297</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>298</v>
       </c>
       <c r="AJ65" t="s">
         <v>81</v>
@@ -9588,7 +9588,7 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
         <v>39</v>
@@ -9672,7 +9672,7 @@
         <v>285</v>
       </c>
       <c r="AD66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE66" t="s">
         <v>197</v>
@@ -9684,10 +9684,10 @@
         <v>59</v>
       </c>
       <c r="AH66" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI66" t="s">
         <v>297</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>298</v>
       </c>
       <c r="AJ66" t="s">
         <v>81</v>
@@ -9698,7 +9698,7 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -9728,7 +9728,7 @@
         <v>45</v>
       </c>
       <c r="L67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M67" t="s">
         <v>47</v>
@@ -9782,7 +9782,7 @@
         <v>285</v>
       </c>
       <c r="AD67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE67" t="s">
         <v>197</v>
@@ -9794,10 +9794,10 @@
         <v>59</v>
       </c>
       <c r="AH67" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI67" t="s">
         <v>297</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>298</v>
       </c>
       <c r="AJ67" t="s">
         <v>81</v>
@@ -9808,7 +9808,7 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -9892,7 +9892,7 @@
         <v>285</v>
       </c>
       <c r="AD68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE68" t="s">
         <v>197</v>
@@ -9904,10 +9904,10 @@
         <v>59</v>
       </c>
       <c r="AH68" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI68" t="s">
         <v>297</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>298</v>
       </c>
       <c r="AJ68" t="s">
         <v>81</v>
@@ -9918,7 +9918,7 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -10002,7 +10002,7 @@
         <v>285</v>
       </c>
       <c r="AD69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE69" t="s">
         <v>197</v>
@@ -10014,10 +10014,10 @@
         <v>59</v>
       </c>
       <c r="AH69" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI69" t="s">
         <v>297</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>298</v>
       </c>
       <c r="AJ69" t="s">
         <v>81</v>
@@ -10028,7 +10028,7 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
@@ -10112,7 +10112,7 @@
         <v>285</v>
       </c>
       <c r="AD70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE70" t="s">
         <v>197</v>
@@ -10124,10 +10124,10 @@
         <v>59</v>
       </c>
       <c r="AH70" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI70" t="s">
         <v>297</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>298</v>
       </c>
       <c r="AJ70" t="s">
         <v>81</v>
@@ -10138,7 +10138,7 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C71" t="s">
         <v>39</v>
@@ -10168,7 +10168,7 @@
         <v>45</v>
       </c>
       <c r="L71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M71" t="s">
         <v>38</v>
@@ -10231,10 +10231,10 @@
         <v>59</v>
       </c>
       <c r="AH71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ71" t="s">
         <v>81</v>
@@ -10245,7 +10245,7 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -10275,7 +10275,7 @@
         <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M72" t="s">
         <v>38</v>
@@ -10338,10 +10338,10 @@
         <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ72" t="s">
         <v>81</v>
@@ -10352,7 +10352,7 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -10382,7 +10382,7 @@
         <v>45</v>
       </c>
       <c r="L73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M73" t="s">
         <v>38</v>
@@ -10445,10 +10445,10 @@
         <v>59</v>
       </c>
       <c r="AH73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ73" t="s">
         <v>81</v>
@@ -10459,7 +10459,7 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -10552,10 +10552,10 @@
         <v>59</v>
       </c>
       <c r="AH74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ74" t="s">
         <v>81</v>
@@ -10566,7 +10566,7 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -10650,7 +10650,7 @@
         <v>285</v>
       </c>
       <c r="AD75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE75" t="s">
         <v>197</v>
@@ -10662,10 +10662,10 @@
         <v>59</v>
       </c>
       <c r="AH75" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI75" t="s">
         <v>297</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>298</v>
       </c>
       <c r="AJ75" t="s">
         <v>81</v>
@@ -10676,7 +10676,7 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -10706,7 +10706,7 @@
         <v>63</v>
       </c>
       <c r="L76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M76" t="s">
         <v>39</v>
@@ -10766,16 +10766,16 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s">
         <v>316</v>
       </c>
-      <c r="AG76" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s">
+      <c r="AI76" t="s">
         <v>317</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>318</v>
       </c>
       <c r="AJ76" t="s">
         <v>81</v>
@@ -10786,7 +10786,7 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
@@ -10816,7 +10816,7 @@
         <v>63</v>
       </c>
       <c r="L77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M77" t="s">
         <v>39</v>
@@ -10876,16 +10876,16 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s">
         <v>316</v>
       </c>
-      <c r="AG77" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s">
+      <c r="AI77" t="s">
         <v>317</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>318</v>
       </c>
       <c r="AJ77" t="s">
         <v>81</v>
@@ -10896,7 +10896,7 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
@@ -10926,7 +10926,7 @@
         <v>63</v>
       </c>
       <c r="L78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M78" t="s">
         <v>39</v>
@@ -10986,16 +10986,16 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s">
         <v>316</v>
       </c>
-      <c r="AG78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s">
+      <c r="AI78" t="s">
         <v>317</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>318</v>
       </c>
       <c r="AJ78" t="s">
         <v>81</v>
@@ -11006,7 +11006,7 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -11096,16 +11096,16 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s">
         <v>316</v>
       </c>
-      <c r="AG79" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s">
+      <c r="AI79" t="s">
         <v>317</v>
-      </c>
-      <c r="AI79" t="s">
-        <v>318</v>
       </c>
       <c r="AJ79" t="s">
         <v>81</v>
@@ -11116,7 +11116,7 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
@@ -11206,16 +11206,16 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s">
         <v>316</v>
       </c>
-      <c r="AG80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s">
+      <c r="AI80" t="s">
         <v>317</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>318</v>
       </c>
       <c r="AJ80" t="s">
         <v>81</v>
@@ -11226,7 +11226,7 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
@@ -11316,16 +11316,16 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s">
         <v>316</v>
       </c>
-      <c r="AG81" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s">
+      <c r="AI81" t="s">
         <v>317</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>318</v>
       </c>
       <c r="AJ81" t="s">
         <v>81</v>
@@ -11336,7 +11336,7 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -11426,16 +11426,16 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s">
         <v>316</v>
       </c>
-      <c r="AG82" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s">
+      <c r="AI82" t="s">
         <v>317</v>
-      </c>
-      <c r="AI82" t="s">
-        <v>318</v>
       </c>
       <c r="AJ82" t="s">
         <v>81</v>
@@ -11446,7 +11446,7 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -11536,16 +11536,16 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s">
         <v>316</v>
       </c>
-      <c r="AG83" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s">
+      <c r="AI83" t="s">
         <v>317</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>318</v>
       </c>
       <c r="AJ83" t="s">
         <v>81</v>
@@ -11556,7 +11556,7 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -11646,16 +11646,16 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s">
         <v>316</v>
       </c>
-      <c r="AG84" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s">
+      <c r="AI84" t="s">
         <v>317</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>318</v>
       </c>
       <c r="AJ84" t="s">
         <v>81</v>
@@ -11666,7 +11666,7 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -11756,16 +11756,16 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s">
         <v>316</v>
       </c>
-      <c r="AG85" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s">
+      <c r="AI85" t="s">
         <v>317</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>318</v>
       </c>
       <c r="AJ85" t="s">
         <v>81</v>
@@ -11776,7 +11776,7 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
@@ -11806,7 +11806,7 @@
         <v>160</v>
       </c>
       <c r="L86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M86" t="s">
         <v>47</v>
@@ -11860,22 +11860,22 @@
         <v>109</v>
       </c>
       <c r="AD86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AE86" t="s">
         <v>81</v>
       </c>
       <c r="AF86" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s">
         <v>316</v>
       </c>
-      <c r="AG86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s">
+      <c r="AI86" t="s">
         <v>317</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>318</v>
       </c>
       <c r="AJ86" t="s">
         <v>81</v>
@@ -11886,10 +11886,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
         <v>331</v>
-      </c>
-      <c r="C87" t="s">
-        <v>332</v>
       </c>
       <c r="D87" s="1">
         <v>43419</v>
@@ -11913,10 +11913,10 @@
         <v>44</v>
       </c>
       <c r="K87" t="s">
+        <v>332</v>
+      </c>
+      <c r="L87" t="s">
         <v>333</v>
-      </c>
-      <c r="L87" t="s">
-        <v>334</v>
       </c>
       <c r="M87" t="s">
         <v>39</v>
@@ -11970,22 +11970,22 @@
         <v>82</v>
       </c>
       <c r="AD87" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s">
         <v>335</v>
       </c>
-      <c r="AE87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s">
+      <c r="AG87" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s">
         <v>336</v>
-      </c>
-      <c r="AG87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI87" t="s">
-        <v>337</v>
       </c>
       <c r="AJ87" t="s">
         <v>257</v>
@@ -11996,7 +11996,7 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -12026,7 +12026,7 @@
         <v>45</v>
       </c>
       <c r="L88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M88" t="s">
         <v>47</v>
@@ -12080,22 +12080,22 @@
         <v>109</v>
       </c>
       <c r="AD88" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI88" t="s">
         <v>340</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI88" t="s">
-        <v>341</v>
       </c>
       <c r="AJ88" t="s">
         <v>81</v>
@@ -12106,7 +12106,7 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -12136,7 +12136,7 @@
         <v>45</v>
       </c>
       <c r="L89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M89" t="s">
         <v>47</v>
@@ -12190,22 +12190,22 @@
         <v>109</v>
       </c>
       <c r="AD89" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI89" t="s">
         <v>340</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>341</v>
       </c>
       <c r="AJ89" t="s">
         <v>81</v>
@@ -12216,7 +12216,7 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -12246,7 +12246,7 @@
         <v>45</v>
       </c>
       <c r="L90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M90" t="s">
         <v>38</v>
@@ -12300,28 +12300,28 @@
         <v>109</v>
       </c>
       <c r="AD90" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI90" t="s">
         <v>340</v>
       </c>
-      <c r="AE90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH90" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>341</v>
-      </c>
       <c r="AJ90" t="s">
         <v>81</v>
       </c>
       <c r="AK90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
@@ -12329,7 +12329,7 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
@@ -12359,7 +12359,7 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M91" t="s">
         <v>47</v>
@@ -12413,25 +12413,25 @@
         <v>109</v>
       </c>
       <c r="AD91" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s">
         <v>348</v>
       </c>
-      <c r="AE91" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>349</v>
-      </c>
       <c r="AG91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AI91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
@@ -12439,7 +12439,7 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
@@ -12469,7 +12469,7 @@
         <v>45</v>
       </c>
       <c r="L92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M92" t="s">
         <v>47</v>
@@ -12523,7 +12523,7 @@
         <v>109</v>
       </c>
       <c r="AD92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE92" t="s">
         <v>81</v>
@@ -12552,7 +12552,7 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
@@ -12662,7 +12662,7 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
@@ -12772,10 +12772,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" t="s">
         <v>355</v>
-      </c>
-      <c r="C95" t="s">
-        <v>356</v>
       </c>
       <c r="D95" s="1">
         <v>43428</v>
@@ -12853,7 +12853,7 @@
         <v>189</v>
       </c>
       <c r="AC95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE95" t="s">
         <v>84</v>
@@ -12862,13 +12862,13 @@
         <v>119</v>
       </c>
       <c r="AG95" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH95" t="s">
         <v>358</v>
       </c>
-      <c r="AH95" t="s">
+      <c r="AI95" t="s">
         <v>359</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>360</v>
       </c>
       <c r="AJ95" t="s">
         <v>81</v>
@@ -12879,10 +12879,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D96" s="1">
         <v>43428</v>
@@ -12960,7 +12960,7 @@
         <v>189</v>
       </c>
       <c r="AC96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE96" t="s">
         <v>84</v>
@@ -12969,13 +12969,13 @@
         <v>119</v>
       </c>
       <c r="AG96" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH96" t="s">
         <v>358</v>
       </c>
-      <c r="AH96" t="s">
+      <c r="AI96" t="s">
         <v>359</v>
-      </c>
-      <c r="AI96" t="s">
-        <v>360</v>
       </c>
       <c r="AJ96" t="s">
         <v>81</v>
@@ -12986,10 +12986,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D97" s="1">
         <v>43428</v>
@@ -13067,7 +13067,7 @@
         <v>189</v>
       </c>
       <c r="AC97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE97" t="s">
         <v>84</v>
@@ -13076,13 +13076,13 @@
         <v>119</v>
       </c>
       <c r="AG97" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH97" t="s">
         <v>358</v>
       </c>
-      <c r="AH97" t="s">
+      <c r="AI97" t="s">
         <v>359</v>
-      </c>
-      <c r="AI97" t="s">
-        <v>360</v>
       </c>
       <c r="AJ97" t="s">
         <v>81</v>
@@ -13093,10 +13093,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D98" s="1">
         <v>43428</v>
@@ -13174,7 +13174,7 @@
         <v>189</v>
       </c>
       <c r="AC98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE98" t="s">
         <v>84</v>
@@ -13183,13 +13183,13 @@
         <v>119</v>
       </c>
       <c r="AG98" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH98" t="s">
         <v>358</v>
       </c>
-      <c r="AH98" t="s">
+      <c r="AI98" t="s">
         <v>359</v>
-      </c>
-      <c r="AI98" t="s">
-        <v>360</v>
       </c>
       <c r="AJ98" t="s">
         <v>81</v>
@@ -13200,10 +13200,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D99" s="1">
         <v>43428</v>
@@ -13281,7 +13281,7 @@
         <v>189</v>
       </c>
       <c r="AC99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE99" t="s">
         <v>84</v>
@@ -13290,13 +13290,13 @@
         <v>119</v>
       </c>
       <c r="AG99" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH99" t="s">
         <v>358</v>
       </c>
-      <c r="AH99" t="s">
+      <c r="AI99" t="s">
         <v>359</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>360</v>
       </c>
       <c r="AJ99" t="s">
         <v>81</v>
@@ -13307,10 +13307,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D100" s="1">
         <v>43428</v>
@@ -13388,7 +13388,7 @@
         <v>189</v>
       </c>
       <c r="AC100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE100" t="s">
         <v>84</v>
@@ -13397,13 +13397,13 @@
         <v>119</v>
       </c>
       <c r="AG100" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH100" t="s">
         <v>358</v>
       </c>
-      <c r="AH100" t="s">
+      <c r="AI100" t="s">
         <v>359</v>
-      </c>
-      <c r="AI100" t="s">
-        <v>360</v>
       </c>
       <c r="AJ100" t="s">
         <v>81</v>
@@ -13414,10 +13414,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D101" s="1">
         <v>43428</v>
@@ -13495,7 +13495,7 @@
         <v>189</v>
       </c>
       <c r="AC101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE101" t="s">
         <v>84</v>
@@ -13504,13 +13504,13 @@
         <v>119</v>
       </c>
       <c r="AG101" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH101" t="s">
         <v>358</v>
       </c>
-      <c r="AH101" t="s">
-        <v>359</v>
-      </c>
       <c r="AI101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AJ101" t="s">
         <v>81</v>
@@ -13521,10 +13521,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="1">
         <v>43428</v>
@@ -13602,7 +13602,7 @@
         <v>189</v>
       </c>
       <c r="AC102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE102" t="s">
         <v>84</v>
@@ -13611,13 +13611,13 @@
         <v>119</v>
       </c>
       <c r="AG102" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH102" t="s">
         <v>358</v>
       </c>
-      <c r="AH102" t="s">
-        <v>359</v>
-      </c>
       <c r="AI102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AJ102" t="s">
         <v>81</v>
@@ -13628,10 +13628,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D103" s="1">
         <v>43428</v>
@@ -13658,7 +13658,7 @@
         <v>63</v>
       </c>
       <c r="L103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M103" t="s">
         <v>39</v>
@@ -13709,7 +13709,7 @@
         <v>189</v>
       </c>
       <c r="AC103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE103" t="s">
         <v>84</v>
@@ -13718,13 +13718,13 @@
         <v>119</v>
       </c>
       <c r="AG103" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH103" t="s">
         <v>358</v>
       </c>
-      <c r="AH103" t="s">
-        <v>359</v>
-      </c>
       <c r="AI103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ103" t="s">
         <v>81</v>
@@ -13735,10 +13735,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D104" s="1">
         <v>43428</v>
@@ -13765,7 +13765,7 @@
         <v>63</v>
       </c>
       <c r="L104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M104" t="s">
         <v>39</v>
@@ -13816,7 +13816,7 @@
         <v>189</v>
       </c>
       <c r="AC104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE104" t="s">
         <v>84</v>
@@ -13825,13 +13825,13 @@
         <v>119</v>
       </c>
       <c r="AG104" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH104" t="s">
         <v>358</v>
       </c>
-      <c r="AH104" t="s">
-        <v>359</v>
-      </c>
       <c r="AI104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ104" t="s">
         <v>81</v>
@@ -13842,10 +13842,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D105" s="1">
         <v>43428</v>
@@ -13872,7 +13872,7 @@
         <v>63</v>
       </c>
       <c r="L105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M105" t="s">
         <v>39</v>
@@ -13923,7 +13923,7 @@
         <v>189</v>
       </c>
       <c r="AC105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE105" t="s">
         <v>84</v>
@@ -13932,13 +13932,13 @@
         <v>119</v>
       </c>
       <c r="AG105" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH105" t="s">
         <v>358</v>
       </c>
-      <c r="AH105" t="s">
-        <v>359</v>
-      </c>
       <c r="AI105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ105" t="s">
         <v>81</v>
@@ -13949,10 +13949,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C106" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D106" s="1">
         <v>43428</v>
@@ -13979,7 +13979,7 @@
         <v>63</v>
       </c>
       <c r="L106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M106" t="s">
         <v>39</v>
@@ -14030,7 +14030,7 @@
         <v>189</v>
       </c>
       <c r="AC106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE106" t="s">
         <v>84</v>
@@ -14039,13 +14039,13 @@
         <v>119</v>
       </c>
       <c r="AG106" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH106" t="s">
         <v>358</v>
       </c>
-      <c r="AH106" t="s">
-        <v>359</v>
-      </c>
       <c r="AI106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ106" t="s">
         <v>81</v>
@@ -14056,10 +14056,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D107" s="1">
         <v>43428</v>
@@ -14086,7 +14086,7 @@
         <v>63</v>
       </c>
       <c r="L107" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M107" t="s">
         <v>39</v>
@@ -14137,7 +14137,7 @@
         <v>189</v>
       </c>
       <c r="AC107" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE107" t="s">
         <v>84</v>
@@ -14146,13 +14146,13 @@
         <v>119</v>
       </c>
       <c r="AG107" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH107" t="s">
         <v>358</v>
       </c>
-      <c r="AH107" t="s">
-        <v>359</v>
-      </c>
       <c r="AI107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ107" t="s">
         <v>81</v>
@@ -14163,10 +14163,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D108" s="1">
         <v>43428</v>
@@ -14244,7 +14244,7 @@
         <v>189</v>
       </c>
       <c r="AC108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE108" t="s">
         <v>84</v>
@@ -14253,13 +14253,13 @@
         <v>119</v>
       </c>
       <c r="AG108" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH108" t="s">
         <v>358</v>
       </c>
-      <c r="AH108" t="s">
+      <c r="AI108" t="s">
         <v>359</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>360</v>
       </c>
       <c r="AJ108" t="s">
         <v>81</v>
@@ -14270,10 +14270,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D109" s="1">
         <v>43428</v>
@@ -14351,7 +14351,7 @@
         <v>189</v>
       </c>
       <c r="AC109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE109" t="s">
         <v>84</v>
@@ -14360,13 +14360,13 @@
         <v>119</v>
       </c>
       <c r="AG109" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH109" t="s">
         <v>358</v>
       </c>
-      <c r="AH109" t="s">
+      <c r="AI109" t="s">
         <v>359</v>
-      </c>
-      <c r="AI109" t="s">
-        <v>360</v>
       </c>
       <c r="AJ109" t="s">
         <v>81</v>
@@ -14377,10 +14377,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D110" s="1">
         <v>43428</v>
@@ -14458,7 +14458,7 @@
         <v>189</v>
       </c>
       <c r="AC110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE110" t="s">
         <v>84</v>
@@ -14467,13 +14467,13 @@
         <v>119</v>
       </c>
       <c r="AG110" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH110" t="s">
         <v>358</v>
       </c>
-      <c r="AH110" t="s">
+      <c r="AI110" t="s">
         <v>359</v>
-      </c>
-      <c r="AI110" t="s">
-        <v>360</v>
       </c>
       <c r="AJ110" t="s">
         <v>81</v>
@@ -14484,10 +14484,10 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D111" s="1">
         <v>43428</v>
@@ -14565,7 +14565,7 @@
         <v>189</v>
       </c>
       <c r="AC111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE111" t="s">
         <v>84</v>
@@ -14574,13 +14574,13 @@
         <v>119</v>
       </c>
       <c r="AG111" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH111" t="s">
         <v>358</v>
       </c>
-      <c r="AH111" t="s">
+      <c r="AI111" t="s">
         <v>359</v>
-      </c>
-      <c r="AI111" t="s">
-        <v>360</v>
       </c>
       <c r="AJ111" t="s">
         <v>81</v>
@@ -14591,10 +14591,10 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D112" s="1">
         <v>43428</v>
@@ -14672,7 +14672,7 @@
         <v>189</v>
       </c>
       <c r="AC112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE112" t="s">
         <v>84</v>
@@ -14681,13 +14681,13 @@
         <v>119</v>
       </c>
       <c r="AG112" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH112" t="s">
         <v>358</v>
       </c>
-      <c r="AH112" t="s">
-        <v>359</v>
-      </c>
       <c r="AI112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ112" t="s">
         <v>81</v>
@@ -14698,10 +14698,10 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D113" s="1">
         <v>43428</v>
@@ -14779,7 +14779,7 @@
         <v>189</v>
       </c>
       <c r="AC113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE113" t="s">
         <v>84</v>
@@ -14788,13 +14788,13 @@
         <v>119</v>
       </c>
       <c r="AG113" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH113" t="s">
         <v>358</v>
       </c>
-      <c r="AH113" t="s">
-        <v>359</v>
-      </c>
       <c r="AI113" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ113" t="s">
         <v>81</v>
@@ -14805,10 +14805,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D114" s="1">
         <v>43428</v>
@@ -14886,7 +14886,7 @@
         <v>189</v>
       </c>
       <c r="AC114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE114" t="s">
         <v>84</v>
@@ -14895,13 +14895,13 @@
         <v>119</v>
       </c>
       <c r="AG114" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH114" t="s">
         <v>358</v>
       </c>
-      <c r="AH114" t="s">
-        <v>359</v>
-      </c>
       <c r="AI114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ114" t="s">
         <v>81</v>
@@ -14912,10 +14912,10 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D115" s="1">
         <v>43428</v>
@@ -14993,7 +14993,7 @@
         <v>189</v>
       </c>
       <c r="AC115" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE115" t="s">
         <v>84</v>
@@ -15002,13 +15002,13 @@
         <v>119</v>
       </c>
       <c r="AG115" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH115" t="s">
         <v>358</v>
       </c>
-      <c r="AH115" t="s">
-        <v>359</v>
-      </c>
       <c r="AI115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ115" t="s">
         <v>81</v>
@@ -15019,10 +15019,10 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D116" s="1">
         <v>43428</v>
@@ -15100,7 +15100,7 @@
         <v>189</v>
       </c>
       <c r="AC116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE116" t="s">
         <v>84</v>
@@ -15109,13 +15109,13 @@
         <v>119</v>
       </c>
       <c r="AG116" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH116" t="s">
         <v>358</v>
       </c>
-      <c r="AH116" t="s">
-        <v>359</v>
-      </c>
       <c r="AI116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ116" t="s">
         <v>81</v>
@@ -15126,10 +15126,10 @@
         <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D117" s="1">
         <v>43429</v>
@@ -15156,7 +15156,7 @@
         <v>45</v>
       </c>
       <c r="L117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M117" t="s">
         <v>39</v>
@@ -15210,22 +15210,22 @@
         <v>190</v>
       </c>
       <c r="AD117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE117" t="s">
         <v>84</v>
       </c>
       <c r="AF117" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG117" t="s">
         <v>388</v>
       </c>
-      <c r="AG117" t="s">
+      <c r="AH117" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI117" t="s">
         <v>389</v>
-      </c>
-      <c r="AH117" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI117" t="s">
-        <v>390</v>
       </c>
       <c r="AJ117" t="s">
         <v>81</v>
@@ -15236,10 +15236,10 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D118" s="1">
         <v>43428</v>
@@ -15266,7 +15266,7 @@
         <v>45</v>
       </c>
       <c r="L118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M118" t="s">
         <v>39</v>
@@ -15320,22 +15320,22 @@
         <v>190</v>
       </c>
       <c r="AD118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE118" t="s">
         <v>84</v>
       </c>
       <c r="AF118" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG118" t="s">
         <v>388</v>
       </c>
-      <c r="AG118" t="s">
+      <c r="AH118" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI118" t="s">
         <v>389</v>
-      </c>
-      <c r="AH118" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI118" t="s">
-        <v>390</v>
       </c>
       <c r="AJ118" t="s">
         <v>81</v>
@@ -15346,10 +15346,10 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D119" s="1">
         <v>43428</v>
@@ -15376,7 +15376,7 @@
         <v>45</v>
       </c>
       <c r="L119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M119" t="s">
         <v>39</v>
@@ -15430,22 +15430,22 @@
         <v>190</v>
       </c>
       <c r="AD119" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE119" t="s">
         <v>84</v>
       </c>
       <c r="AF119" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG119" t="s">
         <v>388</v>
       </c>
-      <c r="AG119" t="s">
+      <c r="AH119" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI119" t="s">
         <v>389</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI119" t="s">
-        <v>390</v>
       </c>
       <c r="AJ119" t="s">
         <v>81</v>
@@ -15456,10 +15456,10 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D120" s="1">
         <v>43428</v>
@@ -15486,7 +15486,7 @@
         <v>45</v>
       </c>
       <c r="L120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M120" t="s">
         <v>39</v>
@@ -15540,22 +15540,22 @@
         <v>190</v>
       </c>
       <c r="AD120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE120" t="s">
         <v>84</v>
       </c>
       <c r="AF120" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG120" t="s">
         <v>388</v>
       </c>
-      <c r="AG120" t="s">
+      <c r="AH120" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI120" t="s">
         <v>389</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI120" t="s">
-        <v>390</v>
       </c>
       <c r="AJ120" t="s">
         <v>81</v>
@@ -15566,10 +15566,10 @@
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C121" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D121" s="1">
         <v>43428</v>
@@ -15596,7 +15596,7 @@
         <v>45</v>
       </c>
       <c r="L121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M121" t="s">
         <v>39</v>
@@ -15650,22 +15650,22 @@
         <v>190</v>
       </c>
       <c r="AD121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE121" t="s">
         <v>84</v>
       </c>
       <c r="AF121" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG121" t="s">
         <v>388</v>
       </c>
-      <c r="AG121" t="s">
+      <c r="AH121" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI121" t="s">
         <v>389</v>
-      </c>
-      <c r="AH121" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI121" t="s">
-        <v>390</v>
       </c>
       <c r="AJ121" t="s">
         <v>81</v>
@@ -15676,10 +15676,10 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D122" s="1">
         <v>43428</v>
@@ -15706,7 +15706,7 @@
         <v>45</v>
       </c>
       <c r="L122" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M122" t="s">
         <v>39</v>
@@ -15760,22 +15760,22 @@
         <v>190</v>
       </c>
       <c r="AD122" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE122" t="s">
         <v>84</v>
       </c>
       <c r="AF122" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG122" t="s">
         <v>388</v>
       </c>
-      <c r="AG122" t="s">
+      <c r="AH122" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI122" t="s">
         <v>389</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI122" t="s">
-        <v>390</v>
       </c>
       <c r="AJ122" t="s">
         <v>81</v>
@@ -15786,10 +15786,10 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C123" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D123" s="1">
         <v>43428</v>
@@ -15804,19 +15804,19 @@
         <v>41</v>
       </c>
       <c r="H123" t="s">
+        <v>396</v>
+      </c>
+      <c r="I123" t="s">
         <v>397</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>398</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>399</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>400</v>
-      </c>
-      <c r="L123" t="s">
-        <v>401</v>
       </c>
       <c r="M123" t="s">
         <v>39</v>
@@ -15870,22 +15870,22 @@
         <v>190</v>
       </c>
       <c r="AD123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE123" t="s">
         <v>84</v>
       </c>
       <c r="AF123" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG123" t="s">
         <v>388</v>
       </c>
-      <c r="AG123" t="s">
+      <c r="AH123" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI123" t="s">
         <v>389</v>
-      </c>
-      <c r="AH123" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI123" t="s">
-        <v>390</v>
       </c>
       <c r="AJ123" t="s">
         <v>81</v>
@@ -15896,10 +15896,10 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D124" s="1">
         <v>43428</v>
@@ -15980,22 +15980,22 @@
         <v>190</v>
       </c>
       <c r="AD124" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE124" t="s">
         <v>84</v>
       </c>
       <c r="AF124" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG124" t="s">
         <v>388</v>
       </c>
-      <c r="AG124" t="s">
+      <c r="AH124" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI124" t="s">
         <v>389</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI124" t="s">
-        <v>390</v>
       </c>
       <c r="AJ124" t="s">
         <v>81</v>
@@ -16006,10 +16006,10 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D125" s="1">
         <v>43428</v>
@@ -16090,22 +16090,22 @@
         <v>190</v>
       </c>
       <c r="AD125" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE125" t="s">
         <v>84</v>
       </c>
       <c r="AF125" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG125" t="s">
         <v>388</v>
       </c>
-      <c r="AG125" t="s">
+      <c r="AH125" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI125" t="s">
         <v>389</v>
-      </c>
-      <c r="AH125" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI125" t="s">
-        <v>390</v>
       </c>
       <c r="AJ125" t="s">
         <v>81</v>
@@ -16116,10 +16116,10 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C126" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D126" s="1">
         <v>43428</v>
@@ -16200,22 +16200,22 @@
         <v>190</v>
       </c>
       <c r="AD126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE126" t="s">
         <v>84</v>
       </c>
       <c r="AF126" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG126" t="s">
         <v>388</v>
       </c>
-      <c r="AG126" t="s">
+      <c r="AH126" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI126" t="s">
         <v>389</v>
-      </c>
-      <c r="AH126" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI126" t="s">
-        <v>390</v>
       </c>
       <c r="AJ126" t="s">
         <v>81</v>
@@ -16226,10 +16226,10 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D127" s="1">
         <v>43428</v>
@@ -16310,22 +16310,22 @@
         <v>190</v>
       </c>
       <c r="AD127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE127" t="s">
         <v>84</v>
       </c>
       <c r="AF127" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG127" t="s">
         <v>388</v>
       </c>
-      <c r="AG127" t="s">
+      <c r="AH127" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI127" t="s">
         <v>389</v>
-      </c>
-      <c r="AH127" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>390</v>
       </c>
       <c r="AJ127" t="s">
         <v>81</v>
@@ -16336,10 +16336,10 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128" s="1">
         <v>43428</v>
@@ -16420,22 +16420,22 @@
         <v>190</v>
       </c>
       <c r="AD128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE128" t="s">
         <v>84</v>
       </c>
       <c r="AF128" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG128" t="s">
         <v>388</v>
       </c>
-      <c r="AG128" t="s">
+      <c r="AH128" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI128" t="s">
         <v>389</v>
-      </c>
-      <c r="AH128" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI128" t="s">
-        <v>390</v>
       </c>
       <c r="AJ128" t="s">
         <v>81</v>
@@ -16446,10 +16446,10 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" s="1">
         <v>43428</v>
@@ -16530,22 +16530,22 @@
         <v>190</v>
       </c>
       <c r="AD129" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE129" t="s">
         <v>84</v>
       </c>
       <c r="AF129" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG129" t="s">
         <v>388</v>
       </c>
-      <c r="AG129" t="s">
+      <c r="AH129" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI129" t="s">
         <v>389</v>
-      </c>
-      <c r="AH129" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI129" t="s">
-        <v>390</v>
       </c>
       <c r="AJ129" t="s">
         <v>81</v>
@@ -16556,10 +16556,10 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="1">
         <v>43428</v>
@@ -16586,7 +16586,7 @@
         <v>45</v>
       </c>
       <c r="L130" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M130" t="s">
         <v>39</v>
@@ -16640,22 +16640,22 @@
         <v>190</v>
       </c>
       <c r="AD130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE130" t="s">
         <v>84</v>
       </c>
       <c r="AF130" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG130" t="s">
         <v>388</v>
       </c>
-      <c r="AG130" t="s">
+      <c r="AH130" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI130" t="s">
         <v>389</v>
-      </c>
-      <c r="AH130" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI130" t="s">
-        <v>390</v>
       </c>
       <c r="AJ130" t="s">
         <v>81</v>
@@ -16666,10 +16666,10 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C131" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" s="1">
         <v>43428</v>
@@ -16696,7 +16696,7 @@
         <v>45</v>
       </c>
       <c r="L131" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M131" t="s">
         <v>39</v>
@@ -16750,22 +16750,22 @@
         <v>190</v>
       </c>
       <c r="AD131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE131" t="s">
         <v>84</v>
       </c>
       <c r="AF131" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG131" t="s">
         <v>388</v>
       </c>
-      <c r="AG131" t="s">
+      <c r="AH131" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI131" t="s">
         <v>389</v>
-      </c>
-      <c r="AH131" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI131" t="s">
-        <v>390</v>
       </c>
       <c r="AJ131" t="s">
         <v>81</v>
@@ -16776,10 +16776,10 @@
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C132" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D132" s="1">
         <v>43428</v>
@@ -16806,7 +16806,7 @@
         <v>45</v>
       </c>
       <c r="L132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M132" t="s">
         <v>39</v>
@@ -16860,22 +16860,22 @@
         <v>190</v>
       </c>
       <c r="AD132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE132" t="s">
         <v>84</v>
       </c>
       <c r="AF132" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG132" t="s">
         <v>388</v>
       </c>
-      <c r="AG132" t="s">
+      <c r="AH132" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI132" t="s">
         <v>389</v>
-      </c>
-      <c r="AH132" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI132" t="s">
-        <v>390</v>
       </c>
       <c r="AJ132" t="s">
         <v>81</v>
@@ -16886,10 +16886,10 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C133" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" s="1">
         <v>43428</v>
@@ -16916,7 +16916,7 @@
         <v>45</v>
       </c>
       <c r="L133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M133" t="s">
         <v>39</v>
@@ -16970,22 +16970,22 @@
         <v>190</v>
       </c>
       <c r="AD133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE133" t="s">
         <v>84</v>
       </c>
       <c r="AF133" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG133" t="s">
         <v>388</v>
       </c>
-      <c r="AG133" t="s">
+      <c r="AH133" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI133" t="s">
         <v>389</v>
-      </c>
-      <c r="AH133" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI133" t="s">
-        <v>390</v>
       </c>
       <c r="AJ133" t="s">
         <v>81</v>
@@ -16996,10 +16996,10 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" s="1">
         <v>43428</v>
@@ -17026,7 +17026,7 @@
         <v>45</v>
       </c>
       <c r="L134" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M134" t="s">
         <v>39</v>
@@ -17080,22 +17080,22 @@
         <v>190</v>
       </c>
       <c r="AD134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE134" t="s">
         <v>84</v>
       </c>
       <c r="AF134" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG134" t="s">
         <v>388</v>
       </c>
-      <c r="AG134" t="s">
+      <c r="AH134" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI134" t="s">
         <v>389</v>
-      </c>
-      <c r="AH134" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI134" t="s">
-        <v>390</v>
       </c>
       <c r="AJ134" t="s">
         <v>81</v>
@@ -17106,10 +17106,10 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" s="1">
         <v>43428</v>
@@ -17136,7 +17136,7 @@
         <v>45</v>
       </c>
       <c r="L135" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M135" t="s">
         <v>39</v>
@@ -17190,22 +17190,22 @@
         <v>190</v>
       </c>
       <c r="AD135" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE135" t="s">
         <v>84</v>
       </c>
       <c r="AF135" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG135" t="s">
         <v>388</v>
       </c>
-      <c r="AG135" t="s">
+      <c r="AH135" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI135" t="s">
         <v>389</v>
-      </c>
-      <c r="AH135" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>390</v>
       </c>
       <c r="AJ135" t="s">
         <v>81</v>
@@ -17216,10 +17216,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D136" s="1">
         <v>43428</v>
@@ -17300,22 +17300,22 @@
         <v>190</v>
       </c>
       <c r="AD136" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE136" t="s">
         <v>84</v>
       </c>
       <c r="AF136" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG136" t="s">
         <v>388</v>
       </c>
-      <c r="AG136" t="s">
+      <c r="AH136" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI136" t="s">
         <v>389</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI136" t="s">
-        <v>390</v>
       </c>
       <c r="AJ136" t="s">
         <v>81</v>
@@ -17326,10 +17326,10 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D137" s="1">
         <v>43428</v>
@@ -17410,22 +17410,22 @@
         <v>190</v>
       </c>
       <c r="AD137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE137" t="s">
         <v>84</v>
       </c>
       <c r="AF137" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG137" t="s">
         <v>388</v>
       </c>
-      <c r="AG137" t="s">
+      <c r="AH137" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI137" t="s">
         <v>389</v>
-      </c>
-      <c r="AH137" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI137" t="s">
-        <v>390</v>
       </c>
       <c r="AJ137" t="s">
         <v>81</v>
@@ -17436,10 +17436,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D138" s="1">
         <v>43428</v>
@@ -17520,22 +17520,22 @@
         <v>190</v>
       </c>
       <c r="AD138" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE138" t="s">
         <v>84</v>
       </c>
       <c r="AF138" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG138" t="s">
         <v>388</v>
       </c>
-      <c r="AG138" t="s">
+      <c r="AH138" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI138" t="s">
         <v>389</v>
-      </c>
-      <c r="AH138" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI138" t="s">
-        <v>390</v>
       </c>
       <c r="AJ138" t="s">
         <v>81</v>
@@ -17546,10 +17546,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D139" s="1">
         <v>43428</v>
@@ -17630,22 +17630,22 @@
         <v>190</v>
       </c>
       <c r="AD139" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE139" t="s">
         <v>84</v>
       </c>
       <c r="AF139" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG139" t="s">
         <v>388</v>
       </c>
-      <c r="AG139" t="s">
+      <c r="AH139" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI139" t="s">
         <v>389</v>
-      </c>
-      <c r="AH139" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI139" t="s">
-        <v>390</v>
       </c>
       <c r="AJ139" t="s">
         <v>81</v>
@@ -17656,10 +17656,10 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D140" s="1">
         <v>43428</v>
@@ -17740,22 +17740,22 @@
         <v>190</v>
       </c>
       <c r="AD140" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE140" t="s">
         <v>84</v>
       </c>
       <c r="AF140" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG140" t="s">
         <v>388</v>
       </c>
-      <c r="AG140" t="s">
+      <c r="AH140" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI140" t="s">
         <v>389</v>
-      </c>
-      <c r="AH140" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI140" t="s">
-        <v>390</v>
       </c>
       <c r="AJ140" t="s">
         <v>81</v>
@@ -17766,10 +17766,10 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D141" s="1">
         <v>43428</v>
@@ -17850,22 +17850,22 @@
         <v>190</v>
       </c>
       <c r="AD141" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE141" t="s">
         <v>84</v>
       </c>
       <c r="AF141" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG141" t="s">
         <v>388</v>
       </c>
-      <c r="AG141" t="s">
+      <c r="AH141" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI141" t="s">
         <v>389</v>
-      </c>
-      <c r="AH141" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI141" t="s">
-        <v>390</v>
       </c>
       <c r="AJ141" t="s">
         <v>81</v>
@@ -17876,10 +17876,10 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D142" s="1">
         <v>43428</v>
@@ -17960,22 +17960,22 @@
         <v>190</v>
       </c>
       <c r="AD142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE142" t="s">
         <v>84</v>
       </c>
       <c r="AF142" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG142" t="s">
         <v>388</v>
       </c>
-      <c r="AG142" t="s">
+      <c r="AH142" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI142" t="s">
         <v>389</v>
-      </c>
-      <c r="AH142" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI142" t="s">
-        <v>390</v>
       </c>
       <c r="AJ142" t="s">
         <v>81</v>
@@ -17986,13 +17986,13 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
+        <v>421</v>
+      </c>
+      <c r="C143" t="s">
         <v>422</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>423</v>
-      </c>
-      <c r="D143" t="s">
-        <v>424</v>
       </c>
       <c r="E143" t="s">
         <v>39</v>
@@ -18016,7 +18016,7 @@
         <v>45</v>
       </c>
       <c r="L143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M143" t="s">
         <v>39</v>
@@ -18070,25 +18070,25 @@
         <v>190</v>
       </c>
       <c r="AD143" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE143" t="s">
         <v>425</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="AF143" t="s">
         <v>426</v>
       </c>
-      <c r="AF143" t="s">
+      <c r="AG143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK143" t="s">
         <v>427</v>
-      </c>
-      <c r="AG143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI143" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK143" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.2">
@@ -18096,13 +18096,13 @@
         <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C144" t="s">
+        <v>422</v>
+      </c>
+      <c r="D144" t="s">
         <v>423</v>
-      </c>
-      <c r="D144" t="s">
-        <v>424</v>
       </c>
       <c r="E144" t="s">
         <v>39</v>
@@ -18126,7 +18126,7 @@
         <v>45</v>
       </c>
       <c r="L144" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M144" t="s">
         <v>39</v>
@@ -18180,14 +18180,14 @@
         <v>190</v>
       </c>
       <c r="AD144" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE144" t="s">
         <v>425</v>
       </c>
-      <c r="AE144" t="s">
+      <c r="AF144" t="s">
         <v>426</v>
       </c>
-      <c r="AF144" t="s">
-        <v>427</v>
-      </c>
       <c r="AG144" t="s">
         <v>81</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>81</v>
       </c>
       <c r="AK144" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="1:37" x14ac:dyDescent="0.2">
@@ -18206,13 +18206,13 @@
         <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C145" t="s">
+        <v>422</v>
+      </c>
+      <c r="D145" t="s">
         <v>423</v>
-      </c>
-      <c r="D145" t="s">
-        <v>424</v>
       </c>
       <c r="E145" t="s">
         <v>39</v>
@@ -18290,14 +18290,14 @@
         <v>190</v>
       </c>
       <c r="AD145" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE145" t="s">
         <v>425</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AF145" t="s">
         <v>426</v>
       </c>
-      <c r="AF145" t="s">
-        <v>427</v>
-      </c>
       <c r="AG145" t="s">
         <v>81</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>81</v>
       </c>
       <c r="AK145" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.2">
@@ -18316,13 +18316,13 @@
         <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C146" t="s">
+        <v>422</v>
+      </c>
+      <c r="D146" t="s">
         <v>423</v>
-      </c>
-      <c r="D146" t="s">
-        <v>424</v>
       </c>
       <c r="E146" t="s">
         <v>39</v>
@@ -18400,14 +18400,14 @@
         <v>190</v>
       </c>
       <c r="AD146" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE146" t="s">
         <v>425</v>
       </c>
-      <c r="AE146" t="s">
+      <c r="AF146" t="s">
         <v>426</v>
       </c>
-      <c r="AF146" t="s">
-        <v>427</v>
-      </c>
       <c r="AG146" t="s">
         <v>81</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>81</v>
       </c>
       <c r="AK146" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.2">
@@ -18426,13 +18426,13 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
+        <v>422</v>
+      </c>
+      <c r="D147" t="s">
         <v>423</v>
-      </c>
-      <c r="D147" t="s">
-        <v>424</v>
       </c>
       <c r="E147" t="s">
         <v>39</v>
@@ -18510,14 +18510,14 @@
         <v>190</v>
       </c>
       <c r="AD147" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE147" t="s">
         <v>425</v>
       </c>
-      <c r="AE147" t="s">
+      <c r="AF147" t="s">
         <v>426</v>
       </c>
-      <c r="AF147" t="s">
-        <v>427</v>
-      </c>
       <c r="AG147" t="s">
         <v>81</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>81</v>
       </c>
       <c r="AK147" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:37" x14ac:dyDescent="0.2">
@@ -18536,13 +18536,13 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
+        <v>422</v>
+      </c>
+      <c r="D148" t="s">
         <v>423</v>
-      </c>
-      <c r="D148" t="s">
-        <v>424</v>
       </c>
       <c r="E148" t="s">
         <v>39</v>
@@ -18620,14 +18620,14 @@
         <v>190</v>
       </c>
       <c r="AD148" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE148" t="s">
         <v>425</v>
       </c>
-      <c r="AE148" t="s">
+      <c r="AF148" t="s">
         <v>426</v>
       </c>
-      <c r="AF148" t="s">
-        <v>427</v>
-      </c>
       <c r="AG148" t="s">
         <v>81</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>81</v>
       </c>
       <c r="AK148" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.2">
@@ -18646,13 +18646,13 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C149" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" t="s">
         <v>423</v>
-      </c>
-      <c r="D149" t="s">
-        <v>424</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -18730,14 +18730,14 @@
         <v>190</v>
       </c>
       <c r="AD149" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE149" t="s">
         <v>425</v>
       </c>
-      <c r="AE149" t="s">
+      <c r="AF149" t="s">
         <v>426</v>
       </c>
-      <c r="AF149" t="s">
-        <v>427</v>
-      </c>
       <c r="AG149" t="s">
         <v>81</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>81</v>
       </c>
       <c r="AK149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.2">
@@ -18756,13 +18756,13 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" t="s">
         <v>423</v>
-      </c>
-      <c r="D150" t="s">
-        <v>424</v>
       </c>
       <c r="E150" t="s">
         <v>39</v>
@@ -18840,14 +18840,14 @@
         <v>190</v>
       </c>
       <c r="AD150" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE150" t="s">
         <v>425</v>
       </c>
-      <c r="AE150" t="s">
+      <c r="AF150" t="s">
         <v>426</v>
       </c>
-      <c r="AF150" t="s">
-        <v>427</v>
-      </c>
       <c r="AG150" t="s">
         <v>81</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>81</v>
       </c>
       <c r="AK150" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:37" x14ac:dyDescent="0.2">
@@ -18866,10 +18866,10 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" t="s">
         <v>443</v>
-      </c>
-      <c r="C151" t="s">
-        <v>444</v>
       </c>
       <c r="D151" s="1">
         <v>43346</v>
@@ -18947,25 +18947,25 @@
         <v>170</v>
       </c>
       <c r="AC151" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD151" t="s">
         <v>445</v>
       </c>
-      <c r="AD151" t="s">
+      <c r="AF151" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH151" t="s">
         <v>446</v>
-      </c>
-      <c r="AF151" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG151" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH151" t="s">
-        <v>447</v>
       </c>
       <c r="AI151" t="s">
         <v>119</v>
       </c>
       <c r="AK151" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">
@@ -18973,10 +18973,10 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D152" s="1">
         <v>43346</v>
@@ -19003,7 +19003,7 @@
         <v>45</v>
       </c>
       <c r="L152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M152" t="s">
         <v>39</v>
@@ -19054,25 +19054,25 @@
         <v>170</v>
       </c>
       <c r="AC152" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD152" t="s">
         <v>445</v>
       </c>
-      <c r="AD152" t="s">
+      <c r="AF152" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH152" t="s">
         <v>446</v>
-      </c>
-      <c r="AF152" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH152" t="s">
-        <v>447</v>
       </c>
       <c r="AI152" t="s">
         <v>119</v>
       </c>
       <c r="AK152" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.2">
@@ -19080,10 +19080,10 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C153" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D153" s="1">
         <v>43346</v>
@@ -19161,25 +19161,25 @@
         <v>170</v>
       </c>
       <c r="AC153" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD153" t="s">
         <v>445</v>
       </c>
-      <c r="AD153" t="s">
+      <c r="AF153" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH153" t="s">
         <v>446</v>
-      </c>
-      <c r="AF153" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG153" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH153" t="s">
-        <v>447</v>
       </c>
       <c r="AI153" t="s">
         <v>119</v>
       </c>
       <c r="AK153" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:37" x14ac:dyDescent="0.2">
@@ -19187,10 +19187,10 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D154" s="1">
         <v>43346</v>
@@ -19217,7 +19217,7 @@
         <v>63</v>
       </c>
       <c r="L154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M154" t="s">
         <v>39</v>
@@ -19268,25 +19268,25 @@
         <v>170</v>
       </c>
       <c r="AC154" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD154" t="s">
         <v>445</v>
       </c>
-      <c r="AD154" t="s">
+      <c r="AF154" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH154" t="s">
         <v>446</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG154" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH154" t="s">
-        <v>447</v>
       </c>
       <c r="AI154" t="s">
         <v>119</v>
       </c>
       <c r="AK154" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.2">
@@ -19294,10 +19294,10 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C155" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D155" s="1">
         <v>43372</v>
@@ -19324,7 +19324,7 @@
         <v>45</v>
       </c>
       <c r="L155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M155" t="s">
         <v>39</v>
@@ -19338,10 +19338,10 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D156" s="1">
         <v>43372</v>
@@ -19368,7 +19368,7 @@
         <v>45</v>
       </c>
       <c r="L156" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M156" t="s">
         <v>39</v>
@@ -19382,10 +19382,10 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D157" s="1">
         <v>43372</v>
@@ -19426,10 +19426,10 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D158" s="1">
         <v>43372</v>
@@ -19470,10 +19470,10 @@
         <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D159" s="1">
         <v>43372</v>
@@ -19514,10 +19514,10 @@
         <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D160" s="1">
         <v>43372</v>
@@ -19558,10 +19558,10 @@
         <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D161" s="1">
         <v>43372</v>
@@ -19602,10 +19602,10 @@
         <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D162" s="1">
         <v>43372</v>
@@ -19646,10 +19646,10 @@
         <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C163" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D163" s="1">
         <v>43372</v>
@@ -19690,10 +19690,10 @@
         <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D164" s="1">
         <v>43372</v>
@@ -19720,7 +19720,7 @@
         <v>45</v>
       </c>
       <c r="L164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M164" t="s">
         <v>39</v>
@@ -19734,10 +19734,10 @@
         <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D165" s="1">
         <v>43372</v>
@@ -19764,7 +19764,7 @@
         <v>45</v>
       </c>
       <c r="L165" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M165" t="s">
         <v>39</v>
@@ -19778,10 +19778,10 @@
         <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D166" s="1">
         <v>43372</v>
@@ -19808,7 +19808,7 @@
         <v>45</v>
       </c>
       <c r="L166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M166" t="s">
         <v>39</v>
@@ -19822,7 +19822,7 @@
         <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -19830,7 +19830,7 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -19838,7 +19838,7 @@
         <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -19846,7 +19846,7 @@
         <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -19854,7 +19854,7 @@
         <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -19862,7 +19862,7 @@
         <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -19870,7 +19870,7 @@
         <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -19878,7 +19878,7 @@
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -19886,7 +19886,7 @@
         <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -19894,7 +19894,7 @@
         <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -19902,7 +19902,7 @@
         <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -19910,7 +19910,7 @@
         <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -19918,7 +19918,7 @@
         <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -19926,7 +19926,7 @@
         <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -19934,7 +19934,7 @@
         <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -19942,7 +19942,7 @@
         <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -19950,7 +19950,7 @@
         <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -19958,7 +19958,7 @@
         <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -19966,7 +19966,7 @@
         <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -19974,7 +19974,7 @@
         <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -19982,7 +19982,7 @@
         <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -19990,7 +19990,7 @@
         <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -19998,7 +19998,7 @@
         <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -20006,7 +20006,7 @@
         <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -20014,7 +20014,7 @@
         <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -20022,7 +20022,7 @@
         <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -20030,7 +20030,7 @@
         <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -20038,7 +20038,7 @@
         <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -20046,7 +20046,7 @@
         <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -20054,7 +20054,7 @@
         <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -20062,7 +20062,7 @@
         <v>193</v>
       </c>
       <c r="B197" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -20070,7 +20070,7 @@
         <v>194</v>
       </c>
       <c r="B198" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -20078,7 +20078,7 @@
         <v>195</v>
       </c>
       <c r="B199" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -20086,7 +20086,7 @@
         <v>196</v>
       </c>
       <c r="B200" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -20094,7 +20094,7 @@
         <v>197</v>
       </c>
       <c r="B201" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -20102,7 +20102,7 @@
         <v>198</v>
       </c>
       <c r="B202" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D00FA-7170-4825-93E0-B73D20BB28C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C9B38-7D37-49E4-A82D-7B3522E48FFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="523">
   <si>
     <t>collection_no</t>
   </si>
@@ -1583,6 +1583,12 @@
   </si>
   <si>
     <t>RVM_8 voucher 1</t>
+  </si>
+  <si>
+    <t>got it?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2103,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2109,6 +2115,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2464,13 +2471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK204"/>
+  <dimension ref="A1:AL204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="AL69" sqref="AL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2521,7 @@
     <col min="37" max="37" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>468</v>
       </c>
@@ -2557,7 +2564,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2669,8 +2676,11 @@
       <c r="AK2" t="s">
         <v>36</v>
       </c>
+      <c r="AL2" s="11" t="s">
+        <v>521</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3002,8 +3012,11 @@
       <c r="AJ5" s="9">
         <v>3</v>
       </c>
+      <c r="AL5" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3113,7 +3126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3223,7 +3236,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3333,7 +3346,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3440,7 +3453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3544,7 +3557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>519</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -3758,7 +3771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -3972,7 +3985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>517</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4180,7 +4193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -4400,7 +4413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -4510,7 +4523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -4620,7 +4633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -4729,8 +4742,11 @@
       <c r="AJ21" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL21" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -4950,7 +4966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -5059,8 +5075,11 @@
       <c r="AJ24" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL24" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -5170,7 +5189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -5280,7 +5299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -5500,7 +5519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -5610,7 +5629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -5720,7 +5739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -5833,7 +5852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -5946,7 +5965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -6172,7 +6191,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -6282,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -6392,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -6502,7 +6521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -6614,8 +6633,11 @@
       <c r="AK38" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="AL38" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -6725,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -6835,7 +6857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -6945,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -7055,7 +7077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -7168,7 +7190,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -7278,7 +7300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>507</v>
       </c>
@@ -7388,7 +7410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>510</v>
       </c>
@@ -7498,7 +7520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>53</v>
       </c>
@@ -7608,7 +7630,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>91</v>
       </c>
@@ -9490,7 +9512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>59</v>
       </c>
@@ -9600,7 +9622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>60</v>
       </c>
@@ -9709,8 +9731,11 @@
       <c r="AJ66" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL66" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="67" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>61</v>
       </c>
@@ -9819,8 +9844,11 @@
       <c r="AJ67" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL67" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="68" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>62</v>
       </c>
@@ -9929,8 +9957,11 @@
       <c r="AJ68" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL68" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="69" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>63</v>
       </c>
@@ -10040,7 +10071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>64</v>
       </c>
@@ -10150,7 +10181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>65</v>
       </c>
@@ -10260,7 +10291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>66</v>
       </c>
@@ -10370,7 +10401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>67</v>
       </c>
@@ -10477,7 +10508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>68</v>
       </c>
@@ -10584,7 +10615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>69</v>
       </c>
@@ -10691,7 +10722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>70</v>
       </c>
@@ -10798,7 +10829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>71</v>
       </c>
@@ -10908,7 +10939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>72</v>
       </c>
@@ -11018,7 +11049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>73</v>
       </c>
@@ -11128,7 +11159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>74</v>
       </c>
@@ -11238,7 +11269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>75</v>
       </c>
@@ -11348,7 +11379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>76</v>
       </c>
@@ -11458,7 +11489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>77</v>
       </c>
@@ -11568,7 +11599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>78</v>
       </c>
@@ -11678,7 +11709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>79</v>
       </c>
@@ -11788,7 +11819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>80</v>
       </c>
@@ -11898,7 +11929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>81</v>
       </c>
@@ -12008,7 +12039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>82</v>
       </c>
@@ -12117,8 +12148,11 @@
       <c r="AJ88" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL88" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>83</v>
       </c>
@@ -12227,8 +12261,11 @@
       <c r="AJ89" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="AL89" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>84</v>
       </c>
@@ -12338,7 +12375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>85</v>
       </c>
@@ -12448,7 +12485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>86</v>
       </c>
@@ -12561,7 +12598,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>87</v>
       </c>
@@ -12671,7 +12708,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>88</v>
       </c>
@@ -12784,7 +12821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>89</v>
       </c>
@@ -12894,7 +12931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>90</v>
       </c>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C9B38-7D37-49E4-A82D-7B3522E48FFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94B76CD-B97D-48C3-A9B7-97C072795A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="523">
   <si>
     <t>collection_no</t>
   </si>
@@ -2474,10 +2474,10 @@
   <dimension ref="A1:AL204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL69" sqref="AL69"/>
+      <selection pane="bottomRight" activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2789,6 +2789,9 @@
       <c r="AJ3" s="9">
         <v>3</v>
       </c>
+      <c r="AL3" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="4" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -2902,6 +2905,9 @@
       <c r="AK4" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="AL4" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="5" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
@@ -3125,6 +3131,9 @@
       <c r="AJ6" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="AL6" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="7" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
@@ -3235,6 +3244,9 @@
       <c r="AJ7" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="AL7" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="8" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -3345,6 +3357,9 @@
       <c r="AJ8" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="AL8" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="9" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -3452,6 +3467,9 @@
       <c r="AJ9" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="AL9" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="10" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -3556,6 +3574,9 @@
       <c r="AJ10" s="9" t="s">
         <v>113</v>
       </c>
+      <c r="AL10" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -3660,6 +3681,9 @@
       <c r="AJ11" s="9" t="s">
         <v>113</v>
       </c>
+      <c r="AL11" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="12" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -3770,6 +3794,9 @@
       <c r="AJ12" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="AL12" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="13" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
@@ -3880,6 +3907,9 @@
       <c r="AJ13" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL13" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="14" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
@@ -3984,6 +4014,9 @@
       <c r="AJ14" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL14" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="15" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -4088,6 +4121,9 @@
       <c r="AJ15" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL15" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="16" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
@@ -4192,6 +4228,9 @@
       <c r="AJ16" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL16" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="17" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
@@ -4412,6 +4451,9 @@
       <c r="AJ18" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL18" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="19" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
@@ -4522,6 +4564,9 @@
       <c r="AJ19" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL19" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="20" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
@@ -4632,6 +4677,9 @@
       <c r="AJ20" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL20" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="21" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
@@ -4855,6 +4903,9 @@
       <c r="AJ22" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL22" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="23" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
@@ -4965,6 +5016,9 @@
       <c r="AJ23" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL23" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="24" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
@@ -5188,6 +5242,9 @@
       <c r="AJ25" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL25" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="26" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
@@ -5518,6 +5575,9 @@
       <c r="AJ28" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL28" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="29" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
@@ -5628,6 +5688,9 @@
       <c r="AJ29" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL29" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="30" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
@@ -5851,6 +5914,9 @@
       <c r="AK31" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL31" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="32" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
@@ -5964,6 +6030,9 @@
       <c r="AK32" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL32" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="33" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
@@ -6077,6 +6146,9 @@
       <c r="AK33" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL33" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="34" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
@@ -6300,6 +6372,9 @@
       <c r="AJ35" s="9">
         <v>3</v>
       </c>
+      <c r="AL35" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="36" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
@@ -6410,6 +6485,9 @@
       <c r="AJ36" s="9">
         <v>3</v>
       </c>
+      <c r="AL36" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="37" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
@@ -6520,6 +6598,9 @@
       <c r="AJ37" s="9">
         <v>3</v>
       </c>
+      <c r="AL37" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="38" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
@@ -7076,6 +7157,9 @@
       <c r="AJ42" s="9">
         <v>3</v>
       </c>
+      <c r="AL42" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="43" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
@@ -7519,6 +7603,9 @@
       <c r="AJ46" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL46" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="47" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
@@ -7629,6 +7716,9 @@
       <c r="AJ47" s="9" t="s">
         <v>250</v>
       </c>
+      <c r="AL47" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="48" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
@@ -7739,8 +7829,11 @@
       <c r="AJ48" s="9" t="s">
         <v>250</v>
       </c>
+      <c r="AL48" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>41</v>
       </c>
@@ -7849,8 +7942,11 @@
       <c r="AJ49" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="AL49" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>42</v>
       </c>
@@ -7959,8 +8055,11 @@
       <c r="AJ50" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="AL50" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>43</v>
       </c>
@@ -8069,8 +8168,11 @@
       <c r="AJ51" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL51" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44</v>
       </c>
@@ -8180,7 +8282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45</v>
       </c>
@@ -8290,7 +8392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46</v>
       </c>
@@ -8399,8 +8501,11 @@
       <c r="AJ54" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL54" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>47</v>
       </c>
@@ -8509,8 +8614,11 @@
       <c r="AJ55" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL55" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>48</v>
       </c>
@@ -8622,8 +8730,11 @@
       <c r="AK56" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL56" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>49</v>
       </c>
@@ -8735,8 +8846,11 @@
       <c r="AK57" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL57" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>50</v>
       </c>
@@ -8848,8 +8962,11 @@
       <c r="AK58" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL58" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>51</v>
       </c>
@@ -8961,8 +9078,11 @@
       <c r="AK59" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL59" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>54</v>
       </c>
@@ -9072,7 +9192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>55</v>
       </c>
@@ -9182,7 +9302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>56</v>
       </c>
@@ -9291,8 +9411,11 @@
       <c r="AJ62" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL62" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>57</v>
       </c>
@@ -9401,8 +9524,11 @@
       <c r="AJ63" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL63" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>58</v>
       </c>
@@ -10070,6 +10196,9 @@
       <c r="AJ69" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL69" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="70" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
@@ -10180,6 +10309,9 @@
       <c r="AJ70" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL70" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="71" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
@@ -10290,6 +10422,9 @@
       <c r="AJ71" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL71" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="72" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
@@ -10400,6 +10535,9 @@
       <c r="AJ72" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL72" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="73" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
@@ -10507,6 +10645,9 @@
       <c r="AJ73" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL73" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="74" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
@@ -10614,6 +10755,9 @@
       <c r="AJ74" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL74" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="75" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
@@ -10721,6 +10865,9 @@
       <c r="AJ75" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL75" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="76" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
@@ -10938,6 +11085,9 @@
       <c r="AJ77" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL77" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="78" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
@@ -11048,6 +11198,9 @@
       <c r="AJ78" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL78" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="79" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
@@ -11378,6 +11531,9 @@
       <c r="AJ81" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL81" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="82" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
@@ -11708,6 +11864,9 @@
       <c r="AJ84" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL84" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="85" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
@@ -12484,6 +12643,9 @@
       <c r="AJ91" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="AL91" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="92" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
@@ -12820,6 +12982,9 @@
       <c r="AK94" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="AL94" s="9" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="95" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
@@ -12929,6 +13094,9 @@
       </c>
       <c r="AJ95" s="9" t="s">
         <v>81</v>
+      </c>
+      <c r="AL95" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94B76CD-B97D-48C3-A9B7-97C072795A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674E2E06-BA72-4443-9810-D4D4815E6BCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="524">
   <si>
     <t>collection_no</t>
   </si>
@@ -1589,6 +1589,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Tetraria pleosticha aff. (det.: Van Mazijk)</t>
   </si>
 </sst>
 </file>
@@ -2474,10 +2477,10 @@
   <dimension ref="A1:AL204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD48" sqref="AD48"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6298,13 +6301,13 @@
         <v>45</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>39</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>40</v>
+        <v>523</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>48</v>

--- a/botanical-collections_rvm.xlsx
+++ b/botanical-collections_rvm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\botanical-collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/botanical-collections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674E2E06-BA72-4443-9810-D4D4815E6BCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FFF8AA-293B-4949-BA20-CB4506CD4377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="-20020" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="botanical-collections_rvm" sheetId="1" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2477,54 +2477,54 @@
   <dimension ref="A1:AL204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="157" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="144.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="167.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="144.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="167.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="49" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="B1" s="6" t="s">
         <v>468</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="9" customFormat="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="9" customFormat="1">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="9" customFormat="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="9" customFormat="1">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" s="9" customFormat="1">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="9" customFormat="1">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="9" customFormat="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>519</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="9" customFormat="1">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="9" customFormat="1">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" s="9" customFormat="1">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>517</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="9" customFormat="1">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" s="9" customFormat="1">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" s="9" customFormat="1">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" s="9" customFormat="1">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" s="9" customFormat="1">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" s="9" customFormat="1">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" s="9" customFormat="1">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" s="9" customFormat="1">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" s="9" customFormat="1">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" s="9" customFormat="1">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" s="9" customFormat="1">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="9" customFormat="1">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" s="9" customFormat="1">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" s="9" customFormat="1">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" s="9" customFormat="1">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" s="9" customFormat="1">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" s="9" customFormat="1">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" s="9" customFormat="1">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" s="9" customFormat="1">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" s="9" customFormat="1">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" s="9" customFormat="1">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" s="9" customFormat="1">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" s="9" customFormat="1">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" s="9" customFormat="1">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" s="9" customFormat="1">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" s="9" customFormat="1">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" s="9" customFormat="1">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" s="9" customFormat="1">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" s="9" customFormat="1">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>507</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" s="9" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>510</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" s="9" customFormat="1">
       <c r="A47" s="9">
         <v>53</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" s="9" customFormat="1">
       <c r="A48" s="9">
         <v>91</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" s="9" customFormat="1">
       <c r="A49" s="9">
         <v>41</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" s="9" customFormat="1">
       <c r="A50" s="9">
         <v>42</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" s="9" customFormat="1">
       <c r="A51" s="9">
         <v>43</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" s="9" customFormat="1">
       <c r="A52" s="9">
         <v>44</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" s="9" customFormat="1">
       <c r="A53" s="9">
         <v>45</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" s="9" customFormat="1">
       <c r="A54" s="9">
         <v>46</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" s="9" customFormat="1">
       <c r="A55" s="9">
         <v>47</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" s="9" customFormat="1">
       <c r="A56" s="9">
         <v>48</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" s="9" customFormat="1">
       <c r="A57" s="9">
         <v>49</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" s="9" customFormat="1">
       <c r="A58" s="9">
         <v>50</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" s="9" customFormat="1">
       <c r="A59" s="9">
         <v>51</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" s="9" customFormat="1">
       <c r="A60" s="9">
         <v>54</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" s="9" customFormat="1">
       <c r="A61" s="9">
         <v>55</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" s="9" customFormat="1">
       <c r="A62" s="9">
         <v>56</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" s="9" customFormat="1">
       <c r="A63" s="9">
         <v>57</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" s="9" customFormat="1">
       <c r="A64" s="9">
         <v>58</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" s="9" customFormat="1">
       <c r="A65" s="9">
         <v>59</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" s="9" customFormat="1">
       <c r="A66" s="9">
         <v>60</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" s="9" customFormat="1">
       <c r="A67" s="9">
         <v>61</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" s="9" customFormat="1">
       <c r="A68" s="9">
         <v>62</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" s="9" customFormat="1">
       <c r="A69" s="9">
         <v>63</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" s="9" customFormat="1">
       <c r="A70" s="9">
         <v>64</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" s="9" customFormat="1">
       <c r="A71" s="9">
         <v>65</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" s="9" customFormat="1">
       <c r="A72" s="9">
         <v>66</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" s="9" customFormat="1">
       <c r="A73" s="9">
         <v>67</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="74" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" s="9" customFormat="1">
       <c r="A74" s="9">
         <v>68</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" s="9" customFormat="1">
       <c r="A75" s="9">
         <v>69</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" s="9" customFormat="1">
       <c r="A76" s="9">
         <v>70</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" s="9" customFormat="1">
       <c r="A77" s="9">
         <v>71</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" s="9" customFormat="1">
       <c r="A78" s="9">
         <v>72</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="79" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" s="9" customFormat="1">
       <c r="A79" s="9">
         <v>73</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" s="9" customFormat="1">
       <c r="A80" s="9">
         <v>74</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" s="9" customFormat="1">
       <c r="A81" s="9">
         <v>75</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" s="9" customFormat="1">
       <c r="A82" s="9">
         <v>76</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" s="9" customFormat="1">
       <c r="A83" s="9">
         <v>77</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" s="9" customFormat="1">
       <c r="A84" s="9">
         <v>78</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="85" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" s="9" customFormat="1">
       <c r="A85" s="9">
         <v>79</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" s="9" customFormat="1">
       <c r="A86" s="9">
         <v>80</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" s="9" customFormat="1">
       <c r="A87" s="9">
         <v>81</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" s="9" customFormat="1">
       <c r="A88" s="9">
         <v>82</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" s="9" customFormat="1">
       <c r="A89" s="9">
         <v>83</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" s="9" customFormat="1">
       <c r="A90" s="9">
         <v>84</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" s="9" customFormat="1">
       <c r="A91" s="9">
         <v>85</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" s="9" customFormat="1">
       <c r="A92" s="9">
         <v>86</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" s="9" customFormat="1">
       <c r="A93" s="9">
         <v>87</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" s="9" customFormat="1">
       <c r="A94" s="9">
         <v>88</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" s="9" customFormat="1">
       <c r="A95" s="9">
         <v>89</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="96" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" s="9" customFormat="1">
       <c r="A96" s="9">
         <v>90</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36">
       <c r="A97">
         <v>92</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36">
       <c r="A98">
         <v>93</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36">
       <c r="A99">
         <v>94</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36">
       <c r="A100">
         <v>95</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36">
       <c r="A101">
         <v>96</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36">
       <c r="A102">
         <v>97</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36">
       <c r="A103">
         <v>98</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36">
       <c r="A104">
         <v>99</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36">
       <c r="A105">
         <v>100</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36">
       <c r="A106">
         <v>101</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36">
       <c r="A107">
         <v>102</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36">
       <c r="A108">
         <v>103</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36">
       <c r="A109">
         <v>104</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36">
       <c r="A110">
         <v>105</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36">
       <c r="A111">
         <v>106</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36">
       <c r="A112">
         <v>107</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36">
       <c r="A113">
         <v>108</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36">
       <c r="A114">
         <v>109</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36">
       <c r="A115">
         <v>110</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36">
       <c r="A116">
         <v>111</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36">
       <c r="A117">
         <v>112</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36">
       <c r="A118">
         <v>113</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36">
       <c r="A119">
         <v>100</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36">
       <c r="A120">
         <v>114</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36">
       <c r="A121">
         <v>115</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36">
       <c r="A122">
         <v>116</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36">
       <c r="A123">
         <v>117</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36">
       <c r="A124">
         <v>118</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36">
       <c r="A125">
         <v>119</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36">
       <c r="A126">
         <v>120</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36">
       <c r="A127">
         <v>121</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36">
       <c r="A128">
         <v>122</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36">
       <c r="A129">
         <v>123</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36">
       <c r="A130">
         <v>124</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36">
       <c r="A131">
         <v>125</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36">
       <c r="A132">
         <v>126</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36">
       <c r="A133">
         <v>127</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36">
       <c r="A134">
         <v>128</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36">
       <c r="A135">
         <v>129</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36">
       <c r="A136">
         <v>130</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36">
       <c r="A137">
         <v>131</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36">
       <c r="A138">
         <v>132</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36">
       <c r="A139">
         <v>133</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36">
       <c r="A140">
         <v>134</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36">
       <c r="A141">
         <v>135</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36">
       <c r="A142">
         <v>136</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36">
       <c r="A143">
         <v>137</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36">
       <c r="A144">
         <v>138</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37">
       <c r="A145">
         <v>139</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37">
       <c r="A146">
         <v>140</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37">
       <c r="A147">
         <v>141</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37">
       <c r="A148">
         <v>142</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37">
       <c r="A149">
         <v>143</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:37">
       <c r="A150">
         <v>144</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:37">
       <c r="A151">
         <v>145</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:37">
       <c r="A152">
         <v>146</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:37">
       <c r="A153">
         <v>147</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:37">
       <c r="A154">
         <v>148</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:37">
       <c r="A155">
         <v>149</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:37">
       <c r="A156">
         <v>150</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:37">
       <c r="A157">
         <v>151</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:37">
       <c r="A158">
         <v>152</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:37">
       <c r="A159">
         <v>153</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:37">
       <c r="A160">
         <v>154</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14">
       <c r="A161">
         <v>155</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14">
       <c r="A162">
         <v>156</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14">
       <c r="A163">
         <v>157</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14">
       <c r="A164">
         <v>158</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14">
       <c r="A165">
         <v>159</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14">
       <c r="A166">
         <v>160</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14">
       <c r="A167">
         <v>161</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14">
       <c r="A168">
         <v>162</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14">
       <c r="A169">
         <v>163</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14">
       <c r="A170">
         <v>164</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14">
       <c r="A171">
         <v>165</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14">
       <c r="A172">
         <v>166</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14">
       <c r="A173">
         <v>167</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14">
       <c r="A174">
         <v>168</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14">
       <c r="A175">
         <v>169</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14">
       <c r="A176">
         <v>170</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>171</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>172</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>173</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>174</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>175</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>176</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>177</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>178</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>179</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>180</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>181</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>182</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>183</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>184</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>185</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>186</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>187</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>188</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>189</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>190</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>191</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>192</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>193</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>194</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>195</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>196</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>197</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>198</v>
       </c>
